--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.84285064069465</v>
+        <v>1.84285064069482</v>
       </c>
       <c r="C2">
-        <v>0.2828663447763944</v>
+        <v>0.282866344776636</v>
       </c>
       <c r="D2">
-        <v>0.01042946940633138</v>
+        <v>0.01042946940611067</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,22 +427,22 @@
         <v>2.205826305828239</v>
       </c>
       <c r="G2">
-        <v>1.685573738170035</v>
+        <v>1.685573738170021</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08986053328949595</v>
+        <v>0.08986053328949239</v>
       </c>
       <c r="J2">
-        <v>0.4519207075497533</v>
+        <v>0.4519207075497249</v>
       </c>
       <c r="K2">
-        <v>0.1620643375323887</v>
+        <v>0.1620643375324029</v>
       </c>
       <c r="L2">
-        <v>0.5659497976992043</v>
+        <v>0.5659497976991972</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.589748213755513</v>
+        <v>1.589748213755598</v>
       </c>
       <c r="C3">
-        <v>0.2481430388363748</v>
+        <v>0.2481430388363606</v>
       </c>
       <c r="D3">
-        <v>0.01082150817165961</v>
+        <v>0.0108215081713654</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.990303083900457</v>
+        <v>1.990303083900429</v>
       </c>
       <c r="G3">
-        <v>1.526485729555858</v>
+        <v>1.526485729555844</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.08239433096639459</v>
+        <v>0.0823943309664017</v>
       </c>
       <c r="J3">
-        <v>0.3898039112551146</v>
+        <v>0.3898039112551004</v>
       </c>
       <c r="K3">
         <v>0.1411203767882228</v>
       </c>
       <c r="L3">
-        <v>0.4891641623360883</v>
+        <v>0.4891641623360741</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.436443331404945</v>
+        <v>1.436443331404917</v>
       </c>
       <c r="C4">
-        <v>0.2269947492533504</v>
+        <v>0.2269947492536062</v>
       </c>
       <c r="D4">
-        <v>0.01105925868761592</v>
+        <v>0.01105925868761348</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.861917170321732</v>
+        <v>1.861917170321675</v>
       </c>
       <c r="G4">
         <v>1.431851847455505</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.07797361684496096</v>
+        <v>0.07797361684493254</v>
       </c>
       <c r="J4">
-        <v>0.3521318715420705</v>
+        <v>0.3521318715420634</v>
       </c>
       <c r="K4">
-        <v>0.1285244631618241</v>
+        <v>0.1285244631618347</v>
       </c>
       <c r="L4">
-        <v>0.442790275044004</v>
+        <v>0.4427902750440111</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374421138633664</v>
+        <v>1.37442113863375</v>
       </c>
       <c r="C5">
-        <v>0.2184093868071528</v>
+        <v>0.2184093868072665</v>
       </c>
       <c r="D5">
-        <v>0.01115537446685089</v>
+        <v>0.01115537446671921</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>1.810489514063306</v>
       </c>
       <c r="G5">
-        <v>1.39397582573234</v>
+        <v>1.393975825732326</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0.07620926682904638</v>
       </c>
       <c r="J5">
-        <v>0.3368789771904943</v>
+        <v>0.3368789771904659</v>
       </c>
       <c r="K5">
-        <v>0.123449836961786</v>
+        <v>0.1234498369617825</v>
       </c>
       <c r="L5">
-        <v>0.4240609734154788</v>
+        <v>0.4240609734154859</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364147481248892</v>
+        <v>1.364147481248921</v>
       </c>
       <c r="C6">
-        <v>0.2169854814449224</v>
+        <v>0.2169854814448229</v>
       </c>
       <c r="D6">
-        <v>0.01117128742091</v>
+        <v>0.01117128742101547</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>1.802000961927831</v>
       </c>
       <c r="G6">
-        <v>1.387725930721999</v>
+        <v>1.387725930721984</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.07591842915643809</v>
+        <v>0.0759184291564452</v>
       </c>
       <c r="J6">
         <v>0.3343516883205879</v>
       </c>
       <c r="K6">
-        <v>0.1226104988531134</v>
+        <v>0.1226104988531205</v>
       </c>
       <c r="L6">
-        <v>0.4209604429100793</v>
+        <v>0.420960442910058</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.435605151038686</v>
+        <v>1.435605151038743</v>
       </c>
       <c r="C7">
-        <v>0.2268788447185983</v>
+        <v>0.2268788447185557</v>
       </c>
       <c r="D7">
-        <v>0.01106055807934392</v>
+        <v>0.01106055807914474</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.07794967693944344</v>
+        <v>0.07794967693945409</v>
       </c>
       <c r="J7">
         <v>0.3519257896030155</v>
       </c>
       <c r="K7">
-        <v>0.1284557990044775</v>
+        <v>0.1284557990045023</v>
       </c>
       <c r="L7">
         <v>0.4425370358463496</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.755096074576414</v>
+        <v>1.755096074576329</v>
       </c>
       <c r="C8">
-        <v>0.2708514313844006</v>
+        <v>0.2708514313842016</v>
       </c>
       <c r="D8">
-        <v>0.01056524135061321</v>
+        <v>0.01056524135069981</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.130631049968258</v>
+        <v>2.13063104996823</v>
       </c>
       <c r="G8">
         <v>1.630038810897418</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.08724972616478155</v>
+        <v>0.08724972616477444</v>
       </c>
       <c r="J8">
-        <v>0.4303938231311832</v>
+        <v>0.4303938231311903</v>
       </c>
       <c r="K8">
-        <v>0.154783078931974</v>
+        <v>0.1547830789319669</v>
       </c>
       <c r="L8">
-        <v>0.53929743244192</v>
+        <v>0.5392974324419058</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.402174263758525</v>
+        <v>2.402174263758468</v>
       </c>
       <c r="C9">
-        <v>0.3589760833351932</v>
+        <v>0.3589760833351647</v>
       </c>
       <c r="D9">
-        <v>0.009572116746053627</v>
+        <v>0.009572116746172643</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>2.69531929123508</v>
       </c>
       <c r="G9">
-        <v>2.047754086129558</v>
+        <v>2.047754086129572</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1069842610632179</v>
+        <v>0.1069842610632321</v>
       </c>
       <c r="J9">
-        <v>0.5889307150313741</v>
+        <v>0.5889307150313883</v>
       </c>
       <c r="K9">
         <v>0.2089041189037744</v>
       </c>
       <c r="L9">
-        <v>0.7364721804010657</v>
+        <v>0.7364721804010728</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.896197149138686</v>
+        <v>2.896197149138743</v>
       </c>
       <c r="C10">
-        <v>0.4257123163581582</v>
+        <v>0.4257123163579024</v>
       </c>
       <c r="D10">
-        <v>0.008832696510195248</v>
+        <v>0.00883269651004337</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.140247793232788</v>
+        <v>3.140247793232845</v>
       </c>
       <c r="G10">
         <v>2.377811452269327</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1227062349384909</v>
+        <v>0.1227062349384767</v>
       </c>
       <c r="J10">
         <v>0.7097360790062197</v>
@@ -746,7 +746,7 @@
         <v>0.2508118495191525</v>
       </c>
       <c r="L10">
-        <v>0.8878901459018351</v>
+        <v>0.8878901459018493</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.126546819071621</v>
+        <v>3.126546819071564</v>
       </c>
       <c r="C11">
-        <v>0.4567220383085839</v>
+        <v>0.4567220383085555</v>
       </c>
       <c r="D11">
-        <v>0.008495423726421869</v>
+        <v>0.008495423726447626</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.351200708552227</v>
+        <v>3.351200708552199</v>
       </c>
       <c r="G11">
         <v>2.534544186697346</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1302037096289901</v>
+        <v>0.130203709628951</v>
       </c>
       <c r="J11">
-        <v>0.7660164930591975</v>
+        <v>0.7660164930592117</v>
       </c>
       <c r="K11">
-        <v>0.2705029941918653</v>
+        <v>0.2705029941918582</v>
       </c>
       <c r="L11">
-        <v>0.9587175386817606</v>
+        <v>0.958717538681725</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>3.214731540874368</v>
       </c>
       <c r="C12">
-        <v>0.468579244958363</v>
+        <v>0.4685792449583914</v>
       </c>
       <c r="D12">
-        <v>0.008367723859288745</v>
+        <v>0.008367723859162624</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.432506162930082</v>
+        <v>3.432506162930139</v>
       </c>
       <c r="G12">
-        <v>2.594990835904468</v>
+        <v>2.594990835904497</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0.1331001170061228</v>
       </c>
       <c r="J12">
-        <v>0.7875557559611792</v>
+        <v>0.787555755961165</v>
       </c>
       <c r="K12">
-        <v>0.2780650644038403</v>
+        <v>0.2780650644038474</v>
       </c>
       <c r="L12">
-        <v>0.9858677658112711</v>
+        <v>0.9858677658112569</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.195694273935601</v>
+        <v>3.195694273935771</v>
       </c>
       <c r="C13">
-        <v>0.4660201274452902</v>
+        <v>0.4660201274450344</v>
       </c>
       <c r="D13">
-        <v>0.008395222705874339</v>
+        <v>0.008395222705984029</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1324736448343735</v>
+        <v>0.1324736448343913</v>
       </c>
       <c r="J13">
-        <v>0.7829061571821896</v>
+        <v>0.7829061571822038</v>
       </c>
       <c r="K13">
-        <v>0.2764314820538516</v>
+        <v>0.2764314820538445</v>
       </c>
       <c r="L13">
-        <v>0.9800049690844617</v>
+        <v>0.9800049690844546</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>3.133781742283304</v>
       </c>
       <c r="C14">
-        <v>0.4576951132283398</v>
+        <v>0.4576951132286524</v>
       </c>
       <c r="D14">
-        <v>0.008484916424718492</v>
+        <v>0.008484916424607025</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.357860064697888</v>
+        <v>3.35786006469786</v>
       </c>
       <c r="G14">
         <v>2.539494299681863</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1304408038531655</v>
+        <v>0.1304408038531335</v>
       </c>
       <c r="J14">
-        <v>0.7677837636460367</v>
+        <v>0.7677837636460083</v>
       </c>
       <c r="K14">
-        <v>0.2711229220120686</v>
+        <v>0.2711229220120828</v>
       </c>
       <c r="L14">
-        <v>0.9609442952599068</v>
+        <v>0.9609442952598997</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.095987811587804</v>
+        <v>3.095987811587747</v>
       </c>
       <c r="C15">
-        <v>0.4526113813445818</v>
+        <v>0.4526113813443544</v>
       </c>
       <c r="D15">
-        <v>0.008539863859390984</v>
+        <v>0.008539863859549079</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.32309503292359</v>
+        <v>3.323095032923533</v>
       </c>
       <c r="G15">
-        <v>2.513653913037345</v>
+        <v>2.513653913037331</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.129203331430336</v>
+        <v>0.1292033314303431</v>
       </c>
       <c r="J15">
-        <v>0.7585516001738384</v>
+        <v>0.7585516001738455</v>
       </c>
       <c r="K15">
-        <v>0.2678854972790958</v>
+        <v>0.2678854972790816</v>
       </c>
       <c r="L15">
         <v>0.9493135630259957</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.881268548627588</v>
+        <v>2.881268548627645</v>
       </c>
       <c r="C16">
-        <v>0.4237005797268409</v>
+        <v>0.4237005797271252</v>
       </c>
       <c r="D16">
-        <v>0.008854731624816203</v>
+        <v>0.008854731624985845</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.126649513550092</v>
+        <v>3.126649513550063</v>
       </c>
       <c r="G16">
-        <v>2.367713393962148</v>
+        <v>2.36771339396212</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1222238367195452</v>
+        <v>0.1222238367195523</v>
       </c>
       <c r="J16">
-        <v>0.7060877055605417</v>
+        <v>0.7060877055605488</v>
       </c>
       <c r="K16">
         <v>0.2495388683233912</v>
       </c>
       <c r="L16">
-        <v>0.8833046690694459</v>
+        <v>0.8833046690694388</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.751083612790467</v>
       </c>
       <c r="C17">
-        <v>0.4061454769666568</v>
+        <v>0.406145476966401</v>
       </c>
       <c r="D17">
-        <v>0.009047754051507706</v>
+        <v>0.009047754051627166</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,22 +997,22 @@
         <v>3.008456434658996</v>
       </c>
       <c r="G17">
-        <v>2.279970482411528</v>
+        <v>2.279970482411514</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1180357347333398</v>
+        <v>0.1180357347333576</v>
       </c>
       <c r="J17">
-        <v>0.674266794946206</v>
+        <v>0.6742667949461847</v>
       </c>
       <c r="K17">
-        <v>0.2384546979891482</v>
+        <v>0.2384546979891411</v>
       </c>
       <c r="L17">
-        <v>0.8433422033343874</v>
+        <v>0.8433422033343803</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676723349239296</v>
+        <v>2.676723349239239</v>
       </c>
       <c r="C18">
-        <v>0.3961081231357753</v>
+        <v>0.3961081231360026</v>
       </c>
       <c r="D18">
-        <v>0.009158679089948496</v>
+        <v>0.009158679090172317</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.941267070659507</v>
+        <v>2.941267070659535</v>
       </c>
       <c r="G18">
-        <v>2.230113275298137</v>
+        <v>2.230113275298152</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1156588583879561</v>
+        <v>0.1156588583879525</v>
       </c>
       <c r="J18">
-        <v>0.656086560759384</v>
+        <v>0.6560865607594124</v>
       </c>
       <c r="K18">
-        <v>0.2321373803247653</v>
+        <v>0.2321373803247795</v>
       </c>
       <c r="L18">
         <v>0.8205367603318621</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.651631097340271</v>
+        <v>2.651631097340385</v>
       </c>
       <c r="C19">
-        <v>0.39271934073588</v>
+        <v>0.3927193407358516</v>
       </c>
       <c r="D19">
-        <v>0.009196215960801446</v>
+        <v>0.009196215960810772</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>2.918648492356425</v>
       </c>
       <c r="G19">
-        <v>2.213333073950949</v>
+        <v>2.213333073950935</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1148593704408718</v>
+        <v>0.1148593704408434</v>
       </c>
       <c r="J19">
-        <v>0.6499510167232927</v>
+        <v>0.6499510167233069</v>
       </c>
       <c r="K19">
-        <v>0.2300079728147395</v>
+        <v>0.2300079728146756</v>
       </c>
       <c r="L19">
-        <v>0.8128447215122421</v>
+        <v>0.8128447215122492</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,7 +1099,7 @@
         <v>2.764887324447955</v>
       </c>
       <c r="C20">
-        <v>0.4080079083429951</v>
+        <v>0.4080079083434214</v>
       </c>
       <c r="D20">
         <v>0.009027215507535491</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1184782005365008</v>
+        <v>0.1184782005365079</v>
       </c>
       <c r="J20">
-        <v>0.6776412770064155</v>
+        <v>0.6776412770064226</v>
       </c>
       <c r="K20">
         <v>0.2396285191151009</v>
       </c>
       <c r="L20">
-        <v>0.8475773173811376</v>
+        <v>0.8475773173811305</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.151939717903929</v>
+        <v>3.151939717903986</v>
       </c>
       <c r="C21">
-        <v>0.4601370834975853</v>
+        <v>0.4601370834975</v>
       </c>
       <c r="D21">
-        <v>0.008458569330470844</v>
+        <v>0.008458569330573429</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1310362785875014</v>
+        <v>0.131036278587537</v>
       </c>
       <c r="J21">
-        <v>0.7722190991071045</v>
+        <v>0.7722190991070974</v>
       </c>
       <c r="K21">
-        <v>0.2726791808801821</v>
+        <v>0.2726791808802176</v>
       </c>
       <c r="L21">
-        <v>0.9665335097917875</v>
+        <v>0.966533509791816</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.41055854752841</v>
+        <v>3.410558547528296</v>
       </c>
       <c r="C22">
-        <v>0.4948857651274636</v>
+        <v>0.4948857651272363</v>
       </c>
       <c r="D22">
-        <v>0.008087131290224203</v>
+        <v>0.008087131290202887</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.614095693201648</v>
+        <v>3.614095693201676</v>
       </c>
       <c r="G22">
         <v>2.730068474299415</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1395818298502078</v>
+        <v>0.1395818298502114</v>
       </c>
       <c r="J22">
         <v>0.8353754115941712</v>
       </c>
       <c r="K22">
-        <v>0.2949029985672382</v>
+        <v>0.2949029985671885</v>
       </c>
       <c r="L22">
-        <v>1.046226274437252</v>
+        <v>1.046226274437259</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>3.27195675187528</v>
       </c>
       <c r="C23">
-        <v>0.4762699100677992</v>
+        <v>0.4762699100681118</v>
       </c>
       <c r="D23">
-        <v>0.008285295847484608</v>
+        <v>0.008285295847390017</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.485424300817982</v>
+        <v>3.485424300817954</v>
       </c>
       <c r="G23">
-        <v>2.634344122346477</v>
+        <v>2.634344122346491</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1349871932832585</v>
+        <v>0.1349871932832691</v>
       </c>
       <c r="J23">
         <v>0.8015313406418656</v>
       </c>
       <c r="K23">
-        <v>0.2829791104093715</v>
+        <v>0.2829791104093289</v>
       </c>
       <c r="L23">
-        <v>1.003496401739504</v>
+        <v>1.00349640173949</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.75864516738045</v>
+        <v>2.75864516738028</v>
       </c>
       <c r="C24">
-        <v>0.4071657323833051</v>
+        <v>0.4071657323833335</v>
       </c>
       <c r="D24">
-        <v>0.009036501137588804</v>
+        <v>0.009036501137706932</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.015302034277681</v>
+        <v>3.015302034277653</v>
       </c>
       <c r="G24">
         <v>2.285051103280807</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1182780660016718</v>
+        <v>0.1182780660016753</v>
       </c>
       <c r="J24">
-        <v>0.6761153211804469</v>
+        <v>0.6761153211804682</v>
       </c>
       <c r="K24">
-        <v>0.2390976640282148</v>
+        <v>0.239097664028165</v>
       </c>
       <c r="L24">
-        <v>0.8456620979900222</v>
+        <v>0.8456620979900293</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.224334749083141</v>
+        <v>2.224334749082971</v>
       </c>
       <c r="C25">
         <v>0.3348528830837267</v>
       </c>
       <c r="D25">
-        <v>0.009842827942183163</v>
+        <v>0.009842827942505572</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0.1014552904936217</v>
       </c>
       <c r="J25">
-        <v>0.5453999273617782</v>
+        <v>0.545399927361764</v>
       </c>
       <c r="K25">
-        <v>0.1939356701180657</v>
+        <v>0.193935670118087</v>
       </c>
       <c r="L25">
-        <v>0.6821404699531257</v>
+        <v>0.6821404699531115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.84285064069482</v>
+        <v>1.84285064069465</v>
       </c>
       <c r="C2">
-        <v>0.282866344776636</v>
+        <v>0.2828663447763944</v>
       </c>
       <c r="D2">
-        <v>0.01042946940611067</v>
+        <v>0.01042946940633138</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,22 +427,22 @@
         <v>2.205826305828239</v>
       </c>
       <c r="G2">
-        <v>1.685573738170021</v>
+        <v>1.685573738170035</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08986053328949239</v>
+        <v>0.08986053328949595</v>
       </c>
       <c r="J2">
-        <v>0.4519207075497249</v>
+        <v>0.4519207075497533</v>
       </c>
       <c r="K2">
-        <v>0.1620643375324029</v>
+        <v>0.1620643375323887</v>
       </c>
       <c r="L2">
-        <v>0.5659497976991972</v>
+        <v>0.5659497976992043</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.589748213755598</v>
+        <v>1.589748213755513</v>
       </c>
       <c r="C3">
-        <v>0.2481430388363606</v>
+        <v>0.2481430388363748</v>
       </c>
       <c r="D3">
-        <v>0.0108215081713654</v>
+        <v>0.01082150817165961</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.990303083900429</v>
+        <v>1.990303083900457</v>
       </c>
       <c r="G3">
-        <v>1.526485729555844</v>
+        <v>1.526485729555858</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0823943309664017</v>
+        <v>0.08239433096639459</v>
       </c>
       <c r="J3">
-        <v>0.3898039112551004</v>
+        <v>0.3898039112551146</v>
       </c>
       <c r="K3">
         <v>0.1411203767882228</v>
       </c>
       <c r="L3">
-        <v>0.4891641623360741</v>
+        <v>0.4891641623360883</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.436443331404917</v>
+        <v>1.436443331404945</v>
       </c>
       <c r="C4">
-        <v>0.2269947492536062</v>
+        <v>0.2269947492533504</v>
       </c>
       <c r="D4">
-        <v>0.01105925868761348</v>
+        <v>0.01105925868761592</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.861917170321675</v>
+        <v>1.861917170321732</v>
       </c>
       <c r="G4">
         <v>1.431851847455505</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.07797361684493254</v>
+        <v>0.07797361684496096</v>
       </c>
       <c r="J4">
-        <v>0.3521318715420634</v>
+        <v>0.3521318715420705</v>
       </c>
       <c r="K4">
-        <v>0.1285244631618347</v>
+        <v>0.1285244631618241</v>
       </c>
       <c r="L4">
-        <v>0.4427902750440111</v>
+        <v>0.442790275044004</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.37442113863375</v>
+        <v>1.374421138633664</v>
       </c>
       <c r="C5">
-        <v>0.2184093868072665</v>
+        <v>0.2184093868071528</v>
       </c>
       <c r="D5">
-        <v>0.01115537446671921</v>
+        <v>0.01115537446685089</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>1.810489514063306</v>
       </c>
       <c r="G5">
-        <v>1.393975825732326</v>
+        <v>1.39397582573234</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0.07620926682904638</v>
       </c>
       <c r="J5">
-        <v>0.3368789771904659</v>
+        <v>0.3368789771904943</v>
       </c>
       <c r="K5">
-        <v>0.1234498369617825</v>
+        <v>0.123449836961786</v>
       </c>
       <c r="L5">
-        <v>0.4240609734154859</v>
+        <v>0.4240609734154788</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364147481248921</v>
+        <v>1.364147481248892</v>
       </c>
       <c r="C6">
-        <v>0.2169854814448229</v>
+        <v>0.2169854814449224</v>
       </c>
       <c r="D6">
-        <v>0.01117128742101547</v>
+        <v>0.01117128742091</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,22 +579,22 @@
         <v>1.802000961927831</v>
       </c>
       <c r="G6">
-        <v>1.387725930721984</v>
+        <v>1.387725930721999</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0759184291564452</v>
+        <v>0.07591842915643809</v>
       </c>
       <c r="J6">
         <v>0.3343516883205879</v>
       </c>
       <c r="K6">
-        <v>0.1226104988531205</v>
+        <v>0.1226104988531134</v>
       </c>
       <c r="L6">
-        <v>0.420960442910058</v>
+        <v>0.4209604429100793</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.435605151038743</v>
+        <v>1.435605151038686</v>
       </c>
       <c r="C7">
-        <v>0.2268788447185557</v>
+        <v>0.2268788447185983</v>
       </c>
       <c r="D7">
-        <v>0.01106055807914474</v>
+        <v>0.01106055807934392</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.07794967693945409</v>
+        <v>0.07794967693944344</v>
       </c>
       <c r="J7">
         <v>0.3519257896030155</v>
       </c>
       <c r="K7">
-        <v>0.1284557990045023</v>
+        <v>0.1284557990044775</v>
       </c>
       <c r="L7">
         <v>0.4425370358463496</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.755096074576329</v>
+        <v>1.755096074576414</v>
       </c>
       <c r="C8">
-        <v>0.2708514313842016</v>
+        <v>0.2708514313844006</v>
       </c>
       <c r="D8">
-        <v>0.01056524135069981</v>
+        <v>0.01056524135061321</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.13063104996823</v>
+        <v>2.130631049968258</v>
       </c>
       <c r="G8">
         <v>1.630038810897418</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.08724972616477444</v>
+        <v>0.08724972616478155</v>
       </c>
       <c r="J8">
-        <v>0.4303938231311903</v>
+        <v>0.4303938231311832</v>
       </c>
       <c r="K8">
-        <v>0.1547830789319669</v>
+        <v>0.154783078931974</v>
       </c>
       <c r="L8">
-        <v>0.5392974324419058</v>
+        <v>0.53929743244192</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.402174263758468</v>
+        <v>2.402174263758525</v>
       </c>
       <c r="C9">
-        <v>0.3589760833351647</v>
+        <v>0.3589760833351932</v>
       </c>
       <c r="D9">
-        <v>0.009572116746172643</v>
+        <v>0.009572116746053627</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>2.69531929123508</v>
       </c>
       <c r="G9">
-        <v>2.047754086129572</v>
+        <v>2.047754086129558</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1069842610632321</v>
+        <v>0.1069842610632179</v>
       </c>
       <c r="J9">
-        <v>0.5889307150313883</v>
+        <v>0.5889307150313741</v>
       </c>
       <c r="K9">
         <v>0.2089041189037744</v>
       </c>
       <c r="L9">
-        <v>0.7364721804010728</v>
+        <v>0.7364721804010657</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.896197149138743</v>
+        <v>2.896197149138686</v>
       </c>
       <c r="C10">
-        <v>0.4257123163579024</v>
+        <v>0.4257123163581582</v>
       </c>
       <c r="D10">
-        <v>0.00883269651004337</v>
+        <v>0.008832696510195248</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.140247793232845</v>
+        <v>3.140247793232788</v>
       </c>
       <c r="G10">
         <v>2.377811452269327</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1227062349384767</v>
+        <v>0.1227062349384909</v>
       </c>
       <c r="J10">
         <v>0.7097360790062197</v>
@@ -746,7 +746,7 @@
         <v>0.2508118495191525</v>
       </c>
       <c r="L10">
-        <v>0.8878901459018493</v>
+        <v>0.8878901459018351</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.126546819071564</v>
+        <v>3.126546819071621</v>
       </c>
       <c r="C11">
-        <v>0.4567220383085555</v>
+        <v>0.4567220383085839</v>
       </c>
       <c r="D11">
-        <v>0.008495423726447626</v>
+        <v>0.008495423726421869</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.351200708552199</v>
+        <v>3.351200708552227</v>
       </c>
       <c r="G11">
         <v>2.534544186697346</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.130203709628951</v>
+        <v>0.1302037096289901</v>
       </c>
       <c r="J11">
-        <v>0.7660164930592117</v>
+        <v>0.7660164930591975</v>
       </c>
       <c r="K11">
-        <v>0.2705029941918582</v>
+        <v>0.2705029941918653</v>
       </c>
       <c r="L11">
-        <v>0.958717538681725</v>
+        <v>0.9587175386817606</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>3.214731540874368</v>
       </c>
       <c r="C12">
-        <v>0.4685792449583914</v>
+        <v>0.468579244958363</v>
       </c>
       <c r="D12">
-        <v>0.008367723859162624</v>
+        <v>0.008367723859288745</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.432506162930139</v>
+        <v>3.432506162930082</v>
       </c>
       <c r="G12">
-        <v>2.594990835904497</v>
+        <v>2.594990835904468</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0.1331001170061228</v>
       </c>
       <c r="J12">
-        <v>0.787555755961165</v>
+        <v>0.7875557559611792</v>
       </c>
       <c r="K12">
-        <v>0.2780650644038474</v>
+        <v>0.2780650644038403</v>
       </c>
       <c r="L12">
-        <v>0.9858677658112569</v>
+        <v>0.9858677658112711</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.195694273935771</v>
+        <v>3.195694273935601</v>
       </c>
       <c r="C13">
-        <v>0.4660201274450344</v>
+        <v>0.4660201274452902</v>
       </c>
       <c r="D13">
-        <v>0.008395222705984029</v>
+        <v>0.008395222705874339</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1324736448343913</v>
+        <v>0.1324736448343735</v>
       </c>
       <c r="J13">
-        <v>0.7829061571822038</v>
+        <v>0.7829061571821896</v>
       </c>
       <c r="K13">
-        <v>0.2764314820538445</v>
+        <v>0.2764314820538516</v>
       </c>
       <c r="L13">
-        <v>0.9800049690844546</v>
+        <v>0.9800049690844617</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,16 +871,16 @@
         <v>3.133781742283304</v>
       </c>
       <c r="C14">
-        <v>0.4576951132286524</v>
+        <v>0.4576951132283398</v>
       </c>
       <c r="D14">
-        <v>0.008484916424607025</v>
+        <v>0.008484916424718492</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.35786006469786</v>
+        <v>3.357860064697888</v>
       </c>
       <c r="G14">
         <v>2.539494299681863</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1304408038531335</v>
+        <v>0.1304408038531655</v>
       </c>
       <c r="J14">
-        <v>0.7677837636460083</v>
+        <v>0.7677837636460367</v>
       </c>
       <c r="K14">
-        <v>0.2711229220120828</v>
+        <v>0.2711229220120686</v>
       </c>
       <c r="L14">
-        <v>0.9609442952598997</v>
+        <v>0.9609442952599068</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.095987811587747</v>
+        <v>3.095987811587804</v>
       </c>
       <c r="C15">
-        <v>0.4526113813443544</v>
+        <v>0.4526113813445818</v>
       </c>
       <c r="D15">
-        <v>0.008539863859549079</v>
+        <v>0.008539863859390984</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.323095032923533</v>
+        <v>3.32309503292359</v>
       </c>
       <c r="G15">
-        <v>2.513653913037331</v>
+        <v>2.513653913037345</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1292033314303431</v>
+        <v>0.129203331430336</v>
       </c>
       <c r="J15">
-        <v>0.7585516001738455</v>
+        <v>0.7585516001738384</v>
       </c>
       <c r="K15">
-        <v>0.2678854972790816</v>
+        <v>0.2678854972790958</v>
       </c>
       <c r="L15">
         <v>0.9493135630259957</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.881268548627645</v>
+        <v>2.881268548627588</v>
       </c>
       <c r="C16">
-        <v>0.4237005797271252</v>
+        <v>0.4237005797268409</v>
       </c>
       <c r="D16">
-        <v>0.008854731624985845</v>
+        <v>0.008854731624816203</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.126649513550063</v>
+        <v>3.126649513550092</v>
       </c>
       <c r="G16">
-        <v>2.36771339396212</v>
+        <v>2.367713393962148</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1222238367195523</v>
+        <v>0.1222238367195452</v>
       </c>
       <c r="J16">
-        <v>0.7060877055605488</v>
+        <v>0.7060877055605417</v>
       </c>
       <c r="K16">
         <v>0.2495388683233912</v>
       </c>
       <c r="L16">
-        <v>0.8833046690694388</v>
+        <v>0.8833046690694459</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,10 +985,10 @@
         <v>2.751083612790467</v>
       </c>
       <c r="C17">
-        <v>0.406145476966401</v>
+        <v>0.4061454769666568</v>
       </c>
       <c r="D17">
-        <v>0.009047754051627166</v>
+        <v>0.009047754051507706</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,22 +997,22 @@
         <v>3.008456434658996</v>
       </c>
       <c r="G17">
-        <v>2.279970482411514</v>
+        <v>2.279970482411528</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1180357347333576</v>
+        <v>0.1180357347333398</v>
       </c>
       <c r="J17">
-        <v>0.6742667949461847</v>
+        <v>0.674266794946206</v>
       </c>
       <c r="K17">
-        <v>0.2384546979891411</v>
+        <v>0.2384546979891482</v>
       </c>
       <c r="L17">
-        <v>0.8433422033343803</v>
+        <v>0.8433422033343874</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676723349239239</v>
+        <v>2.676723349239296</v>
       </c>
       <c r="C18">
-        <v>0.3961081231360026</v>
+        <v>0.3961081231357753</v>
       </c>
       <c r="D18">
-        <v>0.009158679090172317</v>
+        <v>0.009158679089948496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.941267070659535</v>
+        <v>2.941267070659507</v>
       </c>
       <c r="G18">
-        <v>2.230113275298152</v>
+        <v>2.230113275298137</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1156588583879525</v>
+        <v>0.1156588583879561</v>
       </c>
       <c r="J18">
-        <v>0.6560865607594124</v>
+        <v>0.656086560759384</v>
       </c>
       <c r="K18">
-        <v>0.2321373803247795</v>
+        <v>0.2321373803247653</v>
       </c>
       <c r="L18">
         <v>0.8205367603318621</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.651631097340385</v>
+        <v>2.651631097340271</v>
       </c>
       <c r="C19">
-        <v>0.3927193407358516</v>
+        <v>0.39271934073588</v>
       </c>
       <c r="D19">
-        <v>0.009196215960810772</v>
+        <v>0.009196215960801446</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>2.918648492356425</v>
       </c>
       <c r="G19">
-        <v>2.213333073950935</v>
+        <v>2.213333073950949</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1148593704408434</v>
+        <v>0.1148593704408718</v>
       </c>
       <c r="J19">
-        <v>0.6499510167233069</v>
+        <v>0.6499510167232927</v>
       </c>
       <c r="K19">
-        <v>0.2300079728146756</v>
+        <v>0.2300079728147395</v>
       </c>
       <c r="L19">
-        <v>0.8128447215122492</v>
+        <v>0.8128447215122421</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,7 +1099,7 @@
         <v>2.764887324447955</v>
       </c>
       <c r="C20">
-        <v>0.4080079083434214</v>
+        <v>0.4080079083429951</v>
       </c>
       <c r="D20">
         <v>0.009027215507535491</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1184782005365079</v>
+        <v>0.1184782005365008</v>
       </c>
       <c r="J20">
-        <v>0.6776412770064226</v>
+        <v>0.6776412770064155</v>
       </c>
       <c r="K20">
         <v>0.2396285191151009</v>
       </c>
       <c r="L20">
-        <v>0.8475773173811305</v>
+        <v>0.8475773173811376</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.151939717903986</v>
+        <v>3.151939717903929</v>
       </c>
       <c r="C21">
-        <v>0.4601370834975</v>
+        <v>0.4601370834975853</v>
       </c>
       <c r="D21">
-        <v>0.008458569330573429</v>
+        <v>0.008458569330470844</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.131036278587537</v>
+        <v>0.1310362785875014</v>
       </c>
       <c r="J21">
-        <v>0.7722190991070974</v>
+        <v>0.7722190991071045</v>
       </c>
       <c r="K21">
-        <v>0.2726791808802176</v>
+        <v>0.2726791808801821</v>
       </c>
       <c r="L21">
-        <v>0.966533509791816</v>
+        <v>0.9665335097917875</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.410558547528296</v>
+        <v>3.41055854752841</v>
       </c>
       <c r="C22">
-        <v>0.4948857651272363</v>
+        <v>0.4948857651274636</v>
       </c>
       <c r="D22">
-        <v>0.008087131290202887</v>
+        <v>0.008087131290224203</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.614095693201676</v>
+        <v>3.614095693201648</v>
       </c>
       <c r="G22">
         <v>2.730068474299415</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1395818298502114</v>
+        <v>0.1395818298502078</v>
       </c>
       <c r="J22">
         <v>0.8353754115941712</v>
       </c>
       <c r="K22">
-        <v>0.2949029985671885</v>
+        <v>0.2949029985672382</v>
       </c>
       <c r="L22">
-        <v>1.046226274437259</v>
+        <v>1.046226274437252</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>3.27195675187528</v>
       </c>
       <c r="C23">
-        <v>0.4762699100681118</v>
+        <v>0.4762699100677992</v>
       </c>
       <c r="D23">
-        <v>0.008285295847390017</v>
+        <v>0.008285295847484608</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.485424300817954</v>
+        <v>3.485424300817982</v>
       </c>
       <c r="G23">
-        <v>2.634344122346491</v>
+        <v>2.634344122346477</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1349871932832691</v>
+        <v>0.1349871932832585</v>
       </c>
       <c r="J23">
         <v>0.8015313406418656</v>
       </c>
       <c r="K23">
-        <v>0.2829791104093289</v>
+        <v>0.2829791104093715</v>
       </c>
       <c r="L23">
-        <v>1.00349640173949</v>
+        <v>1.003496401739504</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.75864516738028</v>
+        <v>2.75864516738045</v>
       </c>
       <c r="C24">
-        <v>0.4071657323833335</v>
+        <v>0.4071657323833051</v>
       </c>
       <c r="D24">
-        <v>0.009036501137706932</v>
+        <v>0.009036501137588804</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.015302034277653</v>
+        <v>3.015302034277681</v>
       </c>
       <c r="G24">
         <v>2.285051103280807</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1182780660016753</v>
+        <v>0.1182780660016718</v>
       </c>
       <c r="J24">
-        <v>0.6761153211804682</v>
+        <v>0.6761153211804469</v>
       </c>
       <c r="K24">
-        <v>0.239097664028165</v>
+        <v>0.2390976640282148</v>
       </c>
       <c r="L24">
-        <v>0.8456620979900293</v>
+        <v>0.8456620979900222</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.224334749082971</v>
+        <v>2.224334749083141</v>
       </c>
       <c r="C25">
         <v>0.3348528830837267</v>
       </c>
       <c r="D25">
-        <v>0.009842827942505572</v>
+        <v>0.009842827942183163</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0.1014552904936217</v>
       </c>
       <c r="J25">
-        <v>0.545399927361764</v>
+        <v>0.5453999273617782</v>
       </c>
       <c r="K25">
-        <v>0.193935670118087</v>
+        <v>0.1939356701180657</v>
       </c>
       <c r="L25">
-        <v>0.6821404699531115</v>
+        <v>0.6821404699531257</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.84285064069465</v>
+        <v>1.84278079477437</v>
       </c>
       <c r="C2">
-        <v>0.2828663447763944</v>
+        <v>0.2828200024240317</v>
       </c>
       <c r="D2">
-        <v>0.01042946940633138</v>
+        <v>0.01039604716869791</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.205826305828239</v>
+        <v>2.201430918496129</v>
       </c>
       <c r="G2">
-        <v>1.685573738170035</v>
+        <v>0.5327235935783392</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.152479706598129</v>
       </c>
       <c r="I2">
-        <v>0.08986053328949595</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4519207075497533</v>
+        <v>0.08979286719584323</v>
       </c>
       <c r="K2">
-        <v>0.1620643375323887</v>
+        <v>0.4518910131808482</v>
       </c>
       <c r="L2">
-        <v>0.5659497976992043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1621165286100705</v>
+      </c>
+      <c r="M2">
+        <v>0.5660158454601714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.589748213755513</v>
+        <v>1.589709798027627</v>
       </c>
       <c r="C3">
-        <v>0.2481430388363748</v>
+        <v>0.2481152020606743</v>
       </c>
       <c r="D3">
-        <v>0.01082150817165961</v>
+        <v>0.01078832060543933</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.990303083900457</v>
+        <v>1.986400032935521</v>
       </c>
       <c r="G3">
-        <v>1.526485729555858</v>
+        <v>0.4772503486443043</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.049445222738044</v>
       </c>
       <c r="I3">
-        <v>0.08239433096639459</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3898039112551146</v>
+        <v>0.08233570919137634</v>
       </c>
       <c r="K3">
-        <v>0.1411203767882228</v>
+        <v>0.3897859148679572</v>
       </c>
       <c r="L3">
-        <v>0.4891641623360883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1411672477152841</v>
+      </c>
+      <c r="M3">
+        <v>0.4892261501462443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.436443331404945</v>
+        <v>1.436420239570026</v>
       </c>
       <c r="C4">
-        <v>0.2269947492533504</v>
+        <v>0.226977596994459</v>
       </c>
       <c r="D4">
-        <v>0.01105925868761592</v>
+        <v>0.01102612341978659</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.861917170321732</v>
+        <v>1.858311394141566</v>
       </c>
       <c r="G4">
-        <v>1.431851847455505</v>
+        <v>0.4441723362280356</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9882395569289599</v>
       </c>
       <c r="I4">
-        <v>0.07797361684496096</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3521318715420705</v>
+        <v>0.07792058071160213</v>
       </c>
       <c r="K4">
-        <v>0.1285244631618241</v>
+        <v>0.3521200114121186</v>
       </c>
       <c r="L4">
-        <v>0.442790275044004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.12856798249409</v>
+      </c>
+      <c r="M4">
+        <v>0.4428488855820376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374421138633664</v>
+        <v>1.374403410800028</v>
       </c>
       <c r="C5">
-        <v>0.2184093868071528</v>
+        <v>0.2183964439941661</v>
       </c>
       <c r="D5">
-        <v>0.01115537446685089</v>
+        <v>0.01112223950365943</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.810489514063306</v>
+        <v>1.807003835398334</v>
       </c>
       <c r="G5">
-        <v>1.39397582573234</v>
+        <v>0.4309134014739442</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9637638994422701</v>
       </c>
       <c r="I5">
-        <v>0.07620926682904638</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3368789771904943</v>
+        <v>0.07615851775555882</v>
       </c>
       <c r="K5">
-        <v>0.123449836961786</v>
+        <v>0.3368693868289796</v>
       </c>
       <c r="L5">
-        <v>0.4240609734154788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1234919728662085</v>
+      </c>
+      <c r="M5">
+        <v>0.4241180123626194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364147481248892</v>
+        <v>1.364130594153039</v>
       </c>
       <c r="C6">
-        <v>0.2169854814449224</v>
+        <v>0.2169732295832461</v>
       </c>
       <c r="D6">
-        <v>0.01117128742091</v>
+        <v>0.0111381512975024</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.802000961927831</v>
+        <v>1.798535168269467</v>
       </c>
       <c r="G6">
-        <v>1.387725930721999</v>
+        <v>0.4287243549512141</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9597264646961037</v>
       </c>
       <c r="I6">
-        <v>0.07591842915643809</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3343516883205879</v>
+        <v>0.07586806057655338</v>
       </c>
       <c r="K6">
-        <v>0.1226104988531134</v>
+        <v>0.3343424617934971</v>
       </c>
       <c r="L6">
-        <v>0.4209604429100793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1226524040741701</v>
+      </c>
+      <c r="M6">
+        <v>0.4210172098306657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.435605151038686</v>
+        <v>1.435582134962431</v>
       </c>
       <c r="C7">
-        <v>0.2268788447185983</v>
+        <v>0.2268617497829837</v>
       </c>
       <c r="D7">
-        <v>0.01106055807934392</v>
+        <v>0.01102742289791458</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.861220121354563</v>
+        <v>1.857615968806883</v>
       </c>
       <c r="G7">
-        <v>1.43133835103211</v>
+        <v>0.44399266182117</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9879076471543726</v>
       </c>
       <c r="I7">
-        <v>0.07794967693944344</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3519257896030155</v>
+        <v>0.07789667160282931</v>
       </c>
       <c r="K7">
-        <v>0.1284557990044775</v>
+        <v>0.3519139609781945</v>
       </c>
       <c r="L7">
-        <v>0.4425370358463496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1284992997462133</v>
+      </c>
+      <c r="M7">
+        <v>0.4425956259467227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.755096074576414</v>
+        <v>1.755037966277087</v>
       </c>
       <c r="C8">
-        <v>0.2708514313844006</v>
+        <v>0.270811626913428</v>
       </c>
       <c r="D8">
-        <v>0.01056524135061321</v>
+        <v>0.01053192037712058</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.130631049968258</v>
+        <v>2.126406600973212</v>
       </c>
       <c r="G8">
-        <v>1.630038810897418</v>
+        <v>0.5133758042480707</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.11649407119431</v>
       </c>
       <c r="I8">
-        <v>0.08724972616478155</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4303938231311832</v>
+        <v>0.08718517358575539</v>
       </c>
       <c r="K8">
-        <v>0.154783078931974</v>
+        <v>0.4303683999444203</v>
       </c>
       <c r="L8">
-        <v>0.53929743244192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1548334557175863</v>
+      </c>
+      <c r="M8">
+        <v>0.5393622812342542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.402174263758525</v>
+        <v>2.402009684623181</v>
       </c>
       <c r="C9">
-        <v>0.3589760833351932</v>
+        <v>0.3588850402159665</v>
       </c>
       <c r="D9">
-        <v>0.009572116746053627</v>
+        <v>0.009537600642792743</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.69531929123508</v>
+        <v>2.689827432265673</v>
       </c>
       <c r="G9">
-        <v>2.047754086129558</v>
+        <v>0.6585539092908448</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.387536964108349</v>
       </c>
       <c r="I9">
-        <v>0.1069842610632179</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5889307150313741</v>
+        <v>0.1068971756767816</v>
       </c>
       <c r="K9">
-        <v>0.2089041189037744</v>
+        <v>0.5888686694081429</v>
       </c>
       <c r="L9">
-        <v>0.7364721804010657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2089670983668697</v>
+      </c>
+      <c r="M9">
+        <v>0.7365408696148634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.896197149138686</v>
+        <v>2.895921439501308</v>
       </c>
       <c r="C10">
-        <v>0.4257123163581582</v>
+        <v>0.4255774021008563</v>
       </c>
       <c r="D10">
-        <v>0.008832696510195248</v>
+        <v>0.008796636806368774</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.140247793232788</v>
+        <v>3.133775730691525</v>
       </c>
       <c r="G10">
-        <v>2.377811452269327</v>
+        <v>0.7728290570679093</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.602163993058269</v>
       </c>
       <c r="I10">
-        <v>0.1227062349384909</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7097360790062197</v>
+        <v>0.1226024156497978</v>
       </c>
       <c r="K10">
-        <v>0.2508118495191525</v>
+        <v>0.7096383585303272</v>
       </c>
       <c r="L10">
-        <v>0.8878901459018351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2508831881482578</v>
+      </c>
+      <c r="M10">
+        <v>0.8879541757481206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.126546819071621</v>
+        <v>3.12621068441257</v>
       </c>
       <c r="C11">
-        <v>0.4567220383085839</v>
+        <v>0.4565652352514746</v>
       </c>
       <c r="D11">
-        <v>0.008495423726421869</v>
+        <v>0.0084584761797033</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.351200708552227</v>
+        <v>3.344267270747025</v>
       </c>
       <c r="G11">
-        <v>2.534544186697346</v>
+        <v>0.8269953089908029</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.704187171087113</v>
       </c>
       <c r="I11">
-        <v>0.1302037096289901</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7660164930591975</v>
+        <v>0.1300921680683516</v>
       </c>
       <c r="K11">
-        <v>0.2705029941918653</v>
+        <v>0.7658999042255559</v>
       </c>
       <c r="L11">
-        <v>0.9587175386817606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2705778310365616</v>
+      </c>
+      <c r="M11">
+        <v>0.9587771694361251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.214731540874368</v>
+        <v>3.21437082776157</v>
       </c>
       <c r="C12">
-        <v>0.468579244958363</v>
+        <v>0.4684138170073879</v>
       </c>
       <c r="D12">
-        <v>0.008367723859288745</v>
+        <v>0.008330409406349215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.432506162930082</v>
+        <v>3.425395309666442</v>
       </c>
       <c r="G12">
-        <v>2.594990835904468</v>
+        <v>0.8478708563384032</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.743549452923602</v>
       </c>
       <c r="I12">
-        <v>0.1331001170061228</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7875557559611792</v>
+        <v>0.1329856279778028</v>
       </c>
       <c r="K12">
-        <v>0.2780650644038403</v>
+        <v>0.787431567885946</v>
       </c>
       <c r="L12">
-        <v>0.9858677658112711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2781411701788343</v>
+      </c>
+      <c r="M12">
+        <v>0.9859253349253336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.195694273935601</v>
+        <v>3.195338934650579</v>
       </c>
       <c r="C13">
-        <v>0.4660201274452902</v>
+        <v>0.4658565730028101</v>
       </c>
       <c r="D13">
-        <v>0.008395222705874339</v>
+        <v>0.008357988708095121</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.414928997495537</v>
+        <v>3.407856482471459</v>
       </c>
       <c r="G13">
-        <v>2.581921287668536</v>
+        <v>0.8433578766652801</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.735038003765524</v>
       </c>
       <c r="I13">
-        <v>0.1324736448343735</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7829061571821896</v>
+        <v>0.1323597917629193</v>
       </c>
       <c r="K13">
-        <v>0.2764314820538516</v>
+        <v>0.78278362727103</v>
       </c>
       <c r="L13">
-        <v>0.9800049690844617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2765073172439116</v>
+      </c>
+      <c r="M13">
+        <v>0.9800630010381539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.133781742283304</v>
+        <v>3.133443621312381</v>
       </c>
       <c r="C14">
-        <v>0.4576951132283398</v>
+        <v>0.4575376077011981</v>
       </c>
       <c r="D14">
-        <v>0.008484916424718492</v>
+        <v>0.008447939332576038</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.357860064697888</v>
+        <v>3.3509120879948</v>
       </c>
       <c r="G14">
-        <v>2.539494299681863</v>
+        <v>0.8287051476264082</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.707410330742476</v>
       </c>
       <c r="I14">
-        <v>0.1304408038531655</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7677837636460367</v>
+        <v>0.1303290203156884</v>
       </c>
       <c r="K14">
-        <v>0.2711229220120686</v>
+        <v>0.7676665591955967</v>
       </c>
       <c r="L14">
-        <v>0.9609442952599068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2711978644488937</v>
+      </c>
+      <c r="M14">
+        <v>0.9610037647708936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.095987811587804</v>
+        <v>3.09566000728455</v>
       </c>
       <c r="C15">
-        <v>0.4526113813445818</v>
+        <v>0.4524575352846227</v>
       </c>
       <c r="D15">
-        <v>0.008539863859390984</v>
+        <v>0.008503040003360773</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.32309503292359</v>
+        <v>3.316222972078322</v>
       </c>
       <c r="G15">
-        <v>2.513653913037345</v>
+        <v>0.8197789275596392</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.690585533986933</v>
       </c>
       <c r="I15">
-        <v>0.129203331430336</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7585516001738384</v>
+        <v>0.1290928122734165</v>
       </c>
       <c r="K15">
-        <v>0.2678854972790958</v>
+        <v>0.7584375961329499</v>
       </c>
       <c r="L15">
-        <v>0.9493135630259957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2679598852122211</v>
+      </c>
+      <c r="M15">
+        <v>0.9493738592958252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.881268548627588</v>
+        <v>2.880996566655369</v>
       </c>
       <c r="C16">
-        <v>0.4237005797268409</v>
+        <v>0.423567052320152</v>
       </c>
       <c r="D16">
-        <v>0.008854731624816203</v>
+        <v>0.00881872587836563</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.126649513550092</v>
+        <v>3.120207252481862</v>
       </c>
       <c r="G16">
-        <v>2.367713393962148</v>
+        <v>0.7693372183402118</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.595592878582806</v>
       </c>
       <c r="I16">
-        <v>0.1222238367195452</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7060877055605417</v>
+        <v>0.1221205192885684</v>
       </c>
       <c r="K16">
-        <v>0.2495388683233912</v>
+        <v>0.70599115896988</v>
       </c>
       <c r="L16">
-        <v>0.8833046690694459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2496099712469615</v>
+      </c>
+      <c r="M16">
+        <v>0.8833689350123421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.751083612790467</v>
+        <v>2.750843165168192</v>
       </c>
       <c r="C17">
-        <v>0.4061454769666568</v>
+        <v>0.4060238811457282</v>
       </c>
       <c r="D17">
-        <v>0.009047754051507706</v>
+        <v>0.009012199961302425</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.008456434658996</v>
+        <v>3.002273561894697</v>
       </c>
       <c r="G17">
-        <v>2.279970482411528</v>
+        <v>0.7389854650704848</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.538507322264337</v>
       </c>
       <c r="I17">
-        <v>0.1180357347333398</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.674266794946206</v>
+        <v>0.1179368023629657</v>
       </c>
       <c r="K17">
-        <v>0.2384546979891482</v>
+        <v>0.674180232674594</v>
       </c>
       <c r="L17">
-        <v>0.8433422033343874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.238523699999277</v>
+      </c>
+      <c r="M17">
+        <v>0.843408276218824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676723349239296</v>
+        <v>2.676500129403735</v>
       </c>
       <c r="C18">
-        <v>0.3961081231357753</v>
+        <v>0.3959932122507723</v>
       </c>
       <c r="D18">
-        <v>0.009158679089948496</v>
+        <v>0.009123367575988972</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.941267070659507</v>
+        <v>2.935231967222791</v>
       </c>
       <c r="G18">
-        <v>2.230113275298137</v>
+        <v>0.7217299547161531</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.506079759490191</v>
       </c>
       <c r="I18">
-        <v>0.1156588583879561</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.656086560759384</v>
+        <v>0.1155624383635399</v>
       </c>
       <c r="K18">
-        <v>0.2321373803247653</v>
+        <v>0.6560054978984766</v>
       </c>
       <c r="L18">
-        <v>0.8205367603318621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2322051461545698</v>
+      </c>
+      <c r="M18">
+        <v>0.8206036627141913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.651631097340271</v>
+        <v>2.651413561938</v>
       </c>
       <c r="C19">
-        <v>0.39271934073588</v>
+        <v>0.3926066643400929</v>
       </c>
       <c r="D19">
-        <v>0.009196215960801446</v>
+        <v>0.009160983737139361</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.918648492356425</v>
+        <v>2.91266318983395</v>
       </c>
       <c r="G19">
-        <v>2.213333073950949</v>
+        <v>0.7159208039052203</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.495167400691216</v>
       </c>
       <c r="I19">
-        <v>0.1148593704408718</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6499510167232927</v>
+        <v>0.1147637995678394</v>
       </c>
       <c r="K19">
-        <v>0.2300079728147395</v>
+        <v>0.6498717761500572</v>
       </c>
       <c r="L19">
-        <v>0.8128447215122421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2300753156441075</v>
+      </c>
+      <c r="M19">
+        <v>0.8129118705826954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.764887324447955</v>
+        <v>2.76464361597175</v>
       </c>
       <c r="C20">
-        <v>0.4080079083429951</v>
+        <v>0.4078850611779501</v>
       </c>
       <c r="D20">
-        <v>0.009027215507535491</v>
+        <v>0.00899161514549629</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.020954987370061</v>
+        <v>3.014744652868643</v>
       </c>
       <c r="G20">
-        <v>2.28924669965599</v>
+        <v>0.742195209709422</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.544541436307298</v>
       </c>
       <c r="I20">
-        <v>0.1184782005365008</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6776412770064155</v>
+        <v>0.1183788024346022</v>
       </c>
       <c r="K20">
-        <v>0.2396285191151009</v>
+        <v>0.6775536775682056</v>
       </c>
       <c r="L20">
-        <v>0.8475773173811376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2396977477254723</v>
+      </c>
+      <c r="M20">
+        <v>0.847643220079938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.151939717903929</v>
+        <v>3.15159658800502</v>
       </c>
       <c r="C21">
-        <v>0.4601370834975853</v>
+        <v>0.4599778108931218</v>
       </c>
       <c r="D21">
-        <v>0.008458569330470844</v>
+        <v>0.008421517647114296</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.374582340192461</v>
+        <v>3.36759786110872</v>
       </c>
       <c r="G21">
-        <v>2.551925131244104</v>
+        <v>0.8329986989091651</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.7155046434019</v>
       </c>
       <c r="I21">
-        <v>0.1310362785875014</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7722190991071045</v>
+        <v>0.1309238878744097</v>
       </c>
       <c r="K21">
-        <v>0.2726791808801821</v>
+        <v>0.7721003434270415</v>
       </c>
       <c r="L21">
-        <v>0.9665335097917875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2727543871635234</v>
+      </c>
+      <c r="M21">
+        <v>0.9665925684068384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.41055854752841</v>
+        <v>3.410140383048258</v>
       </c>
       <c r="C22">
-        <v>0.4948857651274636</v>
+        <v>0.4947006927646669</v>
       </c>
       <c r="D22">
-        <v>0.008087131290224203</v>
+        <v>0.008048949850736342</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.614095693201648</v>
+        <v>3.606589231565351</v>
       </c>
       <c r="G22">
-        <v>2.730068474299415</v>
+        <v>0.8944936944830602</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.831538848979378</v>
       </c>
       <c r="I22">
-        <v>0.1395818298502078</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8353754115941712</v>
+        <v>0.1394608077944284</v>
       </c>
       <c r="K22">
-        <v>0.2949029985672382</v>
+        <v>0.8352336013578281</v>
       </c>
       <c r="L22">
-        <v>1.046226274437252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2949817787953464</v>
+      </c>
+      <c r="M22">
+        <v>1.046278511365792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.27195675187528</v>
+        <v>3.271579660114696</v>
       </c>
       <c r="C23">
-        <v>0.4762699100677992</v>
+        <v>0.4760988119267608</v>
       </c>
       <c r="D23">
-        <v>0.008285295847484608</v>
+        <v>0.008247735440742421</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.485424300817982</v>
+        <v>3.478198077201029</v>
       </c>
       <c r="G23">
-        <v>2.634344122346477</v>
+        <v>0.8614576175275204</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.769180219204458</v>
       </c>
       <c r="I23">
-        <v>0.1349871932832585</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8015313406418656</v>
+        <v>0.1348707936104994</v>
       </c>
       <c r="K23">
-        <v>0.2829791104093715</v>
+        <v>0.8014021096312476</v>
       </c>
       <c r="L23">
-        <v>1.003496401739504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2830560183467341</v>
+      </c>
+      <c r="M23">
+        <v>1.00355252049799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.75864516738045</v>
+        <v>2.758402935924664</v>
       </c>
       <c r="C24">
-        <v>0.4071657323833051</v>
+        <v>0.4070434514906651</v>
       </c>
       <c r="D24">
-        <v>0.009036501137588804</v>
+        <v>0.009000921748060442</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.015302034277681</v>
+        <v>3.009104119417515</v>
       </c>
       <c r="G24">
-        <v>2.285051103280807</v>
+        <v>0.7407434832377504</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.541812200532448</v>
       </c>
       <c r="I24">
-        <v>0.1182780660016718</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6761153211804469</v>
+        <v>0.1181788784835227</v>
       </c>
       <c r="K24">
-        <v>0.2390976640282148</v>
+        <v>0.6760281913895696</v>
       </c>
       <c r="L24">
-        <v>0.8456620979900222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2391667902800236</v>
+      </c>
+      <c r="M24">
+        <v>0.845728078276835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.224334749083141</v>
+        <v>2.224203940780455</v>
       </c>
       <c r="C25">
-        <v>0.3348528830837267</v>
+        <v>0.3347766214066894</v>
       </c>
       <c r="D25">
-        <v>0.009842827942183163</v>
+        <v>0.009808739429921332</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.537900739576045</v>
+        <v>2.532758913020174</v>
       </c>
       <c r="G25">
-        <v>1.931161708264497</v>
+        <v>0.618104750004278</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.31180644209293</v>
       </c>
       <c r="I25">
-        <v>0.1014552904936217</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5453999273617782</v>
+        <v>0.1013743117116768</v>
       </c>
       <c r="K25">
-        <v>0.1939356701180657</v>
+        <v>0.5453491096475602</v>
       </c>
       <c r="L25">
-        <v>0.6821404699531257</v>
+        <v>0.1939953672895101</v>
+      </c>
+      <c r="M25">
+        <v>0.6822092411394891</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.84278079477437</v>
+        <v>3.197541863580739</v>
       </c>
       <c r="C2">
-        <v>0.2828200024240317</v>
+        <v>0.4898239419165691</v>
       </c>
       <c r="D2">
-        <v>0.01039604716869791</v>
+        <v>0.01023409788233742</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.201430918496129</v>
+        <v>1.955572683475935</v>
       </c>
       <c r="G2">
-        <v>0.5327235935783392</v>
+        <v>0.0008258764782390893</v>
       </c>
       <c r="H2">
-        <v>1.152479706598129</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08979286719584323</v>
+        <v>0.0688803883129121</v>
       </c>
       <c r="K2">
-        <v>0.4518910131808482</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1621165286100705</v>
+        <v>0.1767053590853678</v>
       </c>
       <c r="M2">
-        <v>0.5660158454601714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5271298622528278</v>
+      </c>
+      <c r="N2">
+        <v>1.196895115303988</v>
+      </c>
+      <c r="O2">
+        <v>1.432825418003915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.589709798027627</v>
+        <v>2.80570450836592</v>
       </c>
       <c r="C3">
-        <v>0.2481152020606743</v>
+        <v>0.4240825917597704</v>
       </c>
       <c r="D3">
-        <v>0.01078832060543933</v>
+        <v>0.009357188697095786</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.986400032935521</v>
+        <v>1.849933238480716</v>
       </c>
       <c r="G3">
-        <v>0.4772503486443043</v>
+        <v>0.000833383447054414</v>
       </c>
       <c r="H3">
-        <v>1.049445222738044</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08233570919137634</v>
+        <v>0.0699407637527707</v>
       </c>
       <c r="K3">
-        <v>0.3897859148679572</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1411672477152841</v>
+        <v>0.1634138436344443</v>
       </c>
       <c r="M3">
-        <v>0.4892261501462443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4667984010044748</v>
+      </c>
+      <c r="N3">
+        <v>1.257569475517318</v>
+      </c>
+      <c r="O3">
+        <v>1.350953714386534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.436420239570026</v>
+        <v>2.5687769086814</v>
       </c>
       <c r="C4">
-        <v>0.226977596994459</v>
+        <v>0.3840878312413736</v>
       </c>
       <c r="D4">
-        <v>0.01102612341978659</v>
+        <v>0.008837026231014455</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.858311394141566</v>
+        <v>1.788823150276116</v>
       </c>
       <c r="G4">
-        <v>0.4441723362280356</v>
+        <v>0.0008381294532036708</v>
       </c>
       <c r="H4">
-        <v>0.9882395569289599</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07792058071160213</v>
+        <v>0.07061521544651983</v>
       </c>
       <c r="K4">
-        <v>0.3521200114121186</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.12856798249409</v>
+        <v>0.1554574122266814</v>
       </c>
       <c r="M4">
-        <v>0.4428488855820376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4303746116761147</v>
+      </c>
+      <c r="N4">
+        <v>1.296511464112122</v>
+      </c>
+      <c r="O4">
+        <v>1.303576100534286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.374403410800028</v>
+        <v>2.473045585360012</v>
       </c>
       <c r="C5">
-        <v>0.2183964439941661</v>
+        <v>0.3678659669360513</v>
       </c>
       <c r="D5">
-        <v>0.01112223950365943</v>
+        <v>0.008628787838874885</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.807003835398334</v>
+        <v>1.764797637519735</v>
       </c>
       <c r="G5">
-        <v>0.4309134014739442</v>
+        <v>0.0008400990149088233</v>
       </c>
       <c r="H5">
-        <v>0.9637638994422701</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07615851775555882</v>
+        <v>0.07089595569146567</v>
       </c>
       <c r="K5">
-        <v>0.3368693868289796</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1234919728662085</v>
+        <v>0.1522629649242617</v>
       </c>
       <c r="M5">
-        <v>0.4241180123626194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4156717402246102</v>
+      </c>
+      <c r="N5">
+        <v>1.312791287643844</v>
+      </c>
+      <c r="O5">
+        <v>1.284943476852135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364130594153039</v>
+        <v>2.457196064996367</v>
       </c>
       <c r="C6">
-        <v>0.2169732295832461</v>
+        <v>0.3651764791576682</v>
       </c>
       <c r="D6">
-        <v>0.0111381512975024</v>
+        <v>0.008594411760602938</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.798535168269467</v>
+        <v>1.760859358812652</v>
       </c>
       <c r="G6">
-        <v>0.4287243549512141</v>
+        <v>0.0008404282370729152</v>
       </c>
       <c r="H6">
-        <v>0.9597264646961037</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07586806057655338</v>
+        <v>0.07094292899081456</v>
       </c>
       <c r="K6">
-        <v>0.3343424617934971</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1226524040741701</v>
+        <v>0.1517353201751916</v>
       </c>
       <c r="M6">
-        <v>0.4210172098306657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4132383629006569</v>
+      </c>
+      <c r="N6">
+        <v>1.31551895978453</v>
+      </c>
+      <c r="O6">
+        <v>1.281888781505714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.435582134962431</v>
+        <v>2.567482657848757</v>
       </c>
       <c r="C7">
-        <v>0.2268617497829837</v>
+        <v>0.3838687698589069</v>
       </c>
       <c r="D7">
-        <v>0.01102742289791458</v>
+        <v>0.008834203824079623</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.857615968806883</v>
+        <v>1.788495665711793</v>
       </c>
       <c r="G7">
-        <v>0.44399266182117</v>
+        <v>0.0008381558700763065</v>
       </c>
       <c r="H7">
-        <v>0.9879076471543726</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07789667160282931</v>
+        <v>0.07061897771284809</v>
       </c>
       <c r="K7">
-        <v>0.3519139609781945</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1284992997462133</v>
+        <v>0.1554141415521855</v>
       </c>
       <c r="M7">
-        <v>0.4425956259467227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4301757762953144</v>
+      </c>
+      <c r="N7">
+        <v>1.296729374207267</v>
+      </c>
+      <c r="O7">
+        <v>1.303322152225519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.755037966277087</v>
+        <v>3.06161221252313</v>
       </c>
       <c r="C8">
-        <v>0.270811626913428</v>
+        <v>0.4670687925681989</v>
       </c>
       <c r="D8">
-        <v>0.01053192037712058</v>
+        <v>0.0099274053577183</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.126406600973212</v>
+        <v>1.918327769216518</v>
       </c>
       <c r="G8">
-        <v>0.5133758042480707</v>
+        <v>0.000828437228082553</v>
       </c>
       <c r="H8">
-        <v>1.11649407119431</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08718517358575539</v>
+        <v>0.06924116450372209</v>
       </c>
       <c r="K8">
-        <v>0.4303683999444203</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1548334557175863</v>
+        <v>0.1720777309148929</v>
       </c>
       <c r="M8">
-        <v>0.5393622812342542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5061890180623578</v>
+      </c>
+      <c r="N8">
+        <v>1.21745677217335</v>
+      </c>
+      <c r="O8">
+        <v>1.403962636660623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.402009684623181</v>
+        <v>4.064729160778427</v>
       </c>
       <c r="C9">
-        <v>0.3588850402159665</v>
+        <v>0.6340058374435671</v>
       </c>
       <c r="D9">
-        <v>0.009537600642792743</v>
+        <v>0.01225954263870666</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.689827432265673</v>
+        <v>2.205979155368595</v>
       </c>
       <c r="G9">
-        <v>0.6585539092908448</v>
+        <v>0.0008104071248448847</v>
       </c>
       <c r="H9">
-        <v>1.387536964108349</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1068971756767816</v>
+        <v>0.06672392584738418</v>
       </c>
       <c r="K9">
-        <v>0.5888686694081429</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2089670983668697</v>
+        <v>0.2065562741258091</v>
       </c>
       <c r="M9">
-        <v>0.7365408696148634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.6609523648515605</v>
+      </c>
+      <c r="N9">
+        <v>1.076066276227017</v>
+      </c>
+      <c r="O9">
+        <v>1.626882832609624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.895921439501308</v>
+        <v>4.830357582572788</v>
       </c>
       <c r="C10">
-        <v>0.4255774021008563</v>
+        <v>0.7602640395349738</v>
       </c>
       <c r="D10">
-        <v>0.008796636806368774</v>
+        <v>0.01415650384752176</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.133775730691525</v>
+        <v>2.442494802400986</v>
       </c>
       <c r="G10">
-        <v>0.7728290570679093</v>
+        <v>0.0007977009115600404</v>
       </c>
       <c r="H10">
-        <v>1.602163993058269</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1226024156497978</v>
+        <v>0.06498586942194962</v>
       </c>
       <c r="K10">
-        <v>0.7096383585303272</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2508831881482578</v>
+        <v>0.2332596705153236</v>
       </c>
       <c r="M10">
-        <v>0.8879541757481206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.7793400848969299</v>
+      </c>
+      <c r="N10">
+        <v>0.9817857547110194</v>
+      </c>
+      <c r="O10">
+        <v>1.810273220290057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.12621068441257</v>
+        <v>5.186851231216792</v>
       </c>
       <c r="C11">
-        <v>0.4565652352514746</v>
+        <v>0.8188164433429961</v>
       </c>
       <c r="D11">
-        <v>0.0084584761797033</v>
+        <v>0.01507734158373353</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.344267270747025</v>
+        <v>2.556824631565462</v>
       </c>
       <c r="G11">
-        <v>0.8269953089908029</v>
+        <v>0.0007920164433329353</v>
       </c>
       <c r="H11">
-        <v>1.704187171087113</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1300921680683516</v>
+        <v>0.06421911855688567</v>
       </c>
       <c r="K11">
-        <v>0.7658999042255559</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2705778310365616</v>
+        <v>0.2457743038972922</v>
       </c>
       <c r="M11">
-        <v>0.9587771694361251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.8345181369958397</v>
+      </c>
+      <c r="N11">
+        <v>0.9412390861178679</v>
+      </c>
+      <c r="O11">
+        <v>1.898974940269269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.21437082776157</v>
+        <v>5.32321061864485</v>
       </c>
       <c r="C12">
-        <v>0.4684138170073879</v>
+        <v>0.8411804972340917</v>
       </c>
       <c r="D12">
-        <v>0.008330409406349215</v>
+        <v>0.01543612509443193</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.425395309666442</v>
+        <v>2.601206437936469</v>
       </c>
       <c r="G12">
-        <v>0.8478708563384032</v>
+        <v>0.0007898756470685631</v>
       </c>
       <c r="H12">
-        <v>1.743549452923602</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1329856279778028</v>
+        <v>0.06393219173657538</v>
       </c>
       <c r="K12">
-        <v>0.787431567885946</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2781411701788343</v>
+        <v>0.2505724613858291</v>
       </c>
       <c r="M12">
-        <v>0.9859253349253336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.8556312557119483</v>
+      </c>
+      <c r="N12">
+        <v>0.9262468038192893</v>
+      </c>
+      <c r="O12">
+        <v>1.933418405762282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.195338934650579</v>
+        <v>5.293779426775814</v>
       </c>
       <c r="C13">
-        <v>0.4658565730028101</v>
+        <v>0.8363549476843275</v>
       </c>
       <c r="D13">
-        <v>0.008357988708095121</v>
+        <v>0.01535837558683539</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.407856482471459</v>
+        <v>2.591597615262941</v>
       </c>
       <c r="G13">
-        <v>0.8433578766652801</v>
+        <v>0.000790336215223304</v>
       </c>
       <c r="H13">
-        <v>1.735038003765524</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1323597917629193</v>
+        <v>0.06399383438959383</v>
       </c>
       <c r="K13">
-        <v>0.78278362727103</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2765073172439116</v>
+        <v>0.249536353596767</v>
       </c>
       <c r="M13">
-        <v>0.9800630010381539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.851073972317181</v>
+      </c>
+      <c r="N13">
+        <v>0.9294591353726176</v>
+      </c>
+      <c r="O13">
+        <v>1.925960769718998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.133443621312381</v>
+        <v>5.198041161051037</v>
       </c>
       <c r="C14">
-        <v>0.4575376077011981</v>
+        <v>0.820652318705072</v>
       </c>
       <c r="D14">
-        <v>0.008447939332576038</v>
+        <v>0.01510664590749577</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.3509120879948</v>
+        <v>2.560453424407157</v>
       </c>
       <c r="G14">
-        <v>0.8287051476264082</v>
+        <v>0.0007918400945915887</v>
       </c>
       <c r="H14">
-        <v>1.707410330742476</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1303290203156884</v>
+        <v>0.06419544432918656</v>
       </c>
       <c r="K14">
-        <v>0.7676665591955967</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2711978644488937</v>
+        <v>0.2461678271556451</v>
       </c>
       <c r="M14">
-        <v>0.9610037647708936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.8362505765025006</v>
+      </c>
+      <c r="N14">
+        <v>0.9399982557012621</v>
+      </c>
+      <c r="O14">
+        <v>1.901790923516984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.09566000728455</v>
+        <v>5.139581996268703</v>
       </c>
       <c r="C15">
-        <v>0.4524575352846227</v>
+        <v>0.8110599282271949</v>
       </c>
       <c r="D15">
-        <v>0.008503040003360773</v>
+        <v>0.01495382357042985</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.316222972078322</v>
+        <v>2.541522097041906</v>
       </c>
       <c r="G15">
-        <v>0.8197789275596392</v>
+        <v>0.0007927627372722925</v>
       </c>
       <c r="H15">
-        <v>1.690585533986933</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1290928122734165</v>
+        <v>0.06431938197996256</v>
       </c>
       <c r="K15">
-        <v>0.7584375961329499</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2679598852122211</v>
+        <v>0.2441124091131854</v>
       </c>
       <c r="M15">
-        <v>0.9493738592958252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.8272001489801468</v>
+      </c>
+      <c r="N15">
+        <v>0.9465016902867731</v>
+      </c>
+      <c r="O15">
+        <v>1.88710043188641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.880996566655369</v>
+        <v>4.807240182593148</v>
       </c>
       <c r="C16">
-        <v>0.423567052320152</v>
+        <v>0.7564625383988073</v>
       </c>
       <c r="D16">
-        <v>0.00881872587836563</v>
+        <v>0.01409763465350622</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.120207252481862</v>
+        <v>2.435168505197382</v>
       </c>
       <c r="G16">
-        <v>0.7693372183402118</v>
+        <v>0.0007980741664322343</v>
       </c>
       <c r="H16">
-        <v>1.595592878582806</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1221205192885684</v>
+        <v>0.06503645827084625</v>
       </c>
       <c r="K16">
-        <v>0.70599115896988</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2496099712469615</v>
+        <v>0.232449724123569</v>
       </c>
       <c r="M16">
-        <v>0.8833689350123421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7757630255210159</v>
+      </c>
+      <c r="N16">
+        <v>0.9844847813930286</v>
+      </c>
+      <c r="O16">
+        <v>1.804590433504416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.750843165168192</v>
+        <v>4.605584776790806</v>
       </c>
       <c r="C17">
-        <v>0.4060238811457282</v>
+        <v>0.7232757583137754</v>
       </c>
       <c r="D17">
-        <v>0.009012199961302425</v>
+        <v>0.01358839477230589</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.002273561894697</v>
+        <v>2.371730063493075</v>
       </c>
       <c r="G17">
-        <v>0.7389854650704848</v>
+        <v>0.0008013557206859706</v>
       </c>
       <c r="H17">
-        <v>1.538507322264337</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1179368023629657</v>
+        <v>0.06548247367359483</v>
       </c>
       <c r="K17">
-        <v>0.674180232674594</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.238523699999277</v>
+        <v>0.2253933764322511</v>
       </c>
       <c r="M17">
-        <v>0.843408276218824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7445659086730601</v>
+      </c>
+      <c r="N17">
+        <v>1.008402985568026</v>
+      </c>
+      <c r="O17">
+        <v>1.755389145744672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.676500129403735</v>
+        <v>4.490358154479281</v>
       </c>
       <c r="C18">
-        <v>0.3959932122507723</v>
+        <v>0.7042906768641046</v>
       </c>
       <c r="D18">
-        <v>0.009123367575988972</v>
+        <v>0.01330082475883287</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.935231967222791</v>
+        <v>2.335868283429818</v>
       </c>
       <c r="G18">
-        <v>0.7217299547161531</v>
+        <v>0.0008032523165478454</v>
       </c>
       <c r="H18">
-        <v>1.506079759490191</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1155624383635399</v>
+        <v>0.06574126007827275</v>
       </c>
       <c r="K18">
-        <v>0.6560054978984766</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2322051461545698</v>
+        <v>0.2213688889816723</v>
       </c>
       <c r="M18">
-        <v>0.8206036627141913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7267448078703467</v>
+      </c>
+      <c r="N18">
+        <v>1.022378884074094</v>
+      </c>
+      <c r="O18">
+        <v>1.727580212280799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.651413561938</v>
+        <v>4.451469721618651</v>
       </c>
       <c r="C19">
-        <v>0.3926066643400929</v>
+        <v>0.697879473976144</v>
       </c>
       <c r="D19">
-        <v>0.009160983737139361</v>
+        <v>0.01320432453566411</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.91266318983395</v>
+        <v>2.323830270327306</v>
       </c>
       <c r="G19">
-        <v>0.7159208039052203</v>
+        <v>0.0008038960962589396</v>
       </c>
       <c r="H19">
-        <v>1.495167400691216</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1147637995678394</v>
+        <v>0.06582926756253471</v>
       </c>
       <c r="K19">
-        <v>0.6498717761500572</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2300753156441075</v>
+        <v>0.2200119474490947</v>
       </c>
       <c r="M19">
-        <v>0.8129118705826954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7207311477276193</v>
+      </c>
+      <c r="N19">
+        <v>1.027147740545182</v>
+      </c>
+      <c r="O19">
+        <v>1.718246071526565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.76464361597175</v>
+        <v>4.62697139661276</v>
       </c>
       <c r="C20">
-        <v>0.4078850611779501</v>
+        <v>0.7267976671719509</v>
       </c>
       <c r="D20">
-        <v>0.00899161514549629</v>
+        <v>0.01364204050852535</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.014744652868643</v>
+        <v>2.378417552964763</v>
       </c>
       <c r="G20">
-        <v>0.742195209709422</v>
+        <v>0.0008010054618372564</v>
       </c>
       <c r="H20">
-        <v>1.544541436307298</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1183788024346022</v>
+        <v>0.06543476178307728</v>
       </c>
       <c r="K20">
-        <v>0.6775536775682056</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2396977477254723</v>
+        <v>0.2261409598437041</v>
       </c>
       <c r="M20">
-        <v>0.847643220079938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7478740065560956</v>
+      </c>
+      <c r="N20">
+        <v>1.005834036387938</v>
+      </c>
+      <c r="O20">
+        <v>1.760575301695894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.15159658800502</v>
+        <v>5.226123256970254</v>
       </c>
       <c r="C21">
-        <v>0.4599778108931218</v>
+        <v>0.8252590986364226</v>
       </c>
       <c r="D21">
-        <v>0.008421517647114296</v>
+        <v>0.01518029615120398</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.36759786110872</v>
+        <v>2.569570698047329</v>
       </c>
       <c r="G21">
-        <v>0.8329986989091651</v>
+        <v>0.0007913980656166177</v>
       </c>
       <c r="H21">
-        <v>1.7155046434019</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1309238878744097</v>
+        <v>0.06413613372819604</v>
       </c>
       <c r="K21">
-        <v>0.7721003434270415</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2727543871635234</v>
+        <v>0.2471555859994652</v>
       </c>
       <c r="M21">
-        <v>0.9665925684068384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8405983999285951</v>
+      </c>
+      <c r="N21">
+        <v>0.9368926253515255</v>
+      </c>
+      <c r="O21">
+        <v>1.908866200559444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.410140383048258</v>
+        <v>5.625748659496139</v>
       </c>
       <c r="C22">
-        <v>0.4947006927646669</v>
+        <v>0.8907428303305096</v>
       </c>
       <c r="D22">
-        <v>0.008048949850736342</v>
+        <v>0.01624540478410452</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.606589231565351</v>
+        <v>2.700904813565103</v>
       </c>
       <c r="G22">
-        <v>0.8944936944830602</v>
+        <v>0.000785186716183433</v>
       </c>
       <c r="H22">
-        <v>1.831538848979378</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1394608077944284</v>
+        <v>0.06330736571377305</v>
       </c>
       <c r="K22">
-        <v>0.8352336013578281</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2949817787953464</v>
+        <v>0.2612380244527657</v>
       </c>
       <c r="M22">
-        <v>1.046278511365792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9024875314763037</v>
+      </c>
+      <c r="N22">
+        <v>0.8939584567516974</v>
+      </c>
+      <c r="O22">
+        <v>2.010813358227239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.271579660114696</v>
+        <v>5.411658866441314</v>
       </c>
       <c r="C23">
-        <v>0.4760988119267608</v>
+        <v>0.855678007812088</v>
       </c>
       <c r="D23">
-        <v>0.008247735440742421</v>
+        <v>0.01567081992304509</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.478198077201029</v>
+        <v>2.63018045356813</v>
       </c>
       <c r="G23">
-        <v>0.8614576175275204</v>
+        <v>0.0007884963482962526</v>
       </c>
       <c r="H23">
-        <v>1.769180219204458</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1348707936104994</v>
+        <v>0.06374787161626028</v>
       </c>
       <c r="K23">
-        <v>0.8014021096312476</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2830560183467341</v>
+        <v>0.2536878206957738</v>
       </c>
       <c r="M23">
-        <v>1.00355252049799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8693280921379198</v>
+      </c>
+      <c r="N23">
+        <v>0.9166699019380005</v>
+      </c>
+      <c r="O23">
+        <v>1.95590752245829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.758402935924664</v>
+        <v>4.617300314859961</v>
       </c>
       <c r="C24">
-        <v>0.4070434514906651</v>
+        <v>0.7252051203058443</v>
       </c>
       <c r="D24">
-        <v>0.009000921748060442</v>
+        <v>0.01361777120761865</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.009104119417515</v>
+        <v>2.375392248309453</v>
       </c>
       <c r="G24">
-        <v>0.7407434832377504</v>
+        <v>0.0008011637827360148</v>
       </c>
       <c r="H24">
-        <v>1.541812200532448</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1181788784835227</v>
+        <v>0.06545632495755349</v>
       </c>
       <c r="K24">
-        <v>0.6760281913895696</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2391667902800236</v>
+        <v>0.2258028772442771</v>
       </c>
       <c r="M24">
-        <v>0.845728078276835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7463780608335</v>
+      </c>
+      <c r="N24">
+        <v>1.006994759334951</v>
+      </c>
+      <c r="O24">
+        <v>1.758229160218619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.224203940780455</v>
+        <v>3.788943442826678</v>
       </c>
       <c r="C25">
-        <v>0.3347766214066894</v>
+        <v>0.5883135174406675</v>
       </c>
       <c r="D25">
-        <v>0.009808739429921332</v>
+        <v>0.01160189787359478</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.532758913020174</v>
+        <v>2.124134191706077</v>
       </c>
       <c r="G25">
-        <v>0.618104750004278</v>
+        <v>0.000815183114795559</v>
       </c>
       <c r="H25">
-        <v>1.31180644209293</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1013743117116768</v>
+        <v>0.06738526499922859</v>
       </c>
       <c r="K25">
-        <v>0.5453491096475602</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1939953672895101</v>
+        <v>0.1970093783222922</v>
       </c>
       <c r="M25">
-        <v>0.6822092411394891</v>
+        <v>0.61835685986388</v>
+      </c>
+      <c r="N25">
+        <v>1.112711153721406</v>
+      </c>
+      <c r="O25">
+        <v>1.563448659940534</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.197541863580739</v>
+        <v>2.708617196868715</v>
       </c>
       <c r="C2">
-        <v>0.4898239419165691</v>
+        <v>0.4097246079364822</v>
       </c>
       <c r="D2">
-        <v>0.01023409788233742</v>
+        <v>0.02705487504147008</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.955572683475935</v>
+        <v>1.346647795024182</v>
       </c>
       <c r="G2">
-        <v>0.0008258764782390893</v>
+        <v>1.158365879648599</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7438624779309464</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0688803883129121</v>
+        <v>0.07483151358894569</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1767053590853678</v>
+        <v>0.1844163917277157</v>
       </c>
       <c r="M2">
-        <v>0.5271298622528278</v>
+        <v>0.4637590287030235</v>
       </c>
       <c r="N2">
-        <v>1.196895115303988</v>
+        <v>0.9498723031869201</v>
       </c>
       <c r="O2">
-        <v>1.432825418003915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.80570450836592</v>
+        <v>2.364760692484424</v>
       </c>
       <c r="C3">
-        <v>0.4240825917597704</v>
+        <v>0.3613279568006362</v>
       </c>
       <c r="D3">
-        <v>0.009357188697095786</v>
+        <v>0.02629112866202199</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.849933238480716</v>
+        <v>1.277850054972873</v>
       </c>
       <c r="G3">
-        <v>0.000833383447054414</v>
+        <v>1.082994026645778</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.717255465087888</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0699407637527707</v>
+        <v>0.07652614812804037</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1634138436344443</v>
+        <v>0.1700986134881575</v>
       </c>
       <c r="M3">
-        <v>0.4667984010044748</v>
+        <v>0.4085815486258184</v>
       </c>
       <c r="N3">
-        <v>1.257569475517318</v>
+        <v>1.005737930936606</v>
       </c>
       <c r="O3">
-        <v>1.350953714386534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.5687769086814</v>
+        <v>2.155691546804348</v>
       </c>
       <c r="C4">
-        <v>0.3840878312413736</v>
+        <v>0.3317030284659666</v>
       </c>
       <c r="D4">
-        <v>0.008837026231014455</v>
+        <v>0.02583370457713663</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.788823150276116</v>
+        <v>1.238189715374517</v>
       </c>
       <c r="G4">
-        <v>0.0008381294532036708</v>
+        <v>1.039183258721977</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7023069365957895</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07061521544651983</v>
+        <v>0.07760563472323057</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1554574122266814</v>
+        <v>0.1614900832940194</v>
       </c>
       <c r="M4">
-        <v>0.4303746116761147</v>
+        <v>0.3750931850347428</v>
       </c>
       <c r="N4">
-        <v>1.296511464112122</v>
+        <v>1.041457282056323</v>
       </c>
       <c r="O4">
-        <v>1.303576100534286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.473045585360012</v>
+        <v>2.070950069611911</v>
       </c>
       <c r="C5">
-        <v>0.3678659669360513</v>
+        <v>0.3196454892965335</v>
       </c>
       <c r="D5">
-        <v>0.008628787838874885</v>
+        <v>0.02564992062259641</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.764797637519735</v>
+        <v>1.222636705253208</v>
       </c>
       <c r="G5">
-        <v>0.0008400990149088233</v>
+        <v>1.021907485473122</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.6965445494770819</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07089595569146567</v>
+        <v>0.07805533054826608</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1522629649242617</v>
+        <v>0.1580250094757005</v>
       </c>
       <c r="M5">
-        <v>0.4156717402246102</v>
+        <v>0.3615345053557988</v>
       </c>
       <c r="N5">
-        <v>1.312791287643844</v>
+        <v>1.056359927800734</v>
       </c>
       <c r="O5">
-        <v>1.284943476852135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.457196064996367</v>
+        <v>2.056904606861622</v>
       </c>
       <c r="C6">
-        <v>0.3651764791576682</v>
+        <v>0.3176440188395588</v>
       </c>
       <c r="D6">
-        <v>0.008594411760602938</v>
+        <v>0.02561955409451322</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.760859358812652</v>
+        <v>1.220089784828502</v>
       </c>
       <c r="G6">
-        <v>0.0008404282370729152</v>
+        <v>1.019072525335261</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6956070396028906</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07094292899081456</v>
+        <v>0.07813059375197318</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1517353201751916</v>
+        <v>0.1574521491850618</v>
       </c>
       <c r="M6">
-        <v>0.4132383629006569</v>
+        <v>0.3592881329023854</v>
       </c>
       <c r="N6">
-        <v>1.31551895978453</v>
+        <v>1.058855168358139</v>
       </c>
       <c r="O6">
-        <v>1.281888781505714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.567482657848757</v>
+        <v>2.154546926902242</v>
       </c>
       <c r="C7">
-        <v>0.3838687698589069</v>
+        <v>0.3315403662545009</v>
       </c>
       <c r="D7">
-        <v>0.008834203824079623</v>
+        <v>0.02583121574028624</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.788495665711793</v>
+        <v>1.23797754806985</v>
       </c>
       <c r="G7">
-        <v>0.0008381558700763065</v>
+        <v>1.038947988438608</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.702227915174106</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07061897771284809</v>
+        <v>0.07761165981853857</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1554141415521855</v>
+        <v>0.1614431818732527</v>
       </c>
       <c r="M7">
-        <v>0.4301757762953144</v>
+        <v>0.37490998419851</v>
       </c>
       <c r="N7">
-        <v>1.296729374207267</v>
+        <v>1.041656872921262</v>
       </c>
       <c r="O7">
-        <v>1.303322152225519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.06161221252313</v>
+        <v>2.589589115132355</v>
       </c>
       <c r="C8">
-        <v>0.4670687925681989</v>
+        <v>0.3930136071327297</v>
       </c>
       <c r="D8">
-        <v>0.0099274053577183</v>
+        <v>0.02678896936670583</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.918327769216518</v>
+        <v>1.32236541987487</v>
       </c>
       <c r="G8">
-        <v>0.000828437228082553</v>
+        <v>1.131838648192016</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7343878972647531</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06924116450372209</v>
+        <v>0.07540773226393638</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1720777309148929</v>
+        <v>0.1794398718297145</v>
       </c>
       <c r="M8">
-        <v>0.5061890180623578</v>
+        <v>0.4446463667827487</v>
       </c>
       <c r="N8">
-        <v>1.21745677217335</v>
+        <v>0.9688344862328169</v>
       </c>
       <c r="O8">
-        <v>1.403962636660623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.064729160778427</v>
+        <v>3.462111039150273</v>
       </c>
       <c r="C9">
-        <v>0.6340058374435671</v>
+        <v>0.5146777939324636</v>
       </c>
       <c r="D9">
-        <v>0.01225954263870666</v>
+        <v>0.0287725788721449</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.205979155368595</v>
+        <v>1.510296216173757</v>
       </c>
       <c r="G9">
-        <v>0.0008104071248448847</v>
+        <v>1.335676324395592</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.8094348046291771</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06672392584738418</v>
+        <v>0.07139516056450645</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2065562741258091</v>
+        <v>0.2163256416066162</v>
       </c>
       <c r="M9">
-        <v>0.6609523648515605</v>
+        <v>0.5850010400774082</v>
       </c>
       <c r="N9">
-        <v>1.076066276227017</v>
+        <v>0.8377468386162592</v>
       </c>
       <c r="O9">
-        <v>1.626882832609624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.830357582572788</v>
+        <v>4.119653009596902</v>
       </c>
       <c r="C10">
-        <v>0.7602640395349738</v>
+        <v>0.6053509272763336</v>
       </c>
       <c r="D10">
-        <v>0.01415650384752176</v>
+        <v>0.03031648203880444</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.442494802400986</v>
+        <v>1.665017681158417</v>
       </c>
       <c r="G10">
-        <v>0.0007977009115600404</v>
+        <v>1.501825452323629</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.873336970405461</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06498586942194962</v>
+        <v>0.06863566665738885</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2332596705153236</v>
+        <v>0.2446184449509019</v>
       </c>
       <c r="M10">
-        <v>0.7793400848969299</v>
+        <v>0.6910792973255226</v>
       </c>
       <c r="N10">
-        <v>0.9817857547110194</v>
+        <v>0.7492796435122351</v>
       </c>
       <c r="O10">
-        <v>1.810273220290057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.186851231216792</v>
+        <v>4.423518672434852</v>
       </c>
       <c r="C11">
-        <v>0.8188164433429961</v>
+        <v>0.6470304462752665</v>
       </c>
       <c r="D11">
-        <v>0.01507734158373353</v>
+        <v>0.03104342142512451</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.556824631565462</v>
+        <v>1.739747723024649</v>
       </c>
       <c r="G11">
-        <v>0.0007920164433329353</v>
+        <v>1.581750081668332</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.9046704974252009</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06421911855688567</v>
+        <v>0.06742123699607916</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2457743038972922</v>
+        <v>0.2578027745342695</v>
       </c>
       <c r="M11">
-        <v>0.8345181369958397</v>
+        <v>0.7401676379815356</v>
       </c>
       <c r="N11">
-        <v>0.9412390861178679</v>
+        <v>0.7109088006876458</v>
       </c>
       <c r="O11">
-        <v>1.898974940269269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.32321061864485</v>
+        <v>4.539372208948066</v>
       </c>
       <c r="C12">
-        <v>0.8411804972340917</v>
+        <v>0.6628893459878213</v>
       </c>
       <c r="D12">
-        <v>0.01543612509443193</v>
+        <v>0.03132278999176918</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.601206437936469</v>
+        <v>1.768738096580108</v>
       </c>
       <c r="G12">
-        <v>0.0007898756470685631</v>
+        <v>1.612711837899042</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.9168944407898323</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06393219173657538</v>
+        <v>0.06696724741132609</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2505724613858291</v>
+        <v>0.2628453919142544</v>
       </c>
       <c r="M12">
-        <v>0.8556312557119483</v>
+        <v>0.7588930131482456</v>
       </c>
       <c r="N12">
-        <v>0.9262468038192893</v>
+        <v>0.6966643016596059</v>
       </c>
       <c r="O12">
-        <v>1.933418405762282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.293779426775814</v>
+        <v>4.514384352450406</v>
       </c>
       <c r="C13">
-        <v>0.8363549476843275</v>
+        <v>0.6594702455073786</v>
       </c>
       <c r="D13">
-        <v>0.01535837558683539</v>
+        <v>0.03126243136676621</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.591597615262941</v>
+        <v>1.762462605581831</v>
       </c>
       <c r="G13">
-        <v>0.000790336215223304</v>
+        <v>1.606011499681301</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.9142452859366585</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06399383438959383</v>
+        <v>0.06706476012253404</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.249536353596767</v>
+        <v>0.2617570678624759</v>
       </c>
       <c r="M13">
-        <v>0.851073972317181</v>
+        <v>0.7548538024856413</v>
       </c>
       <c r="N13">
-        <v>0.9294591353726176</v>
+        <v>0.6997191260345934</v>
       </c>
       <c r="O13">
-        <v>1.925960769718998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.198041161051037</v>
+        <v>4.433033626538077</v>
       </c>
       <c r="C14">
-        <v>0.820652318705072</v>
+        <v>0.6483335656377847</v>
       </c>
       <c r="D14">
-        <v>0.01510664590749577</v>
+        <v>0.0310663197979153</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.560453424407157</v>
+        <v>1.742118510453153</v>
       </c>
       <c r="G14">
-        <v>0.0007918400945915887</v>
+        <v>1.58428293988041</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.9056687807675701</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06419544432918656</v>
+        <v>0.06738376892202158</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2461678271556451</v>
+        <v>0.2582166021249606</v>
       </c>
       <c r="M14">
-        <v>0.8362505765025006</v>
+        <v>0.7417053437419412</v>
       </c>
       <c r="N14">
-        <v>0.9399982557012621</v>
+        <v>0.7097310721954972</v>
       </c>
       <c r="O14">
-        <v>1.901790923516984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.139581996268703</v>
+        <v>4.383309591281488</v>
       </c>
       <c r="C15">
-        <v>0.8110599282271949</v>
+        <v>0.6415223247710742</v>
       </c>
       <c r="D15">
-        <v>0.01495382357042985</v>
+        <v>0.03094674641107531</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.541522097041906</v>
+        <v>1.729749336244424</v>
       </c>
       <c r="G15">
-        <v>0.0007927627372722925</v>
+        <v>1.571066455215714</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.9004631610247884</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06431938197996256</v>
+        <v>0.06757993820953345</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2441124091131854</v>
+        <v>0.2560546282430067</v>
       </c>
       <c r="M15">
-        <v>0.8272001489801468</v>
+        <v>0.7336698635785623</v>
       </c>
       <c r="N15">
-        <v>0.9465016902867731</v>
+        <v>0.7159013964612688</v>
       </c>
       <c r="O15">
-        <v>1.88710043188641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.807240182593148</v>
+        <v>4.099898824578759</v>
       </c>
       <c r="C16">
-        <v>0.7564625383988073</v>
+        <v>0.6026368999974068</v>
       </c>
       <c r="D16">
-        <v>0.01409763465350622</v>
+        <v>0.03026951575808745</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.435168505197382</v>
+        <v>1.660226920261707</v>
       </c>
       <c r="G16">
-        <v>0.0007980741664322343</v>
+        <v>1.496695538493185</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.8713375637356648</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06503645827084625</v>
+        <v>0.06871585593083163</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.232449724123569</v>
+        <v>0.2437635388892829</v>
       </c>
       <c r="M16">
-        <v>0.7757630255210159</v>
+        <v>0.6878894281212027</v>
       </c>
       <c r="N16">
-        <v>0.9844847813930286</v>
+        <v>0.7518263255099988</v>
       </c>
       <c r="O16">
-        <v>1.804590433504416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.605584776790806</v>
+        <v>3.927321908835324</v>
       </c>
       <c r="C17">
-        <v>0.7232757583137754</v>
+        <v>0.5789018590309354</v>
       </c>
       <c r="D17">
-        <v>0.01358839477230589</v>
+        <v>0.02986073172808545</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.371730063493075</v>
+        <v>1.618735935165915</v>
       </c>
       <c r="G17">
-        <v>0.0008013557206859706</v>
+        <v>1.45223245550369</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.8540723839017801</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06548247367359483</v>
+        <v>0.0694231816396722</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2253933764322511</v>
+        <v>0.2363070532249054</v>
       </c>
       <c r="M17">
-        <v>0.7445659086730601</v>
+        <v>0.6600294680901442</v>
       </c>
       <c r="N17">
-        <v>1.008402985568026</v>
+        <v>0.7743560546529578</v>
       </c>
       <c r="O17">
-        <v>1.755389145744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.490358154479281</v>
+        <v>3.828500234154546</v>
       </c>
       <c r="C18">
-        <v>0.7042906768641046</v>
+        <v>0.5652898432142592</v>
       </c>
       <c r="D18">
-        <v>0.01330082475883287</v>
+        <v>0.02962788925778348</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.335868283429818</v>
+        <v>1.595276181343351</v>
       </c>
       <c r="G18">
-        <v>0.0008032523165478454</v>
+        <v>1.427062540577026</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.8443528628638148</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06574126007827275</v>
+        <v>0.06983386364598365</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2213688889816723</v>
+        <v>0.2320474981784599</v>
       </c>
       <c r="M18">
-        <v>0.7267448078703467</v>
+        <v>0.6440824401993979</v>
       </c>
       <c r="N18">
-        <v>1.022378884074094</v>
+        <v>0.7874898222486024</v>
       </c>
       <c r="O18">
-        <v>1.727580212280799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.451469721618651</v>
+        <v>3.795113483469265</v>
       </c>
       <c r="C19">
-        <v>0.697879473976144</v>
+        <v>0.5606874816496088</v>
       </c>
       <c r="D19">
-        <v>0.01320432453566411</v>
+        <v>0.02954942854709408</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.323830270327306</v>
+        <v>1.587400698121797</v>
       </c>
       <c r="G19">
-        <v>0.0008038960962589396</v>
+        <v>1.418607767884225</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.84109727523321</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06582926756253471</v>
+        <v>0.06997357393254511</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2200119474490947</v>
+        <v>0.2306101629498301</v>
       </c>
       <c r="M19">
-        <v>0.7207311477276193</v>
+        <v>0.6386958339883577</v>
       </c>
       <c r="N19">
-        <v>1.027147740545182</v>
+        <v>0.7919663189400863</v>
       </c>
       <c r="O19">
-        <v>1.718246071526565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.62697139661276</v>
+        <v>3.945646757769396</v>
       </c>
       <c r="C20">
-        <v>0.7267976671719509</v>
+        <v>0.5814242858358796</v>
       </c>
       <c r="D20">
-        <v>0.01364204050852535</v>
+        <v>0.02990400780446834</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.378417552964763</v>
+        <v>1.623110366470826</v>
       </c>
       <c r="G20">
-        <v>0.0008010054618372564</v>
+        <v>1.456923309400537</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.8558882294661601</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06543476178307728</v>
+        <v>0.06934748739142194</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2261409598437041</v>
+        <v>0.2370977509752095</v>
       </c>
       <c r="M20">
-        <v>0.7478740065560956</v>
+        <v>0.6629870921879188</v>
       </c>
       <c r="N20">
-        <v>1.005834036387938</v>
+        <v>0.7719394740081889</v>
       </c>
       <c r="O20">
-        <v>1.760575301695894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.226123256970254</v>
+        <v>4.456906093566204</v>
       </c>
       <c r="C21">
-        <v>0.8252590986364226</v>
+        <v>0.6516025061565358</v>
       </c>
       <c r="D21">
-        <v>0.01518029615120398</v>
+        <v>0.03112380668047088</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.569570698047329</v>
+        <v>1.748074727762301</v>
       </c>
       <c r="G21">
-        <v>0.0007913980656166177</v>
+        <v>1.590645649750996</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.9081778963071088</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06413613372819604</v>
+        <v>0.06728990840426086</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2471555859994652</v>
+        <v>0.259255124695045</v>
       </c>
       <c r="M21">
-        <v>0.8405983999285951</v>
+        <v>0.7455635122229012</v>
       </c>
       <c r="N21">
-        <v>0.9368926253515255</v>
+        <v>0.7067824291617351</v>
       </c>
       <c r="O21">
-        <v>1.908866200559444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.625748659496139</v>
+        <v>4.795681732777609</v>
       </c>
       <c r="C22">
-        <v>0.8907428303305096</v>
+        <v>0.6979170651465552</v>
       </c>
       <c r="D22">
-        <v>0.01624540478410452</v>
+        <v>0.03194518053299511</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.700904813565103</v>
+        <v>1.833813759445732</v>
       </c>
       <c r="G22">
-        <v>0.000785186716183433</v>
+        <v>1.682136275004382</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.9444602084433598</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06330736571377305</v>
+        <v>0.06597949005713044</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2612380244527657</v>
+        <v>0.274030273908636</v>
       </c>
       <c r="M22">
-        <v>0.9024875314763037</v>
+        <v>0.8003377411124717</v>
       </c>
       <c r="N22">
-        <v>0.8939584567516974</v>
+        <v>0.6658725675489556</v>
       </c>
       <c r="O22">
-        <v>2.010813358227239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.411658866441314</v>
+        <v>4.61440949840221</v>
       </c>
       <c r="C23">
-        <v>0.855678007812088</v>
+        <v>0.6731521348556555</v>
       </c>
       <c r="D23">
-        <v>0.01567081992304509</v>
+        <v>0.03150438441216963</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.63018045356813</v>
+        <v>1.787657301133677</v>
       </c>
       <c r="G23">
-        <v>0.0007884963482962526</v>
+        <v>1.632905793669096</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.9248910063599283</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06374787161626028</v>
+        <v>0.06667574030855805</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2536878206957738</v>
+        <v>0.2661158636481105</v>
       </c>
       <c r="M23">
-        <v>0.8693280921379198</v>
+        <v>0.7710239520432367</v>
       </c>
       <c r="N23">
-        <v>0.9166699019380005</v>
+        <v>0.6875479515767022</v>
       </c>
       <c r="O23">
-        <v>1.95590752245829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.617300314859961</v>
+        <v>3.937360870652867</v>
       </c>
       <c r="C24">
-        <v>0.7252051203058443</v>
+        <v>0.5802837931130966</v>
       </c>
       <c r="D24">
-        <v>0.01361777120761865</v>
+        <v>0.02988443596302481</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.375392248309453</v>
+        <v>1.621131463926773</v>
       </c>
       <c r="G24">
-        <v>0.0008011637827360148</v>
+        <v>1.454801357119095</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.8550666450659037</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06545632495755349</v>
+        <v>0.06938169620603318</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2258028772442771</v>
+        <v>0.2367401919207595</v>
       </c>
       <c r="M24">
-        <v>0.7463780608335</v>
+        <v>0.6616497334521156</v>
       </c>
       <c r="N24">
-        <v>1.006994759334951</v>
+        <v>0.7730314471659527</v>
       </c>
       <c r="O24">
-        <v>1.758229160218619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.788943442826678</v>
+        <v>3.223534901232256</v>
       </c>
       <c r="C25">
-        <v>0.5883135174406675</v>
+        <v>0.4815856689735369</v>
       </c>
       <c r="D25">
-        <v>0.01160189787359478</v>
+        <v>0.02822253450970891</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.124134191706077</v>
+        <v>1.456761789332162</v>
       </c>
       <c r="G25">
-        <v>0.000815183114795559</v>
+        <v>1.277900455909048</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.787706588949419</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06738526499922859</v>
+        <v>0.07244755703068329</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1970093783222922</v>
+        <v>0.2061546709707898</v>
       </c>
       <c r="M25">
-        <v>0.61835685986388</v>
+        <v>0.5465707791276699</v>
       </c>
       <c r="N25">
-        <v>1.112711153721406</v>
+        <v>0.8718865664512094</v>
       </c>
       <c r="O25">
-        <v>1.563448659940534</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.708617196868715</v>
+        <v>1.822732333489625</v>
       </c>
       <c r="C2">
-        <v>0.4097246079364822</v>
+        <v>0.1438761311182475</v>
       </c>
       <c r="D2">
-        <v>0.02705487504147008</v>
+        <v>0.08669589847261072</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.346647795024182</v>
+        <v>2.318823329023772</v>
       </c>
       <c r="G2">
-        <v>1.158365879648599</v>
+        <v>1.667700327157945</v>
       </c>
       <c r="H2">
-        <v>0.7438624779309464</v>
+        <v>1.467641665125001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07483151358894569</v>
+        <v>0.1843079618869989</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1844163917277157</v>
+        <v>0.328637806213365</v>
       </c>
       <c r="M2">
-        <v>0.4637590287030235</v>
+        <v>0.4129372486134599</v>
       </c>
       <c r="N2">
-        <v>0.9498723031869201</v>
+        <v>1.986704101451016</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.364760692484424</v>
+        <v>1.736387436105417</v>
       </c>
       <c r="C3">
-        <v>0.3613279568006362</v>
+        <v>0.1288516908818167</v>
       </c>
       <c r="D3">
-        <v>0.02629112866202199</v>
+        <v>0.08662404270775426</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.277850054972873</v>
+        <v>2.317698775571486</v>
       </c>
       <c r="G3">
-        <v>1.082994026645778</v>
+        <v>1.661306650256165</v>
       </c>
       <c r="H3">
-        <v>0.717255465087888</v>
+        <v>1.470778917695824</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07652614812804037</v>
+        <v>0.1851841030991634</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1700986134881575</v>
+        <v>0.3265150969484978</v>
       </c>
       <c r="M3">
-        <v>0.4085815486258184</v>
+        <v>0.4000130479750155</v>
       </c>
       <c r="N3">
-        <v>1.005737930936606</v>
+        <v>2.009185763621311</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.155691546804348</v>
+        <v>1.684193627239608</v>
       </c>
       <c r="C4">
-        <v>0.3317030284659666</v>
+        <v>0.119570083756912</v>
       </c>
       <c r="D4">
-        <v>0.02583370457713663</v>
+        <v>0.08658673871838651</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.238189715374517</v>
+        <v>2.318227547712297</v>
       </c>
       <c r="G4">
-        <v>1.039183258721977</v>
+        <v>1.658403170196124</v>
       </c>
       <c r="H4">
-        <v>0.7023069365957895</v>
+        <v>1.47340525311057</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07760563472323057</v>
+        <v>0.1857503598464727</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1614900832940194</v>
+        <v>0.3253312888878668</v>
       </c>
       <c r="M4">
-        <v>0.3750931850347428</v>
+        <v>0.3922635746945886</v>
       </c>
       <c r="N4">
-        <v>1.041457282056323</v>
+        <v>2.023672147662906</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.070950069611911</v>
+        <v>1.66313167803213</v>
       </c>
       <c r="C5">
-        <v>0.3196454892965335</v>
+        <v>0.1157735360718277</v>
       </c>
       <c r="D5">
-        <v>0.02564992062259641</v>
+        <v>0.08657325684536943</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.222636705253208</v>
+        <v>2.318749428164338</v>
       </c>
       <c r="G5">
-        <v>1.021907485473122</v>
+        <v>1.657476619145214</v>
       </c>
       <c r="H5">
-        <v>0.6965445494770819</v>
+        <v>1.474651489308741</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07805533054826608</v>
+        <v>0.1859882451909645</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1580250094757005</v>
+        <v>0.3248790192520303</v>
       </c>
       <c r="M5">
-        <v>0.3615345053557988</v>
+        <v>0.3891525246048602</v>
       </c>
       <c r="N5">
-        <v>1.056359927800734</v>
+        <v>2.029747028582432</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.056904606861622</v>
+        <v>1.659646907138494</v>
       </c>
       <c r="C6">
-        <v>0.3176440188395588</v>
+        <v>0.1151422635634844</v>
       </c>
       <c r="D6">
-        <v>0.02561955409451322</v>
+        <v>0.08657112224196339</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.220089784828502</v>
+        <v>2.318854586480711</v>
       </c>
       <c r="G6">
-        <v>1.019072525335261</v>
+        <v>1.657338254435899</v>
       </c>
       <c r="H6">
-        <v>0.6956070396028906</v>
+        <v>1.474869053432428</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07813059375197318</v>
+        <v>0.1860281769923047</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1574521491850618</v>
+        <v>0.3248057431209901</v>
       </c>
       <c r="M6">
-        <v>0.3592881329023854</v>
+        <v>0.3886387753862195</v>
       </c>
       <c r="N6">
-        <v>1.058855168358139</v>
+        <v>2.030766117819385</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.154546926902242</v>
+        <v>1.683908737565162</v>
       </c>
       <c r="C7">
-        <v>0.3315403662545009</v>
+        <v>0.1195189397509466</v>
       </c>
       <c r="D7">
-        <v>0.02583121574028624</v>
+        <v>0.08658654992464854</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.23797754806985</v>
+        <v>2.318233345623753</v>
       </c>
       <c r="G7">
-        <v>1.038947988438608</v>
+        <v>1.658389635831085</v>
       </c>
       <c r="H7">
-        <v>0.702227915174106</v>
+        <v>1.473421347810358</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07761165981853857</v>
+        <v>0.1857535391588963</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1614431818732527</v>
+        <v>0.3253250672695032</v>
       </c>
       <c r="M7">
-        <v>0.37490998419851</v>
+        <v>0.392221427805552</v>
       </c>
       <c r="N7">
-        <v>1.041656872921262</v>
+        <v>2.02375338108489</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.589589115132355</v>
+        <v>1.792790315327522</v>
       </c>
       <c r="C8">
-        <v>0.3930136071327297</v>
+        <v>0.138707434566868</v>
       </c>
       <c r="D8">
-        <v>0.02678896936670583</v>
+        <v>0.08666971144677049</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.32236541987487</v>
+        <v>2.318182405515685</v>
       </c>
       <c r="G8">
-        <v>1.131838648192016</v>
+        <v>1.665283358807201</v>
       </c>
       <c r="H8">
-        <v>0.7343878972647531</v>
+        <v>1.468578061009808</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07540773226393638</v>
+        <v>0.184604189811358</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1794398718297145</v>
+        <v>0.3278811320816999</v>
       </c>
       <c r="M8">
-        <v>0.4446463667827487</v>
+        <v>0.4084424520530305</v>
       </c>
       <c r="N8">
-        <v>0.9688344862328169</v>
+        <v>1.994314073533297</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.462111039150273</v>
+        <v>2.012814785227249</v>
       </c>
       <c r="C9">
-        <v>0.5146777939324636</v>
+        <v>0.1758891737414672</v>
       </c>
       <c r="D9">
-        <v>0.0287725788721449</v>
+        <v>0.08688664311965333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.510296216173757</v>
+        <v>2.327768509018398</v>
       </c>
       <c r="G9">
-        <v>1.335676324395592</v>
+        <v>1.686935070529756</v>
       </c>
       <c r="H9">
-        <v>0.8094348046291771</v>
+        <v>1.464638666930483</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07139516056450645</v>
+        <v>0.1825742230111249</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2163256416066162</v>
+        <v>0.3338390868497214</v>
       </c>
       <c r="M9">
-        <v>0.5850010400774082</v>
+        <v>0.4417238197701252</v>
       </c>
       <c r="N9">
-        <v>0.8377468386162592</v>
+        <v>1.942001743273536</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.119653009596902</v>
+        <v>2.178431262258641</v>
       </c>
       <c r="C10">
-        <v>0.6053509272763336</v>
+        <v>0.2029392216658721</v>
       </c>
       <c r="D10">
-        <v>0.03031648203880444</v>
+        <v>0.08707859536616347</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.665017681158417</v>
+        <v>2.340737237314229</v>
       </c>
       <c r="G10">
-        <v>1.501825452323629</v>
+        <v>1.707835737712884</v>
       </c>
       <c r="H10">
-        <v>0.873336970405461</v>
+        <v>1.465140076587403</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06863566665738885</v>
+        <v>0.1812183541596539</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2446184449509019</v>
+        <v>0.3387896081291473</v>
       </c>
       <c r="M10">
-        <v>0.6910792973255226</v>
+        <v>0.4670705672728701</v>
       </c>
       <c r="N10">
-        <v>0.7492796435122351</v>
+        <v>1.906872760855929</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.423518672434852</v>
+        <v>2.254636069317485</v>
       </c>
       <c r="C11">
-        <v>0.6470304462752665</v>
+        <v>0.2151881729815273</v>
       </c>
       <c r="D11">
-        <v>0.03104342142512451</v>
+        <v>0.08717294379651541</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.739747723024649</v>
+        <v>2.34792868323386</v>
       </c>
       <c r="G11">
-        <v>1.581750081668332</v>
+        <v>1.718436091510767</v>
       </c>
       <c r="H11">
-        <v>0.9046704974252009</v>
+        <v>1.466107266415236</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06742123699607916</v>
+        <v>0.1806307645384995</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2578027745342695</v>
+        <v>0.3411655821145558</v>
       </c>
       <c r="M11">
-        <v>0.7401676379815356</v>
+        <v>0.4787954904327307</v>
       </c>
       <c r="N11">
-        <v>0.7109088006876458</v>
+        <v>1.891609743998353</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.539372208948066</v>
+        <v>2.283616885837887</v>
       </c>
       <c r="C12">
-        <v>0.6628893459878213</v>
+        <v>0.2198184860869503</v>
       </c>
       <c r="D12">
-        <v>0.03132278999176918</v>
+        <v>0.08720967726448237</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.768738096580108</v>
+        <v>2.350837994936967</v>
       </c>
       <c r="G12">
-        <v>1.612711837899042</v>
+        <v>1.722607834254262</v>
       </c>
       <c r="H12">
-        <v>0.9168944407898323</v>
+        <v>1.466579911548109</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06696724741132609</v>
+        <v>0.180412444155762</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2628453919142544</v>
+        <v>0.3420830597704878</v>
       </c>
       <c r="M12">
-        <v>0.7588930131482456</v>
+        <v>0.4832633015027454</v>
       </c>
       <c r="N12">
-        <v>0.6966643016596059</v>
+        <v>1.885933282710448</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.514384352450406</v>
+        <v>2.277369857195083</v>
       </c>
       <c r="C13">
-        <v>0.6594702455073786</v>
+        <v>0.218821625667232</v>
       </c>
       <c r="D13">
-        <v>0.03126243136676621</v>
+        <v>0.08720172140004223</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.762462605581831</v>
+        <v>2.350203142507468</v>
       </c>
       <c r="G13">
-        <v>1.606011499681301</v>
+        <v>1.721702356451914</v>
       </c>
       <c r="H13">
-        <v>0.9142452859366585</v>
+        <v>1.466473385390572</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06706476012253404</v>
+        <v>0.1804592773282012</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2617570678624759</v>
+        <v>0.3418846764185304</v>
       </c>
       <c r="M13">
-        <v>0.7548538024856413</v>
+        <v>0.4822998426041423</v>
       </c>
       <c r="N13">
-        <v>0.6997191260345934</v>
+        <v>1.887151212776812</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.433033626538077</v>
+        <v>2.257017863077749</v>
       </c>
       <c r="C14">
-        <v>0.6483335656377847</v>
+        <v>0.2155692739967776</v>
       </c>
       <c r="D14">
-        <v>0.0310663197979153</v>
+        <v>0.08717594575189835</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.742118510453153</v>
+        <v>2.34816430330261</v>
       </c>
       <c r="G14">
-        <v>1.58428293988041</v>
+        <v>1.718776141425707</v>
       </c>
       <c r="H14">
-        <v>0.9056687807675701</v>
+        <v>1.466144018332812</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06738376892202158</v>
+        <v>0.1806127193435376</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2582166021249606</v>
+        <v>0.3412407082983009</v>
       </c>
       <c r="M14">
-        <v>0.7417053437419412</v>
+        <v>0.4791625028395003</v>
       </c>
       <c r="N14">
-        <v>0.7097310721954972</v>
+        <v>1.891140666650351</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.383309591281488</v>
+        <v>2.244567769628645</v>
       </c>
       <c r="C15">
-        <v>0.6415223247710742</v>
+        <v>0.2135760596851242</v>
       </c>
       <c r="D15">
-        <v>0.03094674641107531</v>
+        <v>0.08716028826070144</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.729749336244424</v>
+        <v>2.3469396956244</v>
       </c>
       <c r="G15">
-        <v>1.571066455215714</v>
+        <v>1.717004292160453</v>
       </c>
       <c r="H15">
-        <v>0.9004631610247884</v>
+        <v>1.465956130112119</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06757993820953345</v>
+        <v>0.1807072519277662</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2560546282430067</v>
+        <v>0.3408485682543017</v>
       </c>
       <c r="M15">
-        <v>0.7336698635785623</v>
+        <v>0.4772444127208288</v>
       </c>
       <c r="N15">
-        <v>0.7159013964612688</v>
+        <v>1.893597781451255</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.099898824578759</v>
+        <v>2.173468447244431</v>
       </c>
       <c r="C16">
-        <v>0.6026368999974068</v>
+        <v>0.2021375910951519</v>
       </c>
       <c r="D16">
-        <v>0.03026951575808745</v>
+        <v>0.08707257047909067</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.660226920261707</v>
+        <v>2.340293280781495</v>
       </c>
       <c r="G16">
-        <v>1.496695538493185</v>
+        <v>1.707165008078903</v>
       </c>
       <c r="H16">
-        <v>0.8713375637356648</v>
+        <v>1.465091750315281</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06871585593083163</v>
+        <v>0.1812573410993368</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2437635388892829</v>
+        <v>0.3386368203753989</v>
       </c>
       <c r="M16">
-        <v>0.6878894281212027</v>
+        <v>0.466308218983869</v>
       </c>
       <c r="N16">
-        <v>0.7518263255099988</v>
+        <v>1.907884683064622</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.927321908835324</v>
+        <v>2.130072385648248</v>
       </c>
       <c r="C17">
-        <v>0.5789018590309354</v>
+        <v>0.1951060464290038</v>
       </c>
       <c r="D17">
-        <v>0.02986073172808545</v>
+        <v>0.08702055504744877</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.618735935165915</v>
+        <v>2.336547015567703</v>
       </c>
       <c r="G17">
-        <v>1.45223245550369</v>
+        <v>1.701409114701562</v>
       </c>
       <c r="H17">
-        <v>0.8540723839017801</v>
+        <v>1.464750859060217</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0694231816396722</v>
+        <v>0.1816022736203351</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2363070532249054</v>
+        <v>0.337311678048053</v>
       </c>
       <c r="M17">
-        <v>0.6600294680901442</v>
+        <v>0.4596489495438405</v>
       </c>
       <c r="N17">
-        <v>0.7743560546529578</v>
+        <v>1.916833073125185</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.828500234154546</v>
+        <v>2.105193580750381</v>
       </c>
       <c r="C18">
-        <v>0.5652898432142592</v>
+        <v>0.1910563938518237</v>
       </c>
       <c r="D18">
-        <v>0.02962788925778348</v>
+        <v>0.08699129897566316</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.595276181343351</v>
+        <v>2.334513845436817</v>
       </c>
       <c r="G18">
-        <v>1.427062540577026</v>
+        <v>1.698201280714159</v>
       </c>
       <c r="H18">
-        <v>0.8443528628638148</v>
+        <v>1.46462434784894</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06983386364598365</v>
+        <v>0.1818034190241136</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2320474981784599</v>
+        <v>0.3365611632115986</v>
       </c>
       <c r="M18">
-        <v>0.6440824401993979</v>
+        <v>0.4558370351490595</v>
       </c>
       <c r="N18">
-        <v>0.7874898222486024</v>
+        <v>1.922047459283976</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.795113483469265</v>
+        <v>2.096784056983324</v>
       </c>
       <c r="C19">
-        <v>0.5606874816496088</v>
+        <v>0.189684342127407</v>
       </c>
       <c r="D19">
-        <v>0.02954942854709408</v>
+        <v>0.08698150719506081</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.587400698121797</v>
+        <v>2.333846322051514</v>
       </c>
       <c r="G19">
-        <v>1.418607767884225</v>
+        <v>1.697132804293858</v>
       </c>
       <c r="H19">
-        <v>0.84109727523321</v>
+        <v>1.46459345709448</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06997357393254511</v>
+        <v>0.1818719959764215</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2306101629498301</v>
+        <v>0.3363090588150328</v>
       </c>
       <c r="M19">
-        <v>0.6386958339883577</v>
+        <v>0.4545495374326265</v>
       </c>
       <c r="N19">
-        <v>0.7919663189400863</v>
+        <v>1.923824550769402</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.945646757769396</v>
+        <v>2.134683544447682</v>
       </c>
       <c r="C20">
-        <v>0.5814242858358796</v>
+        <v>0.1958551143560783</v>
       </c>
       <c r="D20">
-        <v>0.02990400780446834</v>
+        <v>0.08702602371894841</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.623110366470826</v>
+        <v>2.336933226445026</v>
       </c>
       <c r="G20">
-        <v>1.456923309400537</v>
+        <v>1.702011195873013</v>
       </c>
       <c r="H20">
-        <v>0.8558882294661601</v>
+        <v>1.464779947476757</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06934748739142194</v>
+        <v>0.1815652705065007</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2370977509752095</v>
+        <v>0.3374515342649715</v>
       </c>
       <c r="M20">
-        <v>0.6629870921879188</v>
+        <v>0.460355944985082</v>
       </c>
       <c r="N20">
-        <v>0.7719394740081889</v>
+        <v>1.915873513659111</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.456906093566204</v>
+        <v>2.262992385027019</v>
       </c>
       <c r="C21">
-        <v>0.6516025061565358</v>
+        <v>0.2165247883991697</v>
       </c>
       <c r="D21">
-        <v>0.03112380668047088</v>
+        <v>0.08718348942649179</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.748074727762301</v>
+        <v>2.348758107633259</v>
       </c>
       <c r="G21">
-        <v>1.590645649750996</v>
+        <v>1.719631359869283</v>
       </c>
       <c r="H21">
-        <v>0.9081778963071088</v>
+        <v>1.466237873098294</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06728990840426086</v>
+        <v>0.1805675361649111</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.259255124695045</v>
+        <v>0.3414293762833864</v>
       </c>
       <c r="M21">
-        <v>0.7455635122229012</v>
+        <v>0.4800832611980113</v>
       </c>
       <c r="N21">
-        <v>0.7067824291617351</v>
+        <v>1.889966062181385</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.795681732777609</v>
+        <v>2.347570395758112</v>
       </c>
       <c r="C22">
-        <v>0.6979170651465552</v>
+        <v>0.2299864044246931</v>
       </c>
       <c r="D22">
-        <v>0.03194518053299511</v>
+        <v>0.08729226259427847</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.833813759445732</v>
+        <v>2.35757103223726</v>
       </c>
       <c r="G22">
-        <v>1.682136275004382</v>
+        <v>1.732066119896814</v>
       </c>
       <c r="H22">
-        <v>0.9444602084433598</v>
+        <v>1.467810895131436</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06597949005713044</v>
+        <v>0.1799398589020571</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.274030273908636</v>
+        <v>0.3441325389529197</v>
       </c>
       <c r="M22">
-        <v>0.8003377411124717</v>
+        <v>0.493138394843065</v>
       </c>
       <c r="N22">
-        <v>0.6658725675489556</v>
+        <v>1.873636304184729</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.61440949840221</v>
+        <v>2.302363792525455</v>
       </c>
       <c r="C23">
-        <v>0.6731521348556555</v>
+        <v>0.2228060095257263</v>
       </c>
       <c r="D23">
-        <v>0.03150438441216963</v>
+        <v>0.08723367366841295</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.787657301133677</v>
+        <v>2.352768062243129</v>
       </c>
       <c r="G23">
-        <v>1.632905793669096</v>
+        <v>1.725345198446547</v>
       </c>
       <c r="H23">
-        <v>0.9248910063599283</v>
+        <v>1.466914559683687</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06667574030855805</v>
+        <v>0.1802726334681761</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2661158636481105</v>
+        <v>0.3426803731246935</v>
       </c>
       <c r="M23">
-        <v>0.7710239520432367</v>
+        <v>0.4861558297115209</v>
       </c>
       <c r="N23">
-        <v>0.6875479515767022</v>
+        <v>1.882296642285689</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.937360870652867</v>
+        <v>2.132598620929343</v>
       </c>
       <c r="C24">
-        <v>0.5802837931130966</v>
+        <v>0.1955164829403486</v>
       </c>
       <c r="D24">
-        <v>0.02988443596302481</v>
+        <v>0.0870235493135656</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.621131463926773</v>
+        <v>2.336758244830889</v>
       </c>
       <c r="G24">
-        <v>1.454801357119095</v>
+        <v>1.701738679444759</v>
       </c>
       <c r="H24">
-        <v>0.8550666450659037</v>
+        <v>1.464766580199125</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06938169620603318</v>
+        <v>0.1815819907695708</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2367401919207595</v>
+        <v>0.3373882699809627</v>
       </c>
       <c r="M24">
-        <v>0.6616497334521156</v>
+        <v>0.4600362606639976</v>
       </c>
       <c r="N24">
-        <v>0.7730314471659527</v>
+        <v>1.91630711295098</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.223534901232256</v>
+        <v>1.95259594780407</v>
       </c>
       <c r="C25">
-        <v>0.4815856689735369</v>
+        <v>0.1658778482944285</v>
       </c>
       <c r="D25">
-        <v>0.02822253450970891</v>
+        <v>0.08682221938824952</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.456761789332162</v>
+        <v>2.324136110445693</v>
       </c>
       <c r="G25">
-        <v>1.277900455909048</v>
+        <v>1.680203399650054</v>
       </c>
       <c r="H25">
-        <v>0.787706588949419</v>
+        <v>1.46510859146133</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07244755703068329</v>
+        <v>0.1830995110332974</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2061546709707898</v>
+        <v>0.3321264115533467</v>
       </c>
       <c r="M25">
-        <v>0.5465707791276699</v>
+        <v>0.4325629995732214</v>
       </c>
       <c r="N25">
-        <v>0.8718865664512094</v>
+        <v>1.95557339875884</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.822732333489625</v>
+        <v>2.708617196868772</v>
       </c>
       <c r="C2">
-        <v>0.1438761311182475</v>
+        <v>0.4097246079364822</v>
       </c>
       <c r="D2">
-        <v>0.08669589847261072</v>
+        <v>0.02705487504159088</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.318823329023772</v>
+        <v>1.346647795024182</v>
       </c>
       <c r="G2">
-        <v>1.667700327157945</v>
+        <v>1.158365879648571</v>
       </c>
       <c r="H2">
-        <v>1.467641665125001</v>
+        <v>0.7438624779307901</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1843079618869989</v>
+        <v>0.07483151358890616</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.328637806213365</v>
+        <v>0.184416391727801</v>
       </c>
       <c r="M2">
-        <v>0.4129372486134599</v>
+        <v>0.4637590287030164</v>
       </c>
       <c r="N2">
-        <v>1.986704101451016</v>
+        <v>0.9498723031868899</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.736387436105417</v>
+        <v>2.364760692484424</v>
       </c>
       <c r="C3">
-        <v>0.1288516908818167</v>
+        <v>0.3613279568004941</v>
       </c>
       <c r="D3">
-        <v>0.08662404270775426</v>
+        <v>0.02629112866202554</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.317698775571486</v>
+        <v>1.277850054972873</v>
       </c>
       <c r="G3">
-        <v>1.661306650256165</v>
+        <v>1.082994026645835</v>
       </c>
       <c r="H3">
-        <v>1.470778917695824</v>
+        <v>0.7172554650880016</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1851841030991634</v>
+        <v>0.07652614812797776</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3265150969484978</v>
+        <v>0.1700986134880722</v>
       </c>
       <c r="M3">
-        <v>0.4000130479750155</v>
+        <v>0.4085815486258255</v>
       </c>
       <c r="N3">
-        <v>2.009185763621311</v>
+        <v>1.005737930936622</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.684193627239608</v>
+        <v>2.155691546804462</v>
       </c>
       <c r="C4">
-        <v>0.119570083756912</v>
+        <v>0.3317030284660802</v>
       </c>
       <c r="D4">
-        <v>0.08658673871838651</v>
+        <v>0.02583370457718637</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.318227547712297</v>
+        <v>1.238189715374531</v>
       </c>
       <c r="G4">
-        <v>1.658403170196124</v>
+        <v>1.039183258721977</v>
       </c>
       <c r="H4">
-        <v>1.47340525311057</v>
+        <v>0.7023069365957895</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1857503598464727</v>
+        <v>0.07760563472314397</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3253312888878668</v>
+        <v>0.1614900832940904</v>
       </c>
       <c r="M4">
-        <v>0.3922635746945886</v>
+        <v>0.3750931850347499</v>
       </c>
       <c r="N4">
-        <v>2.023672147662906</v>
+        <v>1.041457282056338</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.66313167803213</v>
+        <v>2.070950069611968</v>
       </c>
       <c r="C5">
-        <v>0.1157735360718277</v>
+        <v>0.3196454892965335</v>
       </c>
       <c r="D5">
-        <v>0.08657325684536943</v>
+        <v>0.02564992062236371</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.318749428164338</v>
+        <v>1.222636705253237</v>
       </c>
       <c r="G5">
-        <v>1.657476619145214</v>
+        <v>1.021907485473207</v>
       </c>
       <c r="H5">
-        <v>1.474651489308741</v>
+        <v>0.6965445494770819</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1859882451909645</v>
+        <v>0.07805533054834735</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3248790192520303</v>
+        <v>0.1580250094756224</v>
       </c>
       <c r="M5">
-        <v>0.3891525246048602</v>
+        <v>0.3615345053557988</v>
       </c>
       <c r="N5">
-        <v>2.029747028582432</v>
+        <v>1.056359927800765</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.659646907138494</v>
+        <v>2.056904606861508</v>
       </c>
       <c r="C6">
-        <v>0.1151422635634844</v>
+        <v>0.3176440188393315</v>
       </c>
       <c r="D6">
-        <v>0.08657112224196339</v>
+        <v>0.02561955409426453</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.318854586480711</v>
+        <v>1.220089784828502</v>
       </c>
       <c r="G6">
-        <v>1.657338254435899</v>
+        <v>1.019072525335204</v>
       </c>
       <c r="H6">
-        <v>1.474869053432428</v>
+        <v>0.6956070396028622</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1860281769923047</v>
+        <v>0.07813059375188747</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3248057431209901</v>
+        <v>0.1574521491851044</v>
       </c>
       <c r="M6">
-        <v>0.3886387753862195</v>
+        <v>0.3592881329023925</v>
       </c>
       <c r="N6">
-        <v>2.030766117819385</v>
+        <v>1.058855168358066</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.683908737565162</v>
+        <v>2.154546926902469</v>
       </c>
       <c r="C7">
-        <v>0.1195189397509466</v>
+        <v>0.3315403662550693</v>
       </c>
       <c r="D7">
-        <v>0.08658654992464854</v>
+        <v>0.02583121574032887</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.318233345623753</v>
+        <v>1.23797754806985</v>
       </c>
       <c r="G7">
-        <v>1.658389635831085</v>
+        <v>1.038947988438693</v>
       </c>
       <c r="H7">
-        <v>1.473421347810358</v>
+        <v>0.7022279151741202</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1857535391588963</v>
+        <v>0.07761165981845108</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3253250672695032</v>
+        <v>0.1614431818732527</v>
       </c>
       <c r="M7">
-        <v>0.392221427805552</v>
+        <v>0.3749099841985242</v>
       </c>
       <c r="N7">
-        <v>2.02375338108489</v>
+        <v>1.041656872921251</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.792790315327522</v>
+        <v>2.589589115132412</v>
       </c>
       <c r="C8">
-        <v>0.138707434566868</v>
+        <v>0.3930136071327297</v>
       </c>
       <c r="D8">
-        <v>0.08666971144677049</v>
+        <v>0.02678896936688524</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.318182405515685</v>
+        <v>1.322365419874885</v>
       </c>
       <c r="G8">
-        <v>1.665283358807201</v>
+        <v>1.131838648192044</v>
       </c>
       <c r="H8">
-        <v>1.468578061009808</v>
+        <v>0.7343878972647673</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.184604189811358</v>
+        <v>0.07540773226392661</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3278811320816999</v>
+        <v>0.1794398718297998</v>
       </c>
       <c r="M8">
-        <v>0.4084424520530305</v>
+        <v>0.4446463667827274</v>
       </c>
       <c r="N8">
-        <v>1.994314073533297</v>
+        <v>0.9688344862328275</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.012814785227249</v>
+        <v>3.462111039150159</v>
       </c>
       <c r="C9">
-        <v>0.1758891737414672</v>
+        <v>0.5146777939325204</v>
       </c>
       <c r="D9">
-        <v>0.08688664311965333</v>
+        <v>0.02877257887211826</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.327768509018398</v>
+        <v>1.510296216173728</v>
       </c>
       <c r="G9">
-        <v>1.686935070529756</v>
+        <v>1.335676324395621</v>
       </c>
       <c r="H9">
-        <v>1.464638666930483</v>
+        <v>0.8094348046291771</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1825742230111249</v>
+        <v>0.07139516056457484</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3338390868497214</v>
+        <v>0.2163256416067156</v>
       </c>
       <c r="M9">
-        <v>0.4417238197701252</v>
+        <v>0.5850010400774153</v>
       </c>
       <c r="N9">
-        <v>1.942001743273536</v>
+        <v>0.8377468386162601</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.178431262258641</v>
+        <v>4.119653009596902</v>
       </c>
       <c r="C10">
-        <v>0.2029392216658721</v>
+        <v>0.6053509272765325</v>
       </c>
       <c r="D10">
-        <v>0.08707859536616347</v>
+        <v>0.03031648203880444</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.340737237314229</v>
+        <v>1.665017681158417</v>
       </c>
       <c r="G10">
-        <v>1.707835737712884</v>
+        <v>1.501825452323658</v>
       </c>
       <c r="H10">
-        <v>1.465140076587403</v>
+        <v>0.8733369704055747</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1812183541596539</v>
+        <v>0.06863566665733334</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3387896081291473</v>
+        <v>0.2446184449508877</v>
       </c>
       <c r="M10">
-        <v>0.4670705672728701</v>
+        <v>0.6910792973255298</v>
       </c>
       <c r="N10">
-        <v>1.906872760855929</v>
+        <v>0.7492796435122964</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.254636069317485</v>
+        <v>4.423518672434795</v>
       </c>
       <c r="C11">
-        <v>0.2151881729815273</v>
+        <v>0.6470304462751244</v>
       </c>
       <c r="D11">
-        <v>0.08717294379651541</v>
+        <v>0.03104342142490779</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.34792868323386</v>
+        <v>1.739747723024635</v>
       </c>
       <c r="G11">
-        <v>1.718436091510767</v>
+        <v>1.581750081668275</v>
       </c>
       <c r="H11">
-        <v>1.466107266415236</v>
+        <v>0.9046704974252009</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1806307645384995</v>
+        <v>0.06742123699617153</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3411655821145558</v>
+        <v>0.2578027745342411</v>
       </c>
       <c r="M11">
-        <v>0.4787954904327307</v>
+        <v>0.7401676379815427</v>
       </c>
       <c r="N11">
-        <v>1.891609743998353</v>
+        <v>0.7109088006875695</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.283616885837887</v>
+        <v>4.539372208948123</v>
       </c>
       <c r="C12">
-        <v>0.2198184860869503</v>
+        <v>0.6628893459877361</v>
       </c>
       <c r="D12">
-        <v>0.08720967726448237</v>
+        <v>0.0313227899916857</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.350837994936967</v>
+        <v>1.76873809658008</v>
       </c>
       <c r="G12">
-        <v>1.722607834254262</v>
+        <v>1.612711837899127</v>
       </c>
       <c r="H12">
-        <v>1.466579911548109</v>
+        <v>0.9168944407899176</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.180412444155762</v>
+        <v>0.06696724741139315</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3420830597704878</v>
+        <v>0.2628453919142544</v>
       </c>
       <c r="M12">
-        <v>0.4832633015027454</v>
+        <v>0.7588930131482314</v>
       </c>
       <c r="N12">
-        <v>1.885933282710448</v>
+        <v>0.6966643016596503</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.277369857195083</v>
+        <v>4.514384352450406</v>
       </c>
       <c r="C13">
-        <v>0.218821625667232</v>
+        <v>0.6594702455071513</v>
       </c>
       <c r="D13">
-        <v>0.08720172140004223</v>
+        <v>0.03126243136685858</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.350203142507468</v>
+        <v>1.762462605581831</v>
       </c>
       <c r="G13">
-        <v>1.721702356451914</v>
+        <v>1.606011499681273</v>
       </c>
       <c r="H13">
-        <v>1.466473385390572</v>
+        <v>0.9142452859366585</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1804592773282012</v>
+        <v>0.06706476012258911</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3418846764185304</v>
+        <v>0.2617570678625754</v>
       </c>
       <c r="M13">
-        <v>0.4822998426041423</v>
+        <v>0.7548538024856413</v>
       </c>
       <c r="N13">
-        <v>1.887151212776812</v>
+        <v>0.6997191260345987</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.257017863077749</v>
+        <v>4.433033626537906</v>
       </c>
       <c r="C14">
-        <v>0.2155692739967776</v>
+        <v>0.6483335656377847</v>
       </c>
       <c r="D14">
-        <v>0.08717594575189835</v>
+        <v>0.03106631979784424</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.34816430330261</v>
+        <v>1.742118510453153</v>
       </c>
       <c r="G14">
-        <v>1.718776141425707</v>
+        <v>1.584282939880467</v>
       </c>
       <c r="H14">
-        <v>1.466144018332812</v>
+        <v>0.9056687807675701</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1806127193435376</v>
+        <v>0.06738376892197806</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3412407082983009</v>
+        <v>0.2582166021250032</v>
       </c>
       <c r="M14">
-        <v>0.4791625028395003</v>
+        <v>0.7417053437419341</v>
       </c>
       <c r="N14">
-        <v>1.891140666650351</v>
+        <v>0.7097310721954369</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.244567769628645</v>
+        <v>4.383309591281261</v>
       </c>
       <c r="C15">
-        <v>0.2135760596851242</v>
+        <v>0.6415223247713868</v>
       </c>
       <c r="D15">
-        <v>0.08716028826070144</v>
+        <v>0.03094674641084083</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.3469396956244</v>
+        <v>1.72974933624441</v>
       </c>
       <c r="G15">
-        <v>1.717004292160453</v>
+        <v>1.571066455215686</v>
       </c>
       <c r="H15">
-        <v>1.465956130112119</v>
+        <v>0.9004631610246747</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1807072519277662</v>
+        <v>0.06757993820941488</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3408485682543017</v>
+        <v>0.2560546282428362</v>
       </c>
       <c r="M15">
-        <v>0.4772444127208288</v>
+        <v>0.7336698635785623</v>
       </c>
       <c r="N15">
-        <v>1.893597781451255</v>
+        <v>0.7159013964612546</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.173468447244431</v>
+        <v>4.099898824578588</v>
       </c>
       <c r="C16">
-        <v>0.2021375910951519</v>
+        <v>0.6026368999972078</v>
       </c>
       <c r="D16">
-        <v>0.08707257047909067</v>
+        <v>0.03026951575808745</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.340293280781495</v>
+        <v>1.660226920261707</v>
       </c>
       <c r="G16">
-        <v>1.707165008078903</v>
+        <v>1.496695538493185</v>
       </c>
       <c r="H16">
-        <v>1.465091750315281</v>
+        <v>0.8713375637355512</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1812573410993368</v>
+        <v>0.06871585593090979</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3386368203753989</v>
+        <v>0.2437635388893682</v>
       </c>
       <c r="M16">
-        <v>0.466308218983869</v>
+        <v>0.6878894281211956</v>
       </c>
       <c r="N16">
-        <v>1.907884683064622</v>
+        <v>0.7518263255099944</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.130072385648248</v>
+        <v>3.927321908835268</v>
       </c>
       <c r="C17">
-        <v>0.1951060464290038</v>
+        <v>0.5789018590305943</v>
       </c>
       <c r="D17">
-        <v>0.08702055504744877</v>
+        <v>0.02986073172820092</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.336547015567703</v>
+        <v>1.618735935165901</v>
       </c>
       <c r="G17">
-        <v>1.701409114701562</v>
+        <v>1.45223245550369</v>
       </c>
       <c r="H17">
-        <v>1.464750859060217</v>
+        <v>0.8540723839018654</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1816022736203351</v>
+        <v>0.0694231816396691</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.337311678048053</v>
+        <v>0.2363070532250049</v>
       </c>
       <c r="M17">
-        <v>0.4596489495438405</v>
+        <v>0.6600294680901513</v>
       </c>
       <c r="N17">
-        <v>1.916833073125185</v>
+        <v>0.7743560546530288</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.105193580750381</v>
+        <v>3.828500234154603</v>
       </c>
       <c r="C18">
-        <v>0.1910563938518237</v>
+        <v>0.5652898432142024</v>
       </c>
       <c r="D18">
-        <v>0.08699129897566316</v>
+        <v>0.02962788925778881</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.334513845436817</v>
+        <v>1.595276181343351</v>
       </c>
       <c r="G18">
-        <v>1.698201280714159</v>
+        <v>1.427062540576998</v>
       </c>
       <c r="H18">
-        <v>1.46462434784894</v>
+        <v>0.8443528628638148</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1818034190241136</v>
+        <v>0.06983386364602318</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3365611632115986</v>
+        <v>0.2320474981784884</v>
       </c>
       <c r="M18">
-        <v>0.4558370351490595</v>
+        <v>0.6440824401994263</v>
       </c>
       <c r="N18">
-        <v>1.922047459283976</v>
+        <v>0.7874898222486149</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.096784056983324</v>
+        <v>3.795113483469152</v>
       </c>
       <c r="C19">
-        <v>0.189684342127407</v>
+        <v>0.5606874816492962</v>
       </c>
       <c r="D19">
-        <v>0.08698150719506081</v>
+        <v>0.02954942854700349</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.333846322051514</v>
+        <v>1.587400698121797</v>
       </c>
       <c r="G19">
-        <v>1.697132804293858</v>
+        <v>1.418607767884225</v>
       </c>
       <c r="H19">
-        <v>1.46459345709448</v>
+        <v>0.8410972752330679</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1818719959764215</v>
+        <v>0.06997357393262993</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3363090588150328</v>
+        <v>0.2306101629498727</v>
       </c>
       <c r="M19">
-        <v>0.4545495374326265</v>
+        <v>0.6386958339883648</v>
       </c>
       <c r="N19">
-        <v>1.923824550769402</v>
+        <v>0.7919663189400739</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.134683544447682</v>
+        <v>3.945646757769453</v>
       </c>
       <c r="C20">
-        <v>0.1958551143560783</v>
+        <v>0.581424285835709</v>
       </c>
       <c r="D20">
-        <v>0.08702602371894841</v>
+        <v>0.02990400780432978</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.336933226445026</v>
+        <v>1.623110366470812</v>
       </c>
       <c r="G20">
-        <v>1.702011195873013</v>
+        <v>1.456923309400537</v>
       </c>
       <c r="H20">
-        <v>1.464779947476757</v>
+        <v>0.8558882294660464</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1815652705065007</v>
+        <v>0.06934748739142993</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3374515342649715</v>
+        <v>0.2370977509752521</v>
       </c>
       <c r="M20">
-        <v>0.460355944985082</v>
+        <v>0.6629870921879046</v>
       </c>
       <c r="N20">
-        <v>1.915873513659111</v>
+        <v>0.7719394740081897</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.262992385027019</v>
+        <v>4.456906093566261</v>
       </c>
       <c r="C21">
-        <v>0.2165247883991697</v>
+        <v>0.6516025061565358</v>
       </c>
       <c r="D21">
-        <v>0.08718348942649179</v>
+        <v>0.03112380668045489</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.348758107633259</v>
+        <v>1.748074727762301</v>
       </c>
       <c r="G21">
-        <v>1.719631359869283</v>
+        <v>1.59064564975094</v>
       </c>
       <c r="H21">
-        <v>1.466237873098294</v>
+        <v>0.9081778963072225</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1805675361649111</v>
+        <v>0.06728990840430349</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3414293762833864</v>
+        <v>0.2592551246950165</v>
       </c>
       <c r="M21">
-        <v>0.4800832611980113</v>
+        <v>0.7455635122229154</v>
       </c>
       <c r="N21">
-        <v>1.889966062181385</v>
+        <v>0.7067824291617164</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.347570395758112</v>
+        <v>4.795681732777552</v>
       </c>
       <c r="C22">
-        <v>0.2299864044246931</v>
+        <v>0.6979170651464415</v>
       </c>
       <c r="D22">
-        <v>0.08729226259427847</v>
+        <v>0.03194518053290807</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.35757103223726</v>
+        <v>1.833813759445704</v>
       </c>
       <c r="G22">
-        <v>1.732066119896814</v>
+        <v>1.682136275004353</v>
       </c>
       <c r="H22">
-        <v>1.467810895131436</v>
+        <v>0.9444602084433029</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1799398589020571</v>
+        <v>0.06597949005719883</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3441325389529197</v>
+        <v>0.2740302739085507</v>
       </c>
       <c r="M22">
-        <v>0.493138394843065</v>
+        <v>0.8003377411124575</v>
       </c>
       <c r="N22">
-        <v>1.873636304184729</v>
+        <v>0.6658725675489734</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.302363792525455</v>
+        <v>4.614409498402097</v>
       </c>
       <c r="C23">
-        <v>0.2228060095257263</v>
+        <v>0.6731521348556555</v>
       </c>
       <c r="D23">
-        <v>0.08723367366841295</v>
+        <v>0.03150438441217318</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.352768062243129</v>
+        <v>1.787657301133663</v>
       </c>
       <c r="G23">
-        <v>1.725345198446547</v>
+        <v>1.632905793669067</v>
       </c>
       <c r="H23">
-        <v>1.466914559683687</v>
+        <v>0.9248910063599283</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1802726334681761</v>
+        <v>0.06667574030852297</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3426803731246935</v>
+        <v>0.2661158636480394</v>
       </c>
       <c r="M23">
-        <v>0.4861558297115209</v>
+        <v>0.7710239520432154</v>
       </c>
       <c r="N23">
-        <v>1.882296642285689</v>
+        <v>0.6875479515767093</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.132598620929343</v>
+        <v>3.937360870652753</v>
       </c>
       <c r="C24">
-        <v>0.1955164829403486</v>
+        <v>0.5802837931132103</v>
       </c>
       <c r="D24">
-        <v>0.0870235493135656</v>
+        <v>0.02988443596310653</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.336758244830889</v>
+        <v>1.621131463926787</v>
       </c>
       <c r="G24">
-        <v>1.701738679444759</v>
+        <v>1.454801357119152</v>
       </c>
       <c r="H24">
-        <v>1.464766580199125</v>
+        <v>0.855066645065989</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1815819907695708</v>
+        <v>0.06938169620612111</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3373882699809627</v>
+        <v>0.2367401919207452</v>
       </c>
       <c r="M24">
-        <v>0.4600362606639976</v>
+        <v>0.6616497334521085</v>
       </c>
       <c r="N24">
-        <v>1.91630711295098</v>
+        <v>0.773031447165895</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.95259594780407</v>
+        <v>3.223534901231972</v>
       </c>
       <c r="C25">
-        <v>0.1658778482944285</v>
+        <v>0.4815856689734233</v>
       </c>
       <c r="D25">
-        <v>0.08682221938824952</v>
+        <v>0.02822253450982082</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.324136110445693</v>
+        <v>1.456761789332134</v>
       </c>
       <c r="G25">
-        <v>1.680203399650054</v>
+        <v>1.277900455909077</v>
       </c>
       <c r="H25">
-        <v>1.46510859146133</v>
+        <v>0.787706588949419</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1830995110332974</v>
+        <v>0.0724475570306149</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3321264115533467</v>
+        <v>0.2061546709707898</v>
       </c>
       <c r="M25">
-        <v>0.4325629995732214</v>
+        <v>0.5465707791276699</v>
       </c>
       <c r="N25">
-        <v>1.95557339875884</v>
+        <v>0.8718865664511801</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.708617196868772</v>
+        <v>1.870707439194604</v>
       </c>
       <c r="C2">
-        <v>0.4097246079364822</v>
+        <v>0.3757431001688474</v>
       </c>
       <c r="D2">
-        <v>0.02705487504159088</v>
+        <v>0.1026688443761401</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.346647795024182</v>
+        <v>0.5962895816581266</v>
       </c>
       <c r="G2">
-        <v>1.158365879648571</v>
+        <v>0.362153777250299</v>
       </c>
       <c r="H2">
-        <v>0.7438624779307901</v>
+        <v>0.00245067135071797</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0009078600816558868</v>
       </c>
       <c r="J2">
-        <v>0.07483151358890616</v>
+        <v>0.3080670932890897</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3142941404998112</v>
       </c>
       <c r="L2">
-        <v>0.184416391727801</v>
+        <v>0.1038795676159134</v>
       </c>
       <c r="M2">
-        <v>0.4637590287030164</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9498723031868899</v>
+        <v>0.2271369509331009</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3641854288709894</v>
+      </c>
+      <c r="P2">
+        <v>0.9389578559137703</v>
+      </c>
+      <c r="Q2">
+        <v>1.361069449146626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.364760692484424</v>
+        <v>1.630765786389503</v>
       </c>
       <c r="C3">
-        <v>0.3613279568004941</v>
+        <v>0.3454642454396719</v>
       </c>
       <c r="D3">
-        <v>0.02629112866202554</v>
+        <v>0.09762374985447764</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.277850054972873</v>
+        <v>0.5738012226037839</v>
       </c>
       <c r="G3">
-        <v>1.082994026645835</v>
+        <v>0.3439171066738922</v>
       </c>
       <c r="H3">
-        <v>0.7172554650880016</v>
+        <v>0.003686278390266973</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001463457953329694</v>
       </c>
       <c r="J3">
-        <v>0.07652614812797776</v>
+        <v>0.303337052131667</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3155122867598834</v>
       </c>
       <c r="L3">
-        <v>0.1700986134880722</v>
+        <v>0.1017795819470226</v>
       </c>
       <c r="M3">
-        <v>0.4085815486258255</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.005737930936622</v>
+        <v>0.206813506405787</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3192848477334422</v>
+      </c>
+      <c r="P3">
+        <v>0.9431101887549289</v>
+      </c>
+      <c r="Q3">
+        <v>1.31223734779465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.155691546804462</v>
+        <v>1.482796068516365</v>
       </c>
       <c r="C4">
-        <v>0.3317030284660802</v>
+        <v>0.3269174133100137</v>
       </c>
       <c r="D4">
-        <v>0.02583370457718637</v>
+        <v>0.09455872445891345</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.238189715374531</v>
+        <v>0.5604350191019165</v>
       </c>
       <c r="G4">
-        <v>1.039183258721977</v>
+        <v>0.3330450250523214</v>
       </c>
       <c r="H4">
-        <v>0.7023069365957895</v>
+        <v>0.00460504605940848</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001965922068401849</v>
       </c>
       <c r="J4">
-        <v>0.07760563472314397</v>
+        <v>0.3006698383601432</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3164962478814211</v>
       </c>
       <c r="L4">
-        <v>0.1614900832940904</v>
+        <v>0.1004450054013648</v>
       </c>
       <c r="M4">
-        <v>0.3750931850347499</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.041457282056338</v>
+        <v>0.1943862129340985</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2916593733125268</v>
+      </c>
+      <c r="P4">
+        <v>0.9463357288848826</v>
+      </c>
+      <c r="Q4">
+        <v>1.283432396596936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.070950069611968</v>
+        <v>1.421515544388086</v>
       </c>
       <c r="C5">
-        <v>0.3196454892965335</v>
+        <v>0.3197438926809042</v>
       </c>
       <c r="D5">
-        <v>0.02564992062236371</v>
+        <v>0.0933239698094539</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.222636705253237</v>
+        <v>0.5547481119234732</v>
       </c>
       <c r="G5">
-        <v>1.021907485473207</v>
+        <v>0.3283895782832786</v>
       </c>
       <c r="H5">
-        <v>0.6965445494770819</v>
+        <v>0.005020562081015145</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002282124053465395</v>
       </c>
       <c r="J5">
-        <v>0.07805533054834735</v>
+        <v>0.2994850062009178</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3167153814458601</v>
       </c>
       <c r="L5">
-        <v>0.1580250094756224</v>
+        <v>0.09987953721420251</v>
       </c>
       <c r="M5">
-        <v>0.3615345053557988</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.056359927800765</v>
+        <v>0.1894519650155644</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.28033806522145</v>
+      </c>
+      <c r="P5">
+        <v>0.9480998351886782</v>
+      </c>
+      <c r="Q5">
+        <v>1.271009974305187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.056904606861508</v>
+        <v>1.410327812905308</v>
       </c>
       <c r="C6">
-        <v>0.3176440188393315</v>
+        <v>0.3190144488092841</v>
       </c>
       <c r="D6">
-        <v>0.02561955409426453</v>
+        <v>0.0931272135426866</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.220089784828502</v>
+        <v>0.5533857512770481</v>
       </c>
       <c r="G6">
-        <v>1.019072525335204</v>
+        <v>0.3272508686477735</v>
       </c>
       <c r="H6">
-        <v>0.6956070396028622</v>
+        <v>0.005094788934808248</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00243290420142106</v>
       </c>
       <c r="J6">
-        <v>0.07813059375188747</v>
+        <v>0.2991011532696177</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3164625731840154</v>
       </c>
       <c r="L6">
-        <v>0.1574521491851044</v>
+        <v>0.09977289333036055</v>
       </c>
       <c r="M6">
-        <v>0.3592881329023925</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.058855168358066</v>
+        <v>0.1887782508139608</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2783975179552911</v>
+      </c>
+      <c r="P6">
+        <v>0.9487518224612046</v>
+      </c>
+      <c r="Q6">
+        <v>1.267779874919029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.154546926902469</v>
+        <v>1.479223742868129</v>
       </c>
       <c r="C7">
-        <v>0.3315403662550693</v>
+        <v>0.3280849481775618</v>
       </c>
       <c r="D7">
-        <v>0.02583121574032887</v>
+        <v>0.09456350685351111</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.23797754806985</v>
+        <v>0.5591990978130568</v>
       </c>
       <c r="G7">
-        <v>1.038947988438693</v>
+        <v>0.3319702601931809</v>
       </c>
       <c r="H7">
-        <v>0.7022279151741202</v>
+        <v>0.004617927920240128</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002216669528707804</v>
       </c>
       <c r="J7">
-        <v>0.07761165981845108</v>
+        <v>0.3001336361173443</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3157007733339015</v>
       </c>
       <c r="L7">
-        <v>0.1614431818732527</v>
+        <v>0.1004053800220062</v>
       </c>
       <c r="M7">
-        <v>0.3749099841985242</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.041656872921251</v>
+        <v>0.1947161811724811</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2913430065027711</v>
+      </c>
+      <c r="P7">
+        <v>0.9473257321658508</v>
+      </c>
+      <c r="Q7">
+        <v>1.280029632993475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.589589115132412</v>
+        <v>1.784437617579869</v>
       </c>
       <c r="C8">
-        <v>0.3930136071327297</v>
+        <v>0.3669875073809976</v>
       </c>
       <c r="D8">
-        <v>0.02678896936688524</v>
+        <v>0.1009513788809215</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.322365419874885</v>
+        <v>0.586910014494201</v>
       </c>
       <c r="G8">
-        <v>1.131838648192044</v>
+        <v>0.35445645817898</v>
       </c>
       <c r="H8">
-        <v>0.7343878972647673</v>
+        <v>0.002849792108775895</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001361332417729066</v>
       </c>
       <c r="J8">
-        <v>0.07540773226392661</v>
+        <v>0.3057002085109772</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3136142515643527</v>
       </c>
       <c r="L8">
-        <v>0.1794398718297998</v>
+        <v>0.1031259075910187</v>
       </c>
       <c r="M8">
-        <v>0.4446463667827274</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9688344862328275</v>
+        <v>0.2206463483685255</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3484955992791043</v>
+      </c>
+      <c r="P8">
+        <v>0.941584234469083</v>
+      </c>
+      <c r="Q8">
+        <v>1.339704448332242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.462111039150159</v>
+        <v>2.382902802060642</v>
       </c>
       <c r="C9">
-        <v>0.5146777939325204</v>
+        <v>0.4414572373878229</v>
       </c>
       <c r="D9">
-        <v>0.02877257887211826</v>
+        <v>0.1137131471832902</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.510296216173728</v>
+        <v>0.6470261758072411</v>
       </c>
       <c r="G9">
-        <v>1.335676324395621</v>
+        <v>0.4031368313645771</v>
       </c>
       <c r="H9">
-        <v>0.8094348046291771</v>
+        <v>0.0007164812057113279</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006665285318083747</v>
       </c>
       <c r="J9">
-        <v>0.07139516056457484</v>
+        <v>0.3195052613416465</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3128904482314105</v>
       </c>
       <c r="L9">
-        <v>0.2163256416067156</v>
+        <v>0.1081689473774214</v>
       </c>
       <c r="M9">
-        <v>0.5850010400774153</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8377468386162601</v>
+        <v>0.2712468318798074</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.460464969363656</v>
+      </c>
+      <c r="P9">
+        <v>0.9340662496676728</v>
+      </c>
+      <c r="Q9">
+        <v>1.472434914841557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.119653009596902</v>
+        <v>2.809979574713566</v>
       </c>
       <c r="C10">
-        <v>0.6053509272765325</v>
+        <v>0.5002235403061945</v>
       </c>
       <c r="D10">
-        <v>0.03031648203880444</v>
+        <v>0.1212968903084928</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.665017681158417</v>
+        <v>0.6856009691718938</v>
       </c>
       <c r="G10">
-        <v>1.501825452323658</v>
+        <v>0.4355312036926478</v>
       </c>
       <c r="H10">
-        <v>0.8733369704055747</v>
+        <v>0.0002777564042597547</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00120429339168826</v>
       </c>
       <c r="J10">
-        <v>0.06863566665733334</v>
+        <v>0.3282805375270925</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3102379906484956</v>
       </c>
       <c r="L10">
-        <v>0.2446184449508877</v>
+        <v>0.1117757576411957</v>
       </c>
       <c r="M10">
-        <v>0.6910792973255298</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7492796435122964</v>
+        <v>0.2993401606459827</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5359121736291357</v>
+      </c>
+      <c r="P10">
+        <v>0.9379618271325683</v>
+      </c>
+      <c r="Q10">
+        <v>1.55990334419252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.423518672434795</v>
+        <v>2.925849480680085</v>
       </c>
       <c r="C11">
-        <v>0.6470304462751244</v>
+        <v>0.5560097926733079</v>
       </c>
       <c r="D11">
-        <v>0.03104342142490779</v>
+        <v>0.1082156316051552</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.739747723024635</v>
+        <v>0.6371193710912735</v>
       </c>
       <c r="G11">
-        <v>1.581750081668275</v>
+        <v>0.4075796499619315</v>
       </c>
       <c r="H11">
-        <v>0.9046704974252009</v>
+        <v>0.01884308340142837</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001922856176496346</v>
       </c>
       <c r="J11">
-        <v>0.06742123699617153</v>
+        <v>0.3108453982519848</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2826830502516273</v>
       </c>
       <c r="L11">
-        <v>0.2578027745342411</v>
+        <v>0.1204325437860341</v>
       </c>
       <c r="M11">
-        <v>0.7401676379815427</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7109088006875695</v>
+        <v>0.2348716557904993</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5134027924647171</v>
+      </c>
+      <c r="P11">
+        <v>0.9916636915178856</v>
+      </c>
+      <c r="Q11">
+        <v>1.464307942036726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.539372208948123</v>
+        <v>2.936519088764612</v>
       </c>
       <c r="C12">
-        <v>0.6628893459877361</v>
+        <v>0.5902343001024235</v>
       </c>
       <c r="D12">
-        <v>0.0313227899916857</v>
+        <v>0.09643926848623607</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.76873809658008</v>
+        <v>0.5906120393995877</v>
       </c>
       <c r="G12">
-        <v>1.612711837899127</v>
+        <v>0.3790038400509417</v>
       </c>
       <c r="H12">
-        <v>0.9168944407899176</v>
+        <v>0.05754327682473814</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001960676836043618</v>
       </c>
       <c r="J12">
-        <v>0.06696724741139315</v>
+        <v>0.2950840225359315</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2620833800147864</v>
       </c>
       <c r="L12">
-        <v>0.2628453919142544</v>
+        <v>0.1352454774764738</v>
       </c>
       <c r="M12">
-        <v>0.7588930131482314</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6966643016596503</v>
+        <v>0.1818714026003008</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4791777173373077</v>
+      </c>
+      <c r="P12">
+        <v>1.03928981162322</v>
+      </c>
+      <c r="Q12">
+        <v>1.370785415884285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.514384352450406</v>
+        <v>2.862389482685671</v>
       </c>
       <c r="C13">
-        <v>0.6594702455071513</v>
+        <v>0.6115120829368834</v>
       </c>
       <c r="D13">
-        <v>0.03126243136685858</v>
+        <v>0.08505255718692695</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.762462605581831</v>
+        <v>0.5410995844966777</v>
       </c>
       <c r="G13">
-        <v>1.606011499681273</v>
+        <v>0.3466501860484499</v>
       </c>
       <c r="H13">
-        <v>0.9142452859366585</v>
+        <v>0.1133503237717264</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001813033179481671</v>
       </c>
       <c r="J13">
-        <v>0.06706476012258911</v>
+        <v>0.2788318672589298</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2443249476838609</v>
       </c>
       <c r="L13">
-        <v>0.2617570678625754</v>
+        <v>0.1552565749750769</v>
       </c>
       <c r="M13">
-        <v>0.7548538024856413</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6997191260345987</v>
+        <v>0.1354374945076131</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4339411332961944</v>
+      </c>
+      <c r="P13">
+        <v>1.085541217892754</v>
+      </c>
+      <c r="Q13">
+        <v>1.268145662038194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.433033626537906</v>
+        <v>2.771478044330877</v>
       </c>
       <c r="C14">
-        <v>0.6483335656377847</v>
+        <v>0.6210159053902089</v>
       </c>
       <c r="D14">
-        <v>0.03106631979784424</v>
+        <v>0.07744929653404142</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.742118510453153</v>
+        <v>0.5052070720810349</v>
       </c>
       <c r="G14">
-        <v>1.584282939880467</v>
+        <v>0.3222804902481613</v>
       </c>
       <c r="H14">
-        <v>0.9056687807675701</v>
+        <v>0.1627551098597735</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001718981782319773</v>
       </c>
       <c r="J14">
-        <v>0.06738376892197806</v>
+        <v>0.2672009859169648</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2332090490301297</v>
       </c>
       <c r="L14">
-        <v>0.2582166021250032</v>
+        <v>0.1725110813029147</v>
       </c>
       <c r="M14">
-        <v>0.7417053437419341</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7097310721954369</v>
+        <v>0.1072985836324065</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3976208227800555</v>
+      </c>
+      <c r="P14">
+        <v>1.117844438827646</v>
+      </c>
+      <c r="Q14">
+        <v>1.192077115025057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.383309591281261</v>
+        <v>2.730444412457189</v>
       </c>
       <c r="C15">
-        <v>0.6415223247713868</v>
+        <v>0.6209287466674027</v>
       </c>
       <c r="D15">
-        <v>0.03094674641084083</v>
+        <v>0.075583571161701</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.72974933624441</v>
+        <v>0.4954202900698164</v>
       </c>
       <c r="G15">
-        <v>1.571066455215686</v>
+        <v>0.3152102712441334</v>
       </c>
       <c r="H15">
-        <v>0.9004631610246747</v>
+        <v>0.1752947262345117</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001775247906482313</v>
       </c>
       <c r="J15">
-        <v>0.06757993820941488</v>
+        <v>0.2641080253727495</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2307899743379203</v>
       </c>
       <c r="L15">
-        <v>0.2560546282428362</v>
+        <v>0.1767473578757617</v>
       </c>
       <c r="M15">
-        <v>0.7336698635785623</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7159013964612546</v>
+        <v>0.1009368825445733</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.386398164588023</v>
+      </c>
+      <c r="P15">
+        <v>1.125232923178785</v>
+      </c>
+      <c r="Q15">
+        <v>1.170581275321268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.099898824578588</v>
+        <v>2.561609321961612</v>
       </c>
       <c r="C16">
-        <v>0.6026368999972078</v>
+        <v>0.5911860030007574</v>
       </c>
       <c r="D16">
-        <v>0.03026951575808745</v>
+        <v>0.0748647974197354</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.660226920261707</v>
+        <v>0.4886025967708321</v>
       </c>
       <c r="G16">
-        <v>1.496695538493185</v>
+        <v>0.3074109673100835</v>
       </c>
       <c r="H16">
-        <v>0.8713375637355512</v>
+        <v>0.1627415773940015</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001658917916853575</v>
       </c>
       <c r="J16">
-        <v>0.06871585593090979</v>
+        <v>0.2632920947684809</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2349908421492994</v>
       </c>
       <c r="L16">
-        <v>0.2437635388893682</v>
+        <v>0.1703514236589427</v>
       </c>
       <c r="M16">
-        <v>0.6878894281211956</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7518263255099944</v>
+        <v>0.09961689219900904</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3642714502579665</v>
+      </c>
+      <c r="P16">
+        <v>1.111528473618932</v>
+      </c>
+      <c r="Q16">
+        <v>1.152162935029011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.927321908835268</v>
+        <v>2.480329488932227</v>
       </c>
       <c r="C17">
-        <v>0.5789018590305943</v>
+        <v>0.5634465198774876</v>
       </c>
       <c r="D17">
-        <v>0.02986073172820092</v>
+        <v>0.07823805848882159</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.618735935165901</v>
+        <v>0.5022900501821113</v>
       </c>
       <c r="G17">
-        <v>1.45223245550369</v>
+        <v>0.3143079160756841</v>
       </c>
       <c r="H17">
-        <v>0.8540723839018654</v>
+        <v>0.1250865103464065</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001656274205454444</v>
       </c>
       <c r="J17">
-        <v>0.0694231816396691</v>
+        <v>0.2688455767910085</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2440404701130809</v>
       </c>
       <c r="L17">
-        <v>0.2363070532250049</v>
+        <v>0.1557126190513216</v>
       </c>
       <c r="M17">
-        <v>0.6600294680901513</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7743560546530288</v>
+        <v>0.1126740023493866</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3663367431834104</v>
+      </c>
+      <c r="P17">
+        <v>1.084180301042394</v>
+      </c>
+      <c r="Q17">
+        <v>1.178305336049036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.828500234154603</v>
+        <v>2.466898817730907</v>
       </c>
       <c r="C18">
-        <v>0.5652898432142024</v>
+        <v>0.5336068292623963</v>
       </c>
       <c r="D18">
-        <v>0.02962788925778881</v>
+        <v>0.08600013405006024</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.595276181343351</v>
+        <v>0.5365490189182012</v>
       </c>
       <c r="G18">
-        <v>1.427062540576998</v>
+        <v>0.3356003188372298</v>
       </c>
       <c r="H18">
-        <v>0.8443528628638148</v>
+        <v>0.07229031055041446</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001426344161521875</v>
       </c>
       <c r="J18">
-        <v>0.06983386364602318</v>
+        <v>0.2809386250150681</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2592835664402351</v>
       </c>
       <c r="L18">
-        <v>0.2320474981784884</v>
+        <v>0.1360675316896831</v>
       </c>
       <c r="M18">
-        <v>0.6440824401994263</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7874898222486149</v>
+        <v>0.1435154275638197</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3900132947887727</v>
+      </c>
+      <c r="P18">
+        <v>1.042721679626425</v>
+      </c>
+      <c r="Q18">
+        <v>1.248709156821477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.795113483469152</v>
+        <v>2.50336695215799</v>
       </c>
       <c r="C19">
-        <v>0.5606874816492962</v>
+        <v>0.5079443861326638</v>
       </c>
       <c r="D19">
-        <v>0.02954942854700349</v>
+        <v>0.09756016980159643</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.587400698121797</v>
+        <v>0.584232358924929</v>
       </c>
       <c r="G19">
-        <v>1.418607767884225</v>
+        <v>0.3659022598094168</v>
       </c>
       <c r="H19">
-        <v>0.8410972752330679</v>
+        <v>0.02692919777089742</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001554653612671153</v>
       </c>
       <c r="J19">
-        <v>0.06997357393262993</v>
+        <v>0.2967875233562012</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2781259264050284</v>
       </c>
       <c r="L19">
-        <v>0.2306101629498727</v>
+        <v>0.1196295879822173</v>
       </c>
       <c r="M19">
-        <v>0.6386958339883648</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7919663189400739</v>
+        <v>0.1932513630851176</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4299999300182265</v>
+      </c>
+      <c r="P19">
+        <v>0.9983910556386348</v>
+      </c>
+      <c r="Q19">
+        <v>1.346123736762763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.945646757769453</v>
+        <v>2.688886160491336</v>
       </c>
       <c r="C20">
-        <v>0.581424285835709</v>
+        <v>0.4890090861385374</v>
       </c>
       <c r="D20">
-        <v>0.02990400780432978</v>
+        <v>0.1192803764767092</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.623110366470812</v>
+        <v>0.6713949200343308</v>
       </c>
       <c r="G20">
-        <v>1.456923309400537</v>
+        <v>0.4235381291936591</v>
       </c>
       <c r="H20">
-        <v>0.8558882294660464</v>
+        <v>0.0003185059691119818</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001759502371000643</v>
       </c>
       <c r="J20">
-        <v>0.06934748739142993</v>
+        <v>0.3241836112420202</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3082951743263322</v>
       </c>
       <c r="L20">
-        <v>0.2370977509752521</v>
+        <v>0.1107718888924927</v>
       </c>
       <c r="M20">
-        <v>0.6629870921879046</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7719394740081897</v>
+        <v>0.2927848280637022</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5153201968633283</v>
+      </c>
+      <c r="P20">
+        <v>0.9403402168318138</v>
+      </c>
+      <c r="Q20">
+        <v>1.525791693700313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.456906093566261</v>
+        <v>3.030374506145392</v>
       </c>
       <c r="C21">
-        <v>0.6516025061565358</v>
+        <v>0.5289395786349189</v>
       </c>
       <c r="D21">
-        <v>0.03112380668045489</v>
+        <v>0.1282358064616744</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.748074727762301</v>
+        <v>0.714366564068925</v>
       </c>
       <c r="G21">
-        <v>1.59064564975094</v>
+        <v>0.4572629172116223</v>
       </c>
       <c r="H21">
-        <v>0.9081778963072225</v>
+        <v>1.859694969130743E-07</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002351238177519477</v>
       </c>
       <c r="J21">
-        <v>0.06728990840430349</v>
+        <v>0.3354729697846324</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3119269963206328</v>
       </c>
       <c r="L21">
-        <v>0.2592551246950165</v>
+        <v>0.1133544503376127</v>
       </c>
       <c r="M21">
-        <v>0.7455635122229154</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7067824291617164</v>
+        <v>0.3291642535795916</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5834099649010014</v>
+      </c>
+      <c r="P21">
+        <v>0.9359480718508024</v>
+      </c>
+      <c r="Q21">
+        <v>1.621239605396227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.795681732777552</v>
+        <v>3.252563000550595</v>
       </c>
       <c r="C22">
-        <v>0.6979170651464415</v>
+        <v>0.5549509986751389</v>
       </c>
       <c r="D22">
-        <v>0.03194518053290807</v>
+        <v>0.1330850831590382</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.833813759445704</v>
+        <v>0.7406541638297028</v>
       </c>
       <c r="G22">
-        <v>1.682136275004353</v>
+        <v>0.4786045084987762</v>
       </c>
       <c r="H22">
-        <v>0.9444602084433029</v>
+        <v>8.575002903454809E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002635005921475475</v>
       </c>
       <c r="J22">
-        <v>0.06597949005719883</v>
+        <v>0.3425583149947045</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3140390908231261</v>
       </c>
       <c r="L22">
-        <v>0.2740302739085507</v>
+        <v>0.1150943348482962</v>
       </c>
       <c r="M22">
-        <v>0.8003377411124575</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6658725675489734</v>
+        <v>0.3475820015932527</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6247948809894837</v>
+      </c>
+      <c r="P22">
+        <v>0.9350014303394971</v>
+      </c>
+      <c r="Q22">
+        <v>1.681516472888234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.614409498402097</v>
+        <v>3.137373620079813</v>
       </c>
       <c r="C23">
-        <v>0.6731521348556555</v>
+        <v>0.5394821496364273</v>
       </c>
       <c r="D23">
-        <v>0.03150438441217318</v>
+        <v>0.1304654865034038</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.787657301133663</v>
+        <v>0.7279278618953384</v>
       </c>
       <c r="G23">
-        <v>1.632905793669067</v>
+        <v>0.4683622620210883</v>
       </c>
       <c r="H23">
-        <v>0.9248910063599283</v>
+        <v>2.130656284315968E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002173691866685701</v>
       </c>
       <c r="J23">
-        <v>0.06667574030852297</v>
+        <v>0.3393544771940071</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3138011543998402</v>
       </c>
       <c r="L23">
-        <v>0.2661158636480394</v>
+        <v>0.1141937583806056</v>
       </c>
       <c r="M23">
-        <v>0.7710239520432154</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6875479515767093</v>
+        <v>0.3372619344922612</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6029096508413119</v>
+      </c>
+      <c r="P23">
+        <v>0.9340976935344116</v>
+      </c>
+      <c r="Q23">
+        <v>1.65299002773591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.937360870652753</v>
+        <v>2.694990795528668</v>
       </c>
       <c r="C24">
-        <v>0.5802837931132103</v>
+        <v>0.4836392630203932</v>
       </c>
       <c r="D24">
-        <v>0.02988443596310653</v>
+        <v>0.1206723154896281</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.621131463926787</v>
+        <v>0.6787699030457475</v>
       </c>
       <c r="G24">
-        <v>1.454801357119152</v>
+        <v>0.4286470573020296</v>
       </c>
       <c r="H24">
-        <v>0.855066645065989</v>
+        <v>0.0001810419875529767</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00128289353551736</v>
       </c>
       <c r="J24">
-        <v>0.06938169620612111</v>
+        <v>0.3268532855631605</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3120432439489385</v>
       </c>
       <c r="L24">
-        <v>0.2367401919207452</v>
+        <v>0.1106919860087561</v>
       </c>
       <c r="M24">
-        <v>0.6616497334521085</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.773031447165895</v>
+        <v>0.2991164010342118</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5196960157209816</v>
+      </c>
+      <c r="P24">
+        <v>0.9343224513195807</v>
+      </c>
+      <c r="Q24">
+        <v>1.542209274667641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.223534901231972</v>
+        <v>2.216451888450763</v>
       </c>
       <c r="C25">
-        <v>0.4815856689734233</v>
+        <v>0.4235989581584221</v>
       </c>
       <c r="D25">
-        <v>0.02822253450982082</v>
+        <v>0.110269797446108</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.456761789332134</v>
+        <v>0.6282494222557702</v>
       </c>
       <c r="G25">
-        <v>1.277900455909077</v>
+        <v>0.3878134603408654</v>
       </c>
       <c r="H25">
-        <v>0.787706588949419</v>
+        <v>0.001145040440299283</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001118823352340037</v>
       </c>
       <c r="J25">
-        <v>0.0724475570306149</v>
+        <v>0.3146161137098744</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3114452873590885</v>
       </c>
       <c r="L25">
-        <v>0.2061546709707898</v>
+        <v>0.1067922924753009</v>
       </c>
       <c r="M25">
-        <v>0.5465707791276699</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8718865664511801</v>
+        <v>0.2582279115814288</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4299062594681899</v>
+      </c>
+      <c r="P25">
+        <v>0.9373992565387539</v>
+      </c>
+      <c r="Q25">
+        <v>1.429549934696155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.870707439194604</v>
+        <v>1.828203360775063</v>
       </c>
       <c r="C2">
-        <v>0.3757431001688474</v>
+        <v>0.3794986437184633</v>
       </c>
       <c r="D2">
-        <v>0.1026688443761401</v>
+        <v>0.1029607483207755</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5962895816581266</v>
+        <v>0.5720650108673624</v>
       </c>
       <c r="G2">
-        <v>0.362153777250299</v>
+        <v>0.3237550304427614</v>
       </c>
       <c r="H2">
-        <v>0.00245067135071797</v>
+        <v>0.002126675860421368</v>
       </c>
       <c r="I2">
-        <v>0.0009078600816558868</v>
+        <v>0.0007688941312693487</v>
       </c>
       <c r="J2">
-        <v>0.3080670932890897</v>
+        <v>0.3325786402691548</v>
       </c>
       <c r="K2">
-        <v>0.3142941404998112</v>
+        <v>0.2917713616380233</v>
       </c>
       <c r="L2">
-        <v>0.1038795676159134</v>
+        <v>0.1507961755128591</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07570165081990865</v>
       </c>
       <c r="N2">
-        <v>0.2271369509331009</v>
+        <v>0.1013013214600074</v>
       </c>
       <c r="O2">
-        <v>0.3641854288709894</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9389578559137703</v>
+        <v>0.2385725648148878</v>
       </c>
       <c r="Q2">
-        <v>1.361069449146626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3616390420229294</v>
+      </c>
+      <c r="R2">
+        <v>0.9421908384270949</v>
+      </c>
+      <c r="S2">
+        <v>1.294404797697979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.630765786389503</v>
+        <v>1.597970741726328</v>
       </c>
       <c r="C3">
-        <v>0.3454642454396719</v>
+        <v>0.3438938570754857</v>
       </c>
       <c r="D3">
-        <v>0.09762374985447764</v>
+        <v>0.09799584342029277</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5738012226037839</v>
+        <v>0.5523664496192566</v>
       </c>
       <c r="G3">
-        <v>0.3439171066738922</v>
+        <v>0.308594178272962</v>
       </c>
       <c r="H3">
-        <v>0.003686278390266973</v>
+        <v>0.00321076842579826</v>
       </c>
       <c r="I3">
-        <v>0.001463457953329694</v>
+        <v>0.001127992879666362</v>
       </c>
       <c r="J3">
-        <v>0.303337052131667</v>
+        <v>0.326854679052353</v>
       </c>
       <c r="K3">
-        <v>0.3155122867598834</v>
+        <v>0.2942586550604815</v>
       </c>
       <c r="L3">
-        <v>0.1017795819470226</v>
+        <v>0.1553589587072111</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07442103204888362</v>
       </c>
       <c r="N3">
-        <v>0.206813506405787</v>
+        <v>0.099279852556172</v>
       </c>
       <c r="O3">
-        <v>0.3192848477334422</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9431101887549289</v>
+        <v>0.2172255740771973</v>
       </c>
       <c r="Q3">
-        <v>1.31223734779465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3172731885499118</v>
+      </c>
+      <c r="R3">
+        <v>0.9403149056461757</v>
+      </c>
+      <c r="S3">
+        <v>1.253023601251726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.482796068516365</v>
+        <v>1.455742199103781</v>
       </c>
       <c r="C4">
-        <v>0.3269174133100137</v>
+        <v>0.3221791247221404</v>
       </c>
       <c r="D4">
-        <v>0.09455872445891345</v>
+        <v>0.09498627616873989</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5604350191019165</v>
+        <v>0.540611203935164</v>
       </c>
       <c r="G4">
-        <v>0.3330450250523214</v>
+        <v>0.2996016780630129</v>
       </c>
       <c r="H4">
-        <v>0.00460504605940848</v>
+        <v>0.004018194710265488</v>
       </c>
       <c r="I4">
-        <v>0.001965922068401849</v>
+        <v>0.001487902969179444</v>
       </c>
       <c r="J4">
-        <v>0.3006698383601432</v>
+        <v>0.3234166458866667</v>
       </c>
       <c r="K4">
-        <v>0.3164962478814211</v>
+        <v>0.2959529403716985</v>
       </c>
       <c r="L4">
-        <v>0.1004450054013648</v>
+        <v>0.1582730528429046</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07415260071955032</v>
       </c>
       <c r="N4">
-        <v>0.1943862129340985</v>
+        <v>0.09799875530935998</v>
       </c>
       <c r="O4">
-        <v>0.2916593733125268</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9463357288848826</v>
+        <v>0.2042030306788618</v>
       </c>
       <c r="Q4">
-        <v>1.283432396596936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2899562011259107</v>
+      </c>
+      <c r="R4">
+        <v>0.9399131728293</v>
+      </c>
+      <c r="S4">
+        <v>1.228485093606082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.421515544388086</v>
+        <v>1.396745725548783</v>
       </c>
       <c r="C5">
-        <v>0.3197438926809042</v>
+        <v>0.3137643769715055</v>
       </c>
       <c r="D5">
-        <v>0.0933239698094539</v>
+        <v>0.09377600885197523</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5547481119234732</v>
+        <v>0.5355582856293566</v>
       </c>
       <c r="G5">
-        <v>0.3283895782832786</v>
+        <v>0.2957170980313251</v>
       </c>
       <c r="H5">
-        <v>0.005020562081015145</v>
+        <v>0.004383733282600444</v>
       </c>
       <c r="I5">
-        <v>0.002282124053465395</v>
+        <v>0.001753202808393084</v>
       </c>
       <c r="J5">
-        <v>0.2994850062009178</v>
+        <v>0.3218730676909374</v>
       </c>
       <c r="K5">
-        <v>0.3167153814458601</v>
+        <v>0.2964534563637748</v>
       </c>
       <c r="L5">
-        <v>0.09987953721420251</v>
+        <v>0.1593664206492527</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07412060185117397</v>
       </c>
       <c r="N5">
-        <v>0.1894519650155644</v>
+        <v>0.0974582110580644</v>
       </c>
       <c r="O5">
-        <v>0.28033806522145</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9480998351886782</v>
+        <v>0.1990379337569763</v>
       </c>
       <c r="Q5">
-        <v>1.271009974305187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2787554438904891</v>
+      </c>
+      <c r="R5">
+        <v>0.9402391992087828</v>
+      </c>
+      <c r="S5">
+        <v>1.2177364240423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.410327812905308</v>
+        <v>1.385932218393918</v>
       </c>
       <c r="C6">
-        <v>0.3190144488092841</v>
+        <v>0.3128602185601181</v>
       </c>
       <c r="D6">
-        <v>0.0931272135426866</v>
+        <v>0.09358378611827334</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5533857512770481</v>
+        <v>0.5343028993361969</v>
       </c>
       <c r="G6">
-        <v>0.3272508686477735</v>
+        <v>0.2947155781053894</v>
       </c>
       <c r="H6">
-        <v>0.005094788934808248</v>
+        <v>0.00444916345923263</v>
       </c>
       <c r="I6">
-        <v>0.00243290420142106</v>
+        <v>0.00191195234921171</v>
       </c>
       <c r="J6">
-        <v>0.2991011532696177</v>
+        <v>0.3214208120045399</v>
       </c>
       <c r="K6">
-        <v>0.3164625731840154</v>
+        <v>0.29625741622894</v>
       </c>
       <c r="L6">
-        <v>0.09977289333036055</v>
+        <v>0.1594007521024174</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07405882334022618</v>
       </c>
       <c r="N6">
-        <v>0.1887782508139608</v>
+        <v>0.09735798922644134</v>
       </c>
       <c r="O6">
-        <v>0.2783975179552911</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9487518224612046</v>
+        <v>0.1983305040118211</v>
       </c>
       <c r="Q6">
-        <v>1.267779874919029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2768341215931009</v>
+      </c>
+      <c r="R6">
+        <v>0.9406798063073012</v>
+      </c>
+      <c r="S6">
+        <v>1.214793197244674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.479223742868129</v>
+        <v>1.451239096640307</v>
       </c>
       <c r="C7">
-        <v>0.3280849481775618</v>
+        <v>0.3229750864995822</v>
       </c>
       <c r="D7">
-        <v>0.09456350685351111</v>
+        <v>0.09511101057760385</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5591990978130568</v>
+        <v>0.5387231863107118</v>
       </c>
       <c r="G7">
-        <v>0.3319702601931809</v>
+        <v>0.3012315795832734</v>
       </c>
       <c r="H7">
-        <v>0.004617927920240128</v>
+        <v>0.004033629752296708</v>
       </c>
       <c r="I7">
-        <v>0.002216669528707804</v>
+        <v>0.001783558836881305</v>
       </c>
       <c r="J7">
-        <v>0.3001336361173443</v>
+        <v>0.3189728343321363</v>
       </c>
       <c r="K7">
-        <v>0.3157007733339015</v>
+        <v>0.294922891400887</v>
       </c>
       <c r="L7">
-        <v>0.1004053800220062</v>
+        <v>0.1577531682170239</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07390073232719097</v>
       </c>
       <c r="N7">
-        <v>0.1947161811724811</v>
+        <v>0.09794942505635129</v>
       </c>
       <c r="O7">
-        <v>0.2913430065027711</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9473257321658508</v>
+        <v>0.2045204862366674</v>
       </c>
       <c r="Q7">
-        <v>1.280029632993475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2894957467859456</v>
+      </c>
+      <c r="R7">
+        <v>0.9413582306705734</v>
+      </c>
+      <c r="S7">
+        <v>1.223007045068329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.784437617579869</v>
+        <v>1.742118820484961</v>
       </c>
       <c r="C8">
-        <v>0.3669875073809976</v>
+        <v>0.3675319040641511</v>
       </c>
       <c r="D8">
-        <v>0.1009513788809215</v>
+        <v>0.1016695602033124</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.586910014494201</v>
+        <v>0.5614651069091465</v>
       </c>
       <c r="G8">
-        <v>0.35445645817898</v>
+        <v>0.32610351927854</v>
       </c>
       <c r="H8">
-        <v>0.002849792108775895</v>
+        <v>0.002486104870048633</v>
       </c>
       <c r="I8">
-        <v>0.001361332417729066</v>
+        <v>0.001218044947091101</v>
       </c>
       <c r="J8">
-        <v>0.3057002085109772</v>
+        <v>0.3172093476412101</v>
       </c>
       <c r="K8">
-        <v>0.3136142515643527</v>
+        <v>0.2907110338950076</v>
       </c>
       <c r="L8">
-        <v>0.1031259075910187</v>
+        <v>0.1514652247513801</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07460590016642854</v>
       </c>
       <c r="N8">
-        <v>0.2206463483685255</v>
+        <v>0.1005317947106779</v>
       </c>
       <c r="O8">
-        <v>0.3484955992791043</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.941584234469083</v>
+        <v>0.2316702594204827</v>
       </c>
       <c r="Q8">
-        <v>1.339704448332242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3456519129632127</v>
+      </c>
+      <c r="R8">
+        <v>0.9442356657107425</v>
+      </c>
+      <c r="S8">
+        <v>1.268660957859694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.382902802060642</v>
+        <v>2.314129502156106</v>
       </c>
       <c r="C9">
-        <v>0.4414572373878229</v>
+        <v>0.4553305881174481</v>
       </c>
       <c r="D9">
-        <v>0.1137131471832902</v>
+        <v>0.1143797807210447</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6470261758072411</v>
+        <v>0.613404300784147</v>
       </c>
       <c r="G9">
-        <v>0.4031368313645771</v>
+        <v>0.369555094901628</v>
       </c>
       <c r="H9">
-        <v>0.0007164812057113279</v>
+        <v>0.0006172144842808702</v>
       </c>
       <c r="I9">
-        <v>0.0006665285318083747</v>
+        <v>0.0008251530818581543</v>
       </c>
       <c r="J9">
-        <v>0.3195052613416465</v>
+        <v>0.3290749571276095</v>
       </c>
       <c r="K9">
-        <v>0.3128904482314105</v>
+        <v>0.286164081450103</v>
       </c>
       <c r="L9">
-        <v>0.1081689473774214</v>
+        <v>0.141156826221339</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08076442733317002</v>
       </c>
       <c r="N9">
-        <v>0.2712468318798074</v>
+        <v>0.1053899539320362</v>
       </c>
       <c r="O9">
-        <v>0.460464969363656</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9340662496676728</v>
+        <v>0.2849771679181146</v>
       </c>
       <c r="Q9">
-        <v>1.472434914841557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4560241557608293</v>
+      </c>
+      <c r="R9">
+        <v>0.9525890783364446</v>
+      </c>
+      <c r="S9">
+        <v>1.379005393130001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.809979574713566</v>
+        <v>2.71584074785585</v>
       </c>
       <c r="C10">
-        <v>0.5002235403061945</v>
+        <v>0.5215298787242375</v>
       </c>
       <c r="D10">
-        <v>0.1212968903084928</v>
+        <v>0.1226442504849246</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6856009691718938</v>
+        <v>0.6421909924086791</v>
       </c>
       <c r="G10">
-        <v>0.4355312036926478</v>
+        <v>0.414735882583912</v>
       </c>
       <c r="H10">
-        <v>0.0002777564042597547</v>
+        <v>0.0002650824569472299</v>
       </c>
       <c r="I10">
-        <v>0.00120429339168826</v>
+        <v>0.001469244580745155</v>
       </c>
       <c r="J10">
-        <v>0.3282805375270925</v>
+        <v>0.3148996760086291</v>
       </c>
       <c r="K10">
-        <v>0.3102379906484956</v>
+        <v>0.2793807162455728</v>
       </c>
       <c r="L10">
-        <v>0.1117757576411957</v>
+        <v>0.1325907211046484</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08607756593268334</v>
       </c>
       <c r="N10">
-        <v>0.2993401606459827</v>
+        <v>0.1090062975847594</v>
       </c>
       <c r="O10">
-        <v>0.5359121736291357</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9379618271325683</v>
+        <v>0.3147293561626157</v>
       </c>
       <c r="Q10">
-        <v>1.55990334419252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5293959646474633</v>
+      </c>
+      <c r="R10">
+        <v>0.9714128426854103</v>
+      </c>
+      <c r="S10">
+        <v>1.437709308419869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.925849480680085</v>
+        <v>2.819209243616001</v>
       </c>
       <c r="C11">
-        <v>0.5560097926733079</v>
+        <v>0.5736487632362639</v>
       </c>
       <c r="D11">
-        <v>0.1082156316051552</v>
+        <v>0.1106767343502213</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6371193710912735</v>
+        <v>0.5887448223700673</v>
       </c>
       <c r="G11">
-        <v>0.4075796499619315</v>
+        <v>0.423707993468696</v>
       </c>
       <c r="H11">
-        <v>0.01884308340142837</v>
+        <v>0.01884083743049203</v>
       </c>
       <c r="I11">
-        <v>0.001922856176496346</v>
+        <v>0.002278728434113475</v>
       </c>
       <c r="J11">
-        <v>0.3108453982519848</v>
+        <v>0.2612275861053561</v>
       </c>
       <c r="K11">
-        <v>0.2826830502516273</v>
+        <v>0.2521787168366281</v>
       </c>
       <c r="L11">
-        <v>0.1204325437860341</v>
+        <v>0.1206858705993277</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07868585203619105</v>
       </c>
       <c r="N11">
-        <v>0.2348716557904993</v>
+        <v>0.1190827174038809</v>
       </c>
       <c r="O11">
-        <v>0.5134027924647171</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9916636915178856</v>
+        <v>0.2477032495294651</v>
       </c>
       <c r="Q11">
-        <v>1.464307942036726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5053050436416981</v>
+      </c>
+      <c r="R11">
+        <v>1.038476420056512</v>
+      </c>
+      <c r="S11">
+        <v>1.324047137131942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.936519088764612</v>
+        <v>2.828489181401949</v>
       </c>
       <c r="C12">
-        <v>0.5902343001024235</v>
+        <v>0.6041378658768508</v>
       </c>
       <c r="D12">
-        <v>0.09643926848623607</v>
+        <v>0.09910997722823112</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5906120393995877</v>
+        <v>0.5428081141411027</v>
       </c>
       <c r="G12">
-        <v>0.3790038400509417</v>
+        <v>0.4123899786405332</v>
       </c>
       <c r="H12">
-        <v>0.05754327682473814</v>
+        <v>0.05754421356520822</v>
       </c>
       <c r="I12">
-        <v>0.001960676836043618</v>
+        <v>0.002307787563248453</v>
       </c>
       <c r="J12">
-        <v>0.2950840225359315</v>
+        <v>0.23497552531731</v>
       </c>
       <c r="K12">
-        <v>0.2620833800147864</v>
+        <v>0.2337127682810376</v>
       </c>
       <c r="L12">
-        <v>0.1352454774764738</v>
+        <v>0.1137698271928578</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07216552117967012</v>
       </c>
       <c r="N12">
-        <v>0.1818714026003008</v>
+        <v>0.1348866941914757</v>
       </c>
       <c r="O12">
-        <v>0.4791777173373077</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1.03928981162322</v>
+        <v>0.1924011461220516</v>
       </c>
       <c r="Q12">
-        <v>1.370785415884285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4707944522603285</v>
+      </c>
+      <c r="R12">
+        <v>1.092351072170842</v>
+      </c>
+      <c r="S12">
+        <v>1.229795423646578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.862389482685671</v>
+        <v>2.764117076166883</v>
       </c>
       <c r="C13">
-        <v>0.6115120829368834</v>
+        <v>0.6231160247350829</v>
       </c>
       <c r="D13">
-        <v>0.08505255718692695</v>
+        <v>0.08714406465821156</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5410995844966777</v>
+        <v>0.4992070648494646</v>
       </c>
       <c r="G13">
-        <v>0.3466501860484499</v>
+        <v>0.3763592251195291</v>
       </c>
       <c r="H13">
-        <v>0.1133503237717264</v>
+        <v>0.1133460053190589</v>
       </c>
       <c r="I13">
-        <v>0.001813033179481671</v>
+        <v>0.002158627342237374</v>
       </c>
       <c r="J13">
-        <v>0.2788318672589298</v>
+        <v>0.2282903228622004</v>
       </c>
       <c r="K13">
-        <v>0.2443249476838609</v>
+        <v>0.2198485378736486</v>
       </c>
       <c r="L13">
-        <v>0.1552565749750769</v>
+        <v>0.1094245224871333</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06585534030470974</v>
       </c>
       <c r="N13">
-        <v>0.1354374945076131</v>
+        <v>0.1557312304088541</v>
       </c>
       <c r="O13">
-        <v>0.4339411332961944</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.085541217892754</v>
+        <v>0.1438228930942316</v>
       </c>
       <c r="Q13">
-        <v>1.268145662038194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4265219815150729</v>
+      </c>
+      <c r="R13">
+        <v>1.137472672881785</v>
+      </c>
+      <c r="S13">
+        <v>1.143467644366453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.771478044330877</v>
+        <v>2.684846715447634</v>
       </c>
       <c r="C14">
-        <v>0.6210159053902089</v>
+        <v>0.6317140776084784</v>
       </c>
       <c r="D14">
-        <v>0.07744929653404142</v>
+        <v>0.07889798973376116</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5052070720810349</v>
+        <v>0.4694357717217841</v>
       </c>
       <c r="G14">
-        <v>0.3222804902481613</v>
+        <v>0.3412674573254435</v>
       </c>
       <c r="H14">
-        <v>0.1627551098597735</v>
+        <v>0.1627400717260201</v>
       </c>
       <c r="I14">
-        <v>0.001718981782319773</v>
+        <v>0.002078340405933687</v>
       </c>
       <c r="J14">
-        <v>0.2672009859169648</v>
+        <v>0.2308575072730363</v>
       </c>
       <c r="K14">
-        <v>0.2332090490301297</v>
+        <v>0.2120079511867949</v>
       </c>
       <c r="L14">
-        <v>0.1725110813029147</v>
+        <v>0.1073205896910885</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0616019572911366</v>
       </c>
       <c r="N14">
-        <v>0.1072985836324065</v>
+        <v>0.1734989034240542</v>
       </c>
       <c r="O14">
-        <v>0.3976208227800555</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.117844438827646</v>
+        <v>0.1143020152955714</v>
       </c>
       <c r="Q14">
-        <v>1.192077115025057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3913569910495127</v>
+      </c>
+      <c r="R14">
+        <v>1.165330877227831</v>
+      </c>
+      <c r="S14">
+        <v>1.085359290167744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.730444412457189</v>
+        <v>2.648737632495852</v>
       </c>
       <c r="C15">
-        <v>0.6209287466674027</v>
+        <v>0.6317443990124616</v>
       </c>
       <c r="D15">
-        <v>0.075583571161701</v>
+        <v>0.07678320142121464</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4954202900698164</v>
+        <v>0.4620089593751189</v>
       </c>
       <c r="G15">
-        <v>0.3152102712441334</v>
+        <v>0.3282902070933034</v>
       </c>
       <c r="H15">
-        <v>0.1752947262345117</v>
+        <v>0.1752732354969595</v>
       </c>
       <c r="I15">
-        <v>0.001775247906482313</v>
+        <v>0.00215964347965425</v>
       </c>
       <c r="J15">
-        <v>0.2641080253727495</v>
+        <v>0.2345844760017854</v>
       </c>
       <c r="K15">
-        <v>0.2307899743379203</v>
+        <v>0.2106547080173069</v>
       </c>
       <c r="L15">
-        <v>0.1767473578757617</v>
+        <v>0.107126146986614</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0605286012788433</v>
       </c>
       <c r="N15">
-        <v>0.1009368825445733</v>
+        <v>0.1778638428548192</v>
       </c>
       <c r="O15">
-        <v>0.386398164588023</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.125232923178785</v>
+        <v>0.1076239694685057</v>
       </c>
       <c r="Q15">
-        <v>1.170581275321268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3806220087391523</v>
+      </c>
+      <c r="R15">
+        <v>1.170131020634244</v>
+      </c>
+      <c r="S15">
+        <v>1.071089075055013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.561609321961612</v>
+        <v>2.497696591194313</v>
       </c>
       <c r="C16">
-        <v>0.5911860030007574</v>
+        <v>0.6041397908871886</v>
       </c>
       <c r="D16">
-        <v>0.0748647974197354</v>
+        <v>0.07524308172200733</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4886025967708321</v>
+        <v>0.4626728261079336</v>
       </c>
       <c r="G16">
-        <v>0.3074109673100835</v>
+        <v>0.2937475407996004</v>
       </c>
       <c r="H16">
-        <v>0.1627415773940015</v>
+        <v>0.1626771797818236</v>
       </c>
       <c r="I16">
-        <v>0.001658917916853575</v>
+        <v>0.002051687959658821</v>
       </c>
       <c r="J16">
-        <v>0.2632920947684809</v>
+        <v>0.2639207089832283</v>
       </c>
       <c r="K16">
-        <v>0.2349908421492994</v>
+        <v>0.2171370897461706</v>
       </c>
       <c r="L16">
-        <v>0.1703514236589427</v>
+        <v>0.1107151986558996</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06061468414021931</v>
       </c>
       <c r="N16">
-        <v>0.09961689219900904</v>
+        <v>0.1715055729327801</v>
       </c>
       <c r="O16">
-        <v>0.3642714502579665</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.111528473618932</v>
+        <v>0.1063282477629315</v>
       </c>
       <c r="Q16">
-        <v>1.152162935029011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3602749188437926</v>
+      </c>
+      <c r="R16">
+        <v>1.143730690879011</v>
+      </c>
+      <c r="S16">
+        <v>1.076880475119665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.480329488932227</v>
+        <v>2.422301874689481</v>
       </c>
       <c r="C17">
-        <v>0.5634465198774876</v>
+        <v>0.5775684717926595</v>
       </c>
       <c r="D17">
-        <v>0.07823805848882159</v>
+        <v>0.07834761675556479</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5022900501821113</v>
+        <v>0.4783464866991096</v>
       </c>
       <c r="G17">
-        <v>0.3143079160756841</v>
+        <v>0.289009203300381</v>
       </c>
       <c r="H17">
-        <v>0.1250865103464065</v>
+        <v>0.124992076507553</v>
       </c>
       <c r="I17">
-        <v>0.001656274205454444</v>
+        <v>0.002045770837199257</v>
       </c>
       <c r="J17">
-        <v>0.2688455767910085</v>
+        <v>0.282972755649439</v>
       </c>
       <c r="K17">
-        <v>0.2440404701130809</v>
+        <v>0.2261620884921047</v>
       </c>
       <c r="L17">
-        <v>0.1557126190513216</v>
+        <v>0.1148231881913926</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.06271696740367183</v>
       </c>
       <c r="N17">
-        <v>0.1126740023493866</v>
+        <v>0.1565573427016247</v>
       </c>
       <c r="O17">
-        <v>0.3663367431834104</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.084180301042394</v>
+        <v>0.1200802963554324</v>
       </c>
       <c r="Q17">
-        <v>1.178305336049036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3629484519899222</v>
+      </c>
+      <c r="R17">
+        <v>1.110609841686369</v>
+      </c>
+      <c r="S17">
+        <v>1.110140437118062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.466898817730907</v>
+        <v>2.407635350922362</v>
       </c>
       <c r="C18">
-        <v>0.5336068292623963</v>
+        <v>0.5491573091193231</v>
       </c>
       <c r="D18">
-        <v>0.08600013405006024</v>
+        <v>0.08606707926752932</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5365490189182012</v>
+        <v>0.5113563336881271</v>
       </c>
       <c r="G18">
-        <v>0.3356003188372298</v>
+        <v>0.3036999396211257</v>
       </c>
       <c r="H18">
-        <v>0.07229031055041446</v>
+        <v>0.07218665668452218</v>
       </c>
       <c r="I18">
-        <v>0.001426344161521875</v>
+        <v>0.001764973889711641</v>
       </c>
       <c r="J18">
-        <v>0.2809386250150681</v>
+        <v>0.3002436109449107</v>
       </c>
       <c r="K18">
-        <v>0.2592835664402351</v>
+        <v>0.2397413469055039</v>
       </c>
       <c r="L18">
-        <v>0.1360675316896831</v>
+        <v>0.1203936489376343</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.06712853782856243</v>
       </c>
       <c r="N18">
-        <v>0.1435154275638197</v>
+        <v>0.1362534702423801</v>
       </c>
       <c r="O18">
-        <v>0.3900132947887727</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1.042721679626425</v>
+        <v>0.1523677107854198</v>
       </c>
       <c r="Q18">
-        <v>1.248709156821477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3866094180244204</v>
+      </c>
+      <c r="R18">
+        <v>1.066835237691322</v>
+      </c>
+      <c r="S18">
+        <v>1.177944642370946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.50336695215799</v>
+        <v>2.438209021311764</v>
       </c>
       <c r="C19">
-        <v>0.5079443861326638</v>
+        <v>0.5255143526628956</v>
       </c>
       <c r="D19">
-        <v>0.09756016980159643</v>
+        <v>0.09771373228503677</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.584232358924929</v>
+        <v>0.5556546169562111</v>
       </c>
       <c r="G19">
-        <v>0.3659022598094168</v>
+        <v>0.3296114993102819</v>
       </c>
       <c r="H19">
-        <v>0.02692919777089742</v>
+        <v>0.0268399685570202</v>
       </c>
       <c r="I19">
-        <v>0.001554653612671153</v>
+        <v>0.001923779289517924</v>
       </c>
       <c r="J19">
-        <v>0.2967875233562012</v>
+        <v>0.3164884490486699</v>
       </c>
       <c r="K19">
-        <v>0.2781259264050284</v>
+        <v>0.2558049259271762</v>
       </c>
       <c r="L19">
-        <v>0.1196295879822173</v>
+        <v>0.1266243171005108</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07298962374689211</v>
       </c>
       <c r="N19">
-        <v>0.1932513630851176</v>
+        <v>0.1188301885013026</v>
       </c>
       <c r="O19">
-        <v>0.4299999300182265</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9983910556386348</v>
+        <v>0.2042414718367169</v>
       </c>
       <c r="Q19">
-        <v>1.346123736762763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4261757750324477</v>
+      </c>
+      <c r="R19">
+        <v>1.02226590654837</v>
+      </c>
+      <c r="S19">
+        <v>1.266567232426382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.688886160491336</v>
+        <v>2.605157656466133</v>
       </c>
       <c r="C20">
-        <v>0.4890090861385374</v>
+        <v>0.5103320868871606</v>
       </c>
       <c r="D20">
-        <v>0.1192803764767092</v>
+        <v>0.1200091514531323</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6713949200343308</v>
+        <v>0.6331026940624653</v>
       </c>
       <c r="G20">
-        <v>0.4235381291936591</v>
+        <v>0.3894840229369692</v>
       </c>
       <c r="H20">
-        <v>0.0003185059691119818</v>
+        <v>0.0002885518485395977</v>
       </c>
       <c r="I20">
-        <v>0.001759502371000643</v>
+        <v>0.002169732363819676</v>
       </c>
       <c r="J20">
-        <v>0.3241836112420202</v>
+        <v>0.3298143316597049</v>
       </c>
       <c r="K20">
-        <v>0.3082951743263322</v>
+        <v>0.2796746949665376</v>
       </c>
       <c r="L20">
-        <v>0.1107718888924927</v>
+        <v>0.1342516178955506</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08398396183928014</v>
       </c>
       <c r="N20">
-        <v>0.2927848280637022</v>
+        <v>0.1080862461662138</v>
       </c>
       <c r="O20">
-        <v>0.5153201968633283</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9403402168318138</v>
+        <v>0.3078334753860474</v>
       </c>
       <c r="Q20">
-        <v>1.525791693700313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5098951908451141</v>
+      </c>
+      <c r="R20">
+        <v>0.9685023019347057</v>
+      </c>
+      <c r="S20">
+        <v>1.419296551473849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.030374506145392</v>
+        <v>2.90617386742008</v>
       </c>
       <c r="C21">
-        <v>0.5289395786349189</v>
+        <v>0.5476556634857843</v>
       </c>
       <c r="D21">
-        <v>0.1282358064616744</v>
+        <v>0.1319639496884761</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.714366564068925</v>
+        <v>0.6546471670822314</v>
       </c>
       <c r="G21">
-        <v>0.4572629172116223</v>
+        <v>0.4878405533611527</v>
       </c>
       <c r="H21">
-        <v>1.859694969130743E-07</v>
+        <v>2.377906449524403E-08</v>
       </c>
       <c r="I21">
-        <v>0.002351238177519477</v>
+        <v>0.002735274206917104</v>
       </c>
       <c r="J21">
-        <v>0.3354729697846324</v>
+        <v>0.2625140631367984</v>
       </c>
       <c r="K21">
-        <v>0.3119269963206328</v>
+        <v>0.2743660605024978</v>
       </c>
       <c r="L21">
-        <v>0.1133544503376127</v>
+        <v>0.1279235095269371</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0884979562703414</v>
       </c>
       <c r="N21">
-        <v>0.3291642535795916</v>
+        <v>0.1101313788529987</v>
       </c>
       <c r="O21">
-        <v>0.5834099649010014</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9359480718508024</v>
+        <v>0.3457241289695219</v>
       </c>
       <c r="Q21">
-        <v>1.621239605396227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5733316202378376</v>
+      </c>
+      <c r="R21">
+        <v>0.9847643935762136</v>
+      </c>
+      <c r="S21">
+        <v>1.449099562606762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.252563000550595</v>
+        <v>3.10021264074993</v>
       </c>
       <c r="C22">
-        <v>0.5549509986751389</v>
+        <v>0.5710515792703745</v>
       </c>
       <c r="D22">
-        <v>0.1330850831590382</v>
+        <v>0.1390681575646013</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7406541638297028</v>
+        <v>0.6658804198537567</v>
       </c>
       <c r="G22">
-        <v>0.4786045084987762</v>
+        <v>0.5606497911231543</v>
       </c>
       <c r="H22">
-        <v>8.575002903454809E-05</v>
+        <v>6.579022469455076E-05</v>
       </c>
       <c r="I22">
-        <v>0.002635005921475475</v>
+        <v>0.002888204833814356</v>
       </c>
       <c r="J22">
-        <v>0.3425583149947045</v>
+        <v>0.2235149616043586</v>
       </c>
       <c r="K22">
-        <v>0.3140390908231261</v>
+        <v>0.2702980780792359</v>
       </c>
       <c r="L22">
-        <v>0.1150943348482962</v>
+        <v>0.1237424973094754</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09147431976817799</v>
       </c>
       <c r="N22">
-        <v>0.3475820015932527</v>
+        <v>0.1116219417551267</v>
       </c>
       <c r="O22">
-        <v>0.6247948809894837</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9350014303394971</v>
+        <v>0.3649183944475851</v>
       </c>
       <c r="Q22">
-        <v>1.681516472888234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6113942455286505</v>
+      </c>
+      <c r="R22">
+        <v>0.99842602169511</v>
+      </c>
+      <c r="S22">
+        <v>1.463096589679537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.137373620079813</v>
+        <v>3.002732332202697</v>
       </c>
       <c r="C23">
-        <v>0.5394821496364273</v>
+        <v>0.5580759147131005</v>
       </c>
       <c r="D23">
-        <v>0.1304654865034038</v>
+        <v>0.1348833832212719</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7279278618953384</v>
+        <v>0.6629360783307803</v>
       </c>
       <c r="G23">
-        <v>0.4683622620210883</v>
+        <v>0.5143094128006567</v>
       </c>
       <c r="H23">
-        <v>2.130656284315968E-05</v>
+        <v>1.58367276046345E-05</v>
       </c>
       <c r="I23">
-        <v>0.002173691866685701</v>
+        <v>0.002441737150904011</v>
       </c>
       <c r="J23">
-        <v>0.3393544771940071</v>
+        <v>0.250606143669188</v>
       </c>
       <c r="K23">
-        <v>0.3138011543998402</v>
+        <v>0.2739437845709354</v>
       </c>
       <c r="L23">
-        <v>0.1141937583806056</v>
+        <v>0.1264424494741068</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09049558345135722</v>
       </c>
       <c r="N23">
-        <v>0.3372619344922612</v>
+        <v>0.1108705674087034</v>
       </c>
       <c r="O23">
-        <v>0.6029096508413119</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9340976935344116</v>
+        <v>0.3542161113448259</v>
       </c>
       <c r="Q23">
-        <v>1.65299002773591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5916956377996456</v>
+      </c>
+      <c r="R23">
+        <v>0.9881741233141099</v>
+      </c>
+      <c r="S23">
+        <v>1.464742056574011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.694990795528668</v>
+        <v>2.61086525681128</v>
       </c>
       <c r="C24">
-        <v>0.4836392630203932</v>
+        <v>0.5049048556358855</v>
       </c>
       <c r="D24">
-        <v>0.1206723154896281</v>
+        <v>0.1213952554203601</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6787699030457475</v>
+        <v>0.6401405957872228</v>
       </c>
       <c r="G24">
-        <v>0.4286470573020296</v>
+        <v>0.3937083258438321</v>
       </c>
       <c r="H24">
-        <v>0.0001810419875529767</v>
+        <v>0.0001526734590659995</v>
       </c>
       <c r="I24">
-        <v>0.00128289353551736</v>
+        <v>0.001593409599876416</v>
       </c>
       <c r="J24">
-        <v>0.3268532855631605</v>
+        <v>0.3329648761399397</v>
       </c>
       <c r="K24">
-        <v>0.3120432439489385</v>
+        <v>0.2830147633796152</v>
       </c>
       <c r="L24">
-        <v>0.1106919860087561</v>
+        <v>0.1355498612434172</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08519336231558938</v>
       </c>
       <c r="N24">
-        <v>0.2991164010342118</v>
+        <v>0.1078390155191933</v>
       </c>
       <c r="O24">
-        <v>0.5196960157209816</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9343224513195807</v>
+        <v>0.3144066232920153</v>
       </c>
       <c r="Q24">
-        <v>1.542209274667641</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5142486350611861</v>
+      </c>
+      <c r="R24">
+        <v>0.9619723259655757</v>
+      </c>
+      <c r="S24">
+        <v>1.434857548435218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.216451888450763</v>
+        <v>2.156456416456194</v>
       </c>
       <c r="C25">
-        <v>0.4235989581584221</v>
+        <v>0.4346141131191246</v>
       </c>
       <c r="D25">
-        <v>0.110269797446108</v>
+        <v>0.110773947245228</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6282494222557702</v>
+        <v>0.5979308900543074</v>
       </c>
       <c r="G25">
-        <v>0.3878134603408654</v>
+        <v>0.3518137976822118</v>
       </c>
       <c r="H25">
-        <v>0.001145040440299283</v>
+        <v>0.0009893526173702094</v>
       </c>
       <c r="I25">
-        <v>0.001118823352340037</v>
+        <v>0.001301165303004836</v>
       </c>
       <c r="J25">
-        <v>0.3146161137098744</v>
+        <v>0.3302303645303226</v>
       </c>
       <c r="K25">
-        <v>0.3114452873590885</v>
+        <v>0.2862849535034577</v>
       </c>
       <c r="L25">
-        <v>0.1067922924753009</v>
+        <v>0.1434603403738635</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07831897728464732</v>
       </c>
       <c r="N25">
-        <v>0.2582279115814288</v>
+        <v>0.1040958308788973</v>
       </c>
       <c r="O25">
-        <v>0.4299062594681899</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9373992565387539</v>
+        <v>0.2712526541848774</v>
       </c>
       <c r="Q25">
-        <v>1.429549934696155</v>
+        <v>0.4261263283395849</v>
+      </c>
+      <c r="R25">
+        <v>0.9511243184962268</v>
+      </c>
+      <c r="S25">
+        <v>1.345662222767373</v>
       </c>
     </row>
   </sheetData>
